--- a/BackTest/2019-11-17 BackTest DVP.xlsx
+++ b/BackTest/2019-11-17 BackTest DVP.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.3100000000000023</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>54.54545454545403</v>
+      </c>
       <c r="L12" t="n">
         <v>9.944999999999999</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.3100000000000023</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>52.3809523809519</v>
+      </c>
       <c r="L13" t="n">
         <v>9.956999999999999</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.4100000000000019</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>67.74193548387056</v>
+      </c>
       <c r="L14" t="n">
         <v>9.977999999999998</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.4100000000000019</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>66.66666666666627</v>
+      </c>
       <c r="L15" t="n">
         <v>9.998999999999999</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.610000000000003</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>77.7777777777776</v>
+      </c>
       <c r="L16" t="n">
         <v>10.039</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>0.7100000000000044</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>39.99999999999957</v>
+      </c>
       <c r="L17" t="n">
         <v>10.064</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>0.7100000000000044</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>39.99999999999957</v>
+      </c>
       <c r="L18" t="n">
         <v>10.084</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>0.8100000000000058</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>63.6363636363634</v>
+      </c>
       <c r="L19" t="n">
         <v>10.114</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>0.9100000000000072</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>34.4262295081963</v>
+      </c>
       <c r="L20" t="n">
         <v>10.139</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>0.9100000000000072</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>33.33333333333294</v>
+      </c>
       <c r="L21" t="n">
         <v>10.16</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>1.010000000000009</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>42.85714285714256</v>
+      </c>
       <c r="L22" t="n">
         <v>10.19</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>1.110000000000008</v>
       </c>
       <c r="K23" t="n">
-        <v>50.98039215686237</v>
+        <v>42.85714285714256</v>
       </c>
       <c r="L23" t="n">
         <v>10.23</v>
@@ -1466,7 +1488,7 @@
         <v>1.210000000000008</v>
       </c>
       <c r="K24" t="n">
-        <v>54.95495495495458</v>
+        <v>49.99999999999967</v>
       </c>
       <c r="L24" t="n">
         <v>10.27</v>
@@ -1515,7 +1537,7 @@
         <v>1.310000000000008</v>
       </c>
       <c r="K25" t="n">
-        <v>42.14876033057828</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L25" t="n">
         <v>10.3</v>
@@ -1564,7 +1586,7 @@
         <v>1.410000000000007</v>
       </c>
       <c r="K26" t="n">
-        <v>46.15384615384591</v>
+        <v>42.85714285714278</v>
       </c>
       <c r="L26" t="n">
         <v>10.32</v>
@@ -1613,7 +1635,7 @@
         <v>1.410000000000007</v>
       </c>
       <c r="K27" t="n">
-        <v>43.99999999999981</v>
+        <v>42.85714285714278</v>
       </c>
       <c r="L27" t="n">
         <v>10.35</v>
@@ -1662,7 +1684,7 @@
         <v>1.510000000000007</v>
       </c>
       <c r="K28" t="n">
-        <v>46.15384615384591</v>
+        <v>42.85714285714264</v>
       </c>
       <c r="L28" t="n">
         <v>10.39</v>
@@ -1711,7 +1733,7 @@
         <v>1.510000000000007</v>
       </c>
       <c r="K29" t="n">
-        <v>46.15384615384591</v>
+        <v>66.66666666666676</v>
       </c>
       <c r="L29" t="n">
         <v>10.42</v>
@@ -1760,7 +1782,7 @@
         <v>1.510000000000007</v>
       </c>
       <c r="K30" t="n">
-        <v>51.9999999999998</v>
+        <v>66.66666666666676</v>
       </c>
       <c r="L30" t="n">
         <v>10.46</v>
@@ -1809,7 +1831,7 @@
         <v>1.610000000000007</v>
       </c>
       <c r="K31" t="n">
-        <v>54.19847328244251</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L31" t="n">
         <v>10.51</v>
@@ -1860,7 +1882,7 @@
         <v>1.610000000000007</v>
       </c>
       <c r="K32" t="n">
-        <v>53.84615384615361</v>
+        <v>60</v>
       </c>
       <c r="L32" t="n">
         <v>10.55</v>
@@ -1911,7 +1933,7 @@
         <v>1.610000000000007</v>
       </c>
       <c r="K33" t="n">
-        <v>53.84615384615361</v>
+        <v>50</v>
       </c>
       <c r="L33" t="n">
         <v>10.58</v>
@@ -1962,7 +1984,7 @@
         <v>1.810000000000006</v>
       </c>
       <c r="K34" t="n">
-        <v>28.57142857142851</v>
+        <v>20</v>
       </c>
       <c r="L34" t="n">
         <v>10.58</v>
@@ -2013,7 +2035,7 @@
         <v>1.910000000000005</v>
       </c>
       <c r="K35" t="n">
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="L35" t="n">
         <v>10.58</v>
@@ -2064,7 +2086,7 @@
         <v>2.010000000000005</v>
       </c>
       <c r="K36" t="n">
-        <v>14.28571428571421</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>10.58</v>
@@ -2115,7 +2137,7 @@
         <v>2.210000000000004</v>
       </c>
       <c r="K37" t="n">
-        <v>6.666666666666761</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L37" t="n">
         <v>10.56</v>
@@ -2166,7 +2188,7 @@
         <v>2.310000000000006</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>-50.00000000000011</v>
       </c>
       <c r="L38" t="n">
         <v>10.52</v>
@@ -2217,7 +2239,7 @@
         <v>2.410000000000007</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>-33.3333333333332</v>
       </c>
       <c r="L39" t="n">
         <v>10.49</v>
@@ -2268,7 +2290,7 @@
         <v>2.510000000000007</v>
       </c>
       <c r="K40" t="n">
-        <v>12.50000000000007</v>
+        <v>-33.3333333333332</v>
       </c>
       <c r="L40" t="n">
         <v>10.47</v>
@@ -2319,7 +2341,7 @@
         <v>2.710000000000008</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>-45.4545454545454</v>
       </c>
       <c r="L41" t="n">
         <v>10.42</v>
@@ -2370,7 +2392,7 @@
         <v>2.710000000000008</v>
       </c>
       <c r="K42" t="n">
-        <v>-5.882352941176556</v>
+        <v>-45.4545454545454</v>
       </c>
       <c r="L42" t="n">
         <v>10.37</v>
@@ -2421,7 +2443,7 @@
         <v>2.910000000000009</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>-9.090909090909033</v>
       </c>
       <c r="L43" t="n">
         <v>10.34</v>
@@ -2472,7 +2494,7 @@
         <v>3.21000000000001</v>
       </c>
       <c r="K44" t="n">
-        <v>-20</v>
+        <v>-23.07692307692306</v>
       </c>
       <c r="L44" t="n">
         <v>10.3</v>
@@ -2523,7 +2545,7 @@
         <v>3.310000000000009</v>
       </c>
       <c r="K45" t="n">
-        <v>-10.00000000000004</v>
+        <v>-23.07692307692306</v>
       </c>
       <c r="L45" t="n">
         <v>10.28</v>
@@ -2574,7 +2596,7 @@
         <v>3.310000000000009</v>
       </c>
       <c r="K46" t="n">
-        <v>-15.78947368421055</v>
+        <v>-9.090909090909179</v>
       </c>
       <c r="L46" t="n">
         <v>10.25</v>
@@ -2625,7 +2647,7 @@
         <v>3.410000000000009</v>
       </c>
       <c r="K47" t="n">
-        <v>-20</v>
+        <v>-9.090909090909033</v>
       </c>
       <c r="L47" t="n">
         <v>10.23</v>
@@ -2676,7 +2698,7 @@
         <v>3.61000000000001</v>
       </c>
       <c r="K48" t="n">
-        <v>-14.28571428571421</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>10.24</v>
@@ -2727,7 +2749,7 @@
         <v>3.710000000000012</v>
       </c>
       <c r="K49" t="n">
-        <v>-18.18181818181816</v>
+        <v>-16.66666666666669</v>
       </c>
       <c r="L49" t="n">
         <v>10.23</v>
@@ -2778,7 +2800,7 @@
         <v>3.810000000000013</v>
       </c>
       <c r="K50" t="n">
-        <v>-13.04347826086948</v>
+        <v>9.090909090909179</v>
       </c>
       <c r="L50" t="n">
         <v>10.22</v>
@@ -2829,7 +2851,7 @@
         <v>3.910000000000014</v>
       </c>
       <c r="K51" t="n">
-        <v>-21.73913043478253</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>10.22</v>
@@ -2880,7 +2902,7 @@
         <v>4.010000000000016</v>
       </c>
       <c r="K52" t="n">
-        <v>-16.66666666666654</v>
+        <v>-9.090909090909003</v>
       </c>
       <c r="L52" t="n">
         <v>10.23</v>
@@ -2931,7 +2953,7 @@
         <v>4.110000000000015</v>
       </c>
       <c r="K53" t="n">
-        <v>-11.99999999999991</v>
+        <v>33.3333333333332</v>
       </c>
       <c r="L53" t="n">
         <v>10.23</v>
@@ -2982,7 +3004,7 @@
         <v>4.110000000000015</v>
       </c>
       <c r="K54" t="n">
-        <v>-4.347826086956489</v>
+        <v>24.99999999999994</v>
       </c>
       <c r="L54" t="n">
         <v>10.26</v>
@@ -3033,7 +3055,7 @@
         <v>4.210000000000015</v>
       </c>
       <c r="K55" t="n">
-        <v>4.347826086956489</v>
+        <v>33.3333333333332</v>
       </c>
       <c r="L55" t="n">
         <v>10.29</v>
@@ -3084,7 +3106,7 @@
         <v>4.310000000000015</v>
       </c>
       <c r="K56" t="n">
-        <v>-4.347826086956489</v>
+        <v>33.3333333333332</v>
       </c>
       <c r="L56" t="n">
         <v>10.31</v>
@@ -3135,7 +3157,7 @@
         <v>4.310000000000015</v>
       </c>
       <c r="K57" t="n">
-        <v>4.761904761904721</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L57" t="n">
         <v>10.34</v>
@@ -3186,7 +3208,7 @@
         <v>4.410000000000014</v>
       </c>
       <c r="K58" t="n">
-        <v>14.28571428571426</v>
+        <v>42.85714285714278</v>
       </c>
       <c r="L58" t="n">
         <v>10.36</v>
@@ -3237,7 +3259,7 @@
         <v>4.710000000000015</v>
       </c>
       <c r="K59" t="n">
-        <v>21.73913043478253</v>
+        <v>55.55555555555542</v>
       </c>
       <c r="L59" t="n">
         <v>10.42</v>
@@ -3288,7 +3310,7 @@
         <v>4.710000000000015</v>
       </c>
       <c r="K60" t="n">
-        <v>18.18181818181813</v>
+        <v>75.00000000000011</v>
       </c>
       <c r="L60" t="n">
         <v>10.47</v>
@@ -3339,7 +3361,7 @@
         <v>4.910000000000016</v>
       </c>
       <c r="K61" t="n">
-        <v>18.18181818181813</v>
+        <v>33.3333333333332</v>
       </c>
       <c r="L61" t="n">
         <v>10.51</v>
@@ -3390,7 +3412,7 @@
         <v>5.010000000000016</v>
       </c>
       <c r="K62" t="n">
-        <v>21.73913043478253</v>
+        <v>33.3333333333332</v>
       </c>
       <c r="L62" t="n">
         <v>10.55</v>
@@ -3441,7 +3463,7 @@
         <v>5.110000000000015</v>
       </c>
       <c r="K63" t="n">
-        <v>9.090909090909033</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L63" t="n">
         <v>10.57</v>
@@ -3492,7 +3514,7 @@
         <v>5.110000000000015</v>
       </c>
       <c r="K64" t="n">
-        <v>26.31578947368413</v>
+        <v>11.11111111111107</v>
       </c>
       <c r="L64" t="n">
         <v>10.59</v>
@@ -3543,7 +3565,7 @@
         <v>5.210000000000015</v>
       </c>
       <c r="K65" t="n">
-        <v>15.78947368421052</v>
+        <v>11.11111111111107</v>
       </c>
       <c r="L65" t="n">
         <v>10.59</v>
@@ -3594,7 +3616,7 @@
         <v>5.210000000000015</v>
       </c>
       <c r="K66" t="n">
-        <v>15.78947368421052</v>
+        <v>11.11111111111107</v>
       </c>
       <c r="L66" t="n">
         <v>10.6</v>
@@ -3645,7 +3667,7 @@
         <v>5.210000000000015</v>
       </c>
       <c r="K67" t="n">
-        <v>22.22222222222217</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
         <v>10.61</v>
@@ -3696,7 +3718,7 @@
         <v>5.310000000000015</v>
       </c>
       <c r="K68" t="n">
-        <v>17.6470588235293</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L68" t="n">
         <v>10.62</v>
@@ -3747,7 +3769,7 @@
         <v>5.410000000000014</v>
       </c>
       <c r="K69" t="n">
-        <v>29.41176470588231</v>
+        <v>-14.2857142857145</v>
       </c>
       <c r="L69" t="n">
         <v>10.61</v>
@@ -3798,7 +3820,7 @@
         <v>5.410000000000014</v>
       </c>
       <c r="K70" t="n">
-        <v>24.99999999999989</v>
+        <v>20</v>
       </c>
       <c r="L70" t="n">
         <v>10.6</v>
@@ -3849,7 +3871,7 @@
         <v>5.610000000000015</v>
       </c>
       <c r="K71" t="n">
-        <v>41.17647058823533</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L71" t="n">
         <v>10.63</v>
@@ -3900,7 +3922,7 @@
         <v>5.910000000000016</v>
       </c>
       <c r="K72" t="n">
-        <v>15.78947368421047</v>
+        <v>0</v>
       </c>
       <c r="L72" t="n">
         <v>10.62</v>
@@ -3951,7 +3973,7 @@
         <v>6.110000000000017</v>
       </c>
       <c r="K73" t="n">
-        <v>20</v>
+        <v>20.00000000000007</v>
       </c>
       <c r="L73" t="n">
         <v>10.64</v>
@@ -4002,7 +4024,7 @@
         <v>6.110000000000017</v>
       </c>
       <c r="K74" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L74" t="n">
         <v>10.66</v>
@@ -4053,7 +4075,7 @@
         <v>6.310000000000016</v>
       </c>
       <c r="K75" t="n">
-        <v>23.8095238095238</v>
+        <v>45.4545454545454</v>
       </c>
       <c r="L75" t="n">
         <v>10.71</v>
@@ -4104,7 +4126,7 @@
         <v>6.510000000000016</v>
       </c>
       <c r="K76" t="n">
-        <v>36.3636363636363</v>
+        <v>53.84615384615377</v>
       </c>
       <c r="L76" t="n">
         <v>10.78</v>
@@ -4155,7 +4177,7 @@
         <v>6.510000000000016</v>
       </c>
       <c r="K77" t="n">
-        <v>36.3636363636363</v>
+        <v>49.99999999999993</v>
       </c>
       <c r="L77" t="n">
         <v>10.85</v>
@@ -4206,7 +4228,7 @@
         <v>6.610000000000017</v>
       </c>
       <c r="K78" t="n">
-        <v>36.36363636363635</v>
+        <v>50</v>
       </c>
       <c r="L78" t="n">
         <v>10.92</v>
@@ -4257,7 +4279,7 @@
         <v>6.610000000000017</v>
       </c>
       <c r="K79" t="n">
-        <v>26.31578947368418</v>
+        <v>50</v>
       </c>
       <c r="L79" t="n">
         <v>10.98</v>
@@ -4308,7 +4330,7 @@
         <v>6.710000000000019</v>
       </c>
       <c r="K80" t="n">
-        <v>19.99999999999989</v>
+        <v>27.2727272727271</v>
       </c>
       <c r="L80" t="n">
         <v>11.03</v>
@@ -4359,7 +4381,7 @@
         <v>6.81000000000002</v>
       </c>
       <c r="K81" t="n">
-        <v>36.84210526315788</v>
+        <v>77.77777777777756</v>
       </c>
       <c r="L81" t="n">
         <v>11.07</v>
@@ -4410,7 +4432,7 @@
         <v>6.91000000000002</v>
       </c>
       <c r="K82" t="n">
-        <v>36.84210526315788</v>
+        <v>74.99999999999972</v>
       </c>
       <c r="L82" t="n">
         <v>11.15</v>
@@ -4461,7 +4483,7 @@
         <v>7.010000000000019</v>
       </c>
       <c r="K83" t="n">
-        <v>36.84210526315788</v>
+        <v>55.55555555555542</v>
       </c>
       <c r="L83" t="n">
         <v>11.2</v>
@@ -4512,7 +4534,7 @@
         <v>7.110000000000019</v>
       </c>
       <c r="K84" t="n">
-        <v>39.99999999999996</v>
+        <v>49.99999999999989</v>
       </c>
       <c r="L84" t="n">
         <v>11.26</v>
@@ -4563,7 +4585,7 @@
         <v>7.110000000000019</v>
       </c>
       <c r="K85" t="n">
-        <v>47.3684210526315</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L85" t="n">
         <v>11.3</v>
@@ -4614,7 +4636,7 @@
         <v>7.41000000000002</v>
       </c>
       <c r="K86" t="n">
-        <v>27.2727272727272</v>
+        <v>-11.11111111111102</v>
       </c>
       <c r="L86" t="n">
         <v>11.29</v>
@@ -4665,7 +4687,7 @@
         <v>7.510000000000019</v>
       </c>
       <c r="K87" t="n">
-        <v>21.73913043478257</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L87" t="n">
         <v>11.27</v>
@@ -4716,7 +4738,7 @@
         <v>7.510000000000019</v>
       </c>
       <c r="K88" t="n">
-        <v>18.18181818181816</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L88" t="n">
         <v>11.24</v>
@@ -4767,7 +4789,7 @@
         <v>7.710000000000019</v>
       </c>
       <c r="K89" t="n">
-        <v>21.73913043478257</v>
+        <v>0</v>
       </c>
       <c r="L89" t="n">
         <v>11.23</v>
@@ -4818,7 +4840,7 @@
         <v>7.710000000000019</v>
       </c>
       <c r="K90" t="n">
-        <v>21.73913043478257</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L90" t="n">
         <v>11.23</v>
@@ -4869,7 +4891,7 @@
         <v>7.710000000000019</v>
       </c>
       <c r="K91" t="n">
-        <v>14.28571428571421</v>
+        <v>-25.00000000000017</v>
       </c>
       <c r="L91" t="n">
         <v>11.22</v>
@@ -4920,7 +4942,7 @@
         <v>7.710000000000019</v>
       </c>
       <c r="K92" t="n">
-        <v>33.33333333333326</v>
+        <v>-14.2857142857145</v>
       </c>
       <c r="L92" t="n">
         <v>11.2</v>
@@ -4971,7 +4993,7 @@
         <v>7.810000000000018</v>
       </c>
       <c r="K93" t="n">
-        <v>17.64705882352934</v>
+        <v>-42.857142857143</v>
       </c>
       <c r="L93" t="n">
         <v>11.18</v>
@@ -5022,7 +5044,7 @@
         <v>7.810000000000018</v>
       </c>
       <c r="K94" t="n">
-        <v>17.64705882352934</v>
+        <v>-42.857142857143</v>
       </c>
       <c r="L94" t="n">
         <v>11.15</v>
@@ -5073,7 +5095,7 @@
         <v>7.810000000000018</v>
       </c>
       <c r="K95" t="n">
-        <v>6.666666666666635</v>
+        <v>0</v>
       </c>
       <c r="L95" t="n">
         <v>11.12</v>
@@ -5124,7 +5146,7 @@
         <v>7.810000000000018</v>
       </c>
       <c r="K96" t="n">
-        <v>-7.69230769230765</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L96" t="n">
         <v>11.12</v>
@@ -5175,7 +5197,7 @@
         <v>7.910000000000018</v>
       </c>
       <c r="K97" t="n">
-        <v>-14.28571428571421</v>
+        <v>0</v>
       </c>
       <c r="L97" t="n">
         <v>11.12</v>
@@ -5226,7 +5248,7 @@
         <v>8.010000000000018</v>
       </c>
       <c r="K98" t="n">
-        <v>-14.28571428571436</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L98" t="n">
         <v>11.13</v>
@@ -5277,7 +5299,7 @@
         <v>8.010000000000018</v>
       </c>
       <c r="K99" t="n">
-        <v>-14.28571428571436</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L99" t="n">
         <v>11.12</v>
@@ -5379,7 +5401,7 @@
         <v>8.210000000000017</v>
       </c>
       <c r="K101" t="n">
-        <v>-14.28571428571439</v>
+        <v>-20</v>
       </c>
       <c r="L101" t="n">
         <v>11.11</v>
@@ -5430,7 +5452,7 @@
         <v>8.410000000000018</v>
       </c>
       <c r="K102" t="n">
-        <v>-6.666666666666651</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L102" t="n">
         <v>11.11999999999999</v>
@@ -5481,7 +5503,7 @@
         <v>8.510000000000019</v>
       </c>
       <c r="K103" t="n">
-        <v>-6.666666666666761</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L103" t="n">
         <v>11.13</v>
@@ -5532,7 +5554,7 @@
         <v>8.510000000000019</v>
       </c>
       <c r="K104" t="n">
-        <v>-14.28571428571436</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L104" t="n">
         <v>11.14</v>
@@ -5583,7 +5605,7 @@
         <v>8.510000000000019</v>
       </c>
       <c r="K105" t="n">
-        <v>-14.28571428571436</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L105" t="n">
         <v>11.15</v>
@@ -5634,7 +5656,7 @@
         <v>8.510000000000019</v>
       </c>
       <c r="K106" t="n">
-        <v>9.090909090909062</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L106" t="n">
         <v>11.16</v>
@@ -5685,7 +5707,7 @@
         <v>8.81000000000002</v>
       </c>
       <c r="K107" t="n">
-        <v>38.46153846153844</v>
+        <v>49.99999999999989</v>
       </c>
       <c r="L107" t="n">
         <v>11.21</v>
@@ -5736,7 +5758,7 @@
         <v>8.81000000000002</v>
       </c>
       <c r="K108" t="n">
-        <v>38.46153846153844</v>
+        <v>49.99999999999989</v>
       </c>
       <c r="L108" t="n">
         <v>11.25</v>
@@ -5787,7 +5809,7 @@
         <v>9.010000000000019</v>
       </c>
       <c r="K109" t="n">
-        <v>7.692307692307796</v>
+        <v>11.11111111111124</v>
       </c>
       <c r="L109" t="n">
         <v>11.27</v>
@@ -5838,7 +5860,7 @@
         <v>9.110000000000019</v>
       </c>
       <c r="K110" t="n">
-        <v>14.28571428571436</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L110" t="n">
         <v>11.29</v>
@@ -5889,7 +5911,7 @@
         <v>9.210000000000019</v>
       </c>
       <c r="K111" t="n">
-        <v>6.666666666666761</v>
+        <v>0</v>
       </c>
       <c r="L111" t="n">
         <v>11.31</v>
@@ -5940,7 +5962,7 @@
         <v>9.210000000000019</v>
       </c>
       <c r="K112" t="n">
-        <v>6.666666666666761</v>
+        <v>14.2857142857145</v>
       </c>
       <c r="L112" t="n">
         <v>11.31</v>
@@ -5991,7 +6013,7 @@
         <v>9.310000000000018</v>
       </c>
       <c r="K113" t="n">
-        <v>20.00000000000005</v>
+        <v>25.00000000000017</v>
       </c>
       <c r="L113" t="n">
         <v>11.33</v>
@@ -6042,7 +6064,7 @@
         <v>9.410000000000018</v>
       </c>
       <c r="K114" t="n">
-        <v>12.50000000000007</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L114" t="n">
         <v>11.34</v>
@@ -6093,7 +6115,7 @@
         <v>9.510000000000019</v>
       </c>
       <c r="K115" t="n">
-        <v>5.882352941176446</v>
+        <v>0</v>
       </c>
       <c r="L115" t="n">
         <v>11.34</v>
@@ -6144,7 +6166,7 @@
         <v>9.71000000000002</v>
       </c>
       <c r="K116" t="n">
-        <v>15.78947368421055</v>
+        <v>-11.11111111111107</v>
       </c>
       <c r="L116" t="n">
         <v>11.36</v>
@@ -6195,7 +6217,7 @@
         <v>9.71000000000002</v>
       </c>
       <c r="K117" t="n">
-        <v>22.22222222222221</v>
+        <v>-11.11111111111107</v>
       </c>
       <c r="L117" t="n">
         <v>11.35</v>
@@ -6246,7 +6268,7 @@
         <v>9.910000000000021</v>
       </c>
       <c r="K118" t="n">
-        <v>5.263157894736812</v>
+        <v>-11.11111111111124</v>
       </c>
       <c r="L118" t="n">
         <v>11.32</v>
@@ -6297,7 +6319,7 @@
         <v>10.01000000000002</v>
       </c>
       <c r="K119" t="n">
-        <v>10.00000000000003</v>
+        <v>-11.11111111111102</v>
       </c>
       <c r="L119" t="n">
         <v>11.32</v>
@@ -6348,7 +6370,7 @@
         <v>10.11000000000002</v>
       </c>
       <c r="K120" t="n">
-        <v>0</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="L120" t="n">
         <v>11.3</v>
@@ -6399,7 +6421,7 @@
         <v>10.11000000000002</v>
       </c>
       <c r="K121" t="n">
-        <v>5.263157894736803</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="L121" t="n">
         <v>11.29</v>
@@ -6450,7 +6472,7 @@
         <v>10.31000000000003</v>
       </c>
       <c r="K122" t="n">
-        <v>5.263157894736803</v>
+        <v>0</v>
       </c>
       <c r="L122" t="n">
         <v>11.3</v>
@@ -6501,7 +6523,7 @@
         <v>10.41000000000003</v>
       </c>
       <c r="K123" t="n">
-        <v>15.78947368421052</v>
+        <v>19.99999999999979</v>
       </c>
       <c r="L123" t="n">
         <v>11.31</v>
@@ -6552,7 +6574,7 @@
         <v>10.41000000000003</v>
       </c>
       <c r="K124" t="n">
-        <v>15.78947368421052</v>
+        <v>33.3333333333332</v>
       </c>
       <c r="L124" t="n">
         <v>11.33</v>
@@ -6603,7 +6625,7 @@
         <v>10.51000000000002</v>
       </c>
       <c r="K125" t="n">
-        <v>10.00000000000003</v>
+        <v>0</v>
       </c>
       <c r="L125" t="n">
         <v>11.35</v>
@@ -6654,7 +6676,7 @@
         <v>10.51000000000002</v>
       </c>
       <c r="K126" t="n">
-        <v>10.00000000000003</v>
+        <v>0</v>
       </c>
       <c r="L126" t="n">
         <v>11.35</v>
@@ -6705,7 +6727,7 @@
         <v>10.51000000000002</v>
       </c>
       <c r="K127" t="n">
-        <v>-5.882352941176434</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L127" t="n">
         <v>11.35</v>
@@ -6756,7 +6778,7 @@
         <v>10.51000000000002</v>
       </c>
       <c r="K128" t="n">
-        <v>-5.882352941176434</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L128" t="n">
         <v>11.37</v>
@@ -6807,7 +6829,7 @@
         <v>10.61000000000002</v>
       </c>
       <c r="K129" t="n">
-        <v>0</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L129" t="n">
         <v>11.37</v>
@@ -6858,7 +6880,7 @@
         <v>10.71000000000002</v>
       </c>
       <c r="K130" t="n">
-        <v>0</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L130" t="n">
         <v>11.39</v>
@@ -6909,7 +6931,7 @@
         <v>10.71000000000002</v>
       </c>
       <c r="K131" t="n">
-        <v>6.666666666666619</v>
+        <v>0</v>
       </c>
       <c r="L131" t="n">
         <v>11.41</v>
@@ -6960,7 +6982,7 @@
         <v>10.81000000000002</v>
       </c>
       <c r="K132" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L132" t="n">
         <v>11.4</v>
@@ -7011,7 +7033,7 @@
         <v>10.91000000000003</v>
       </c>
       <c r="K133" t="n">
-        <v>-12.50000000000001</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L133" t="n">
         <v>11.37</v>
@@ -7062,7 +7084,7 @@
         <v>11.01000000000003</v>
       </c>
       <c r="K134" t="n">
-        <v>0</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L134" t="n">
         <v>11.35</v>
@@ -7113,7 +7135,7 @@
         <v>11.11000000000003</v>
       </c>
       <c r="K135" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L135" t="n">
         <v>11.33</v>
@@ -7164,7 +7186,7 @@
         <v>11.11000000000003</v>
       </c>
       <c r="K136" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L136" t="n">
         <v>11.31</v>
@@ -7215,7 +7237,7 @@
         <v>11.21000000000003</v>
       </c>
       <c r="K137" t="n">
-        <v>-6.666666666666604</v>
+        <v>-14.28571428571414</v>
       </c>
       <c r="L137" t="n">
         <v>11.3</v>
@@ -7266,7 +7288,7 @@
         <v>11.31000000000003</v>
       </c>
       <c r="K138" t="n">
-        <v>14.28571428571428</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L138" t="n">
         <v>11.3</v>
@@ -7317,7 +7339,7 @@
         <v>11.31000000000003</v>
       </c>
       <c r="K139" t="n">
-        <v>7.692307692307629</v>
+        <v>0</v>
       </c>
       <c r="L139" t="n">
         <v>11.31</v>
@@ -7368,7 +7390,7 @@
         <v>11.31000000000003</v>
       </c>
       <c r="K140" t="n">
-        <v>16.66666666666669</v>
+        <v>0</v>
       </c>
       <c r="L140" t="n">
         <v>11.31</v>
@@ -7419,7 +7441,7 @@
         <v>11.31000000000003</v>
       </c>
       <c r="K141" t="n">
-        <v>16.66666666666669</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L141" t="n">
         <v>11.31</v>
@@ -7470,7 +7492,7 @@
         <v>11.41000000000003</v>
       </c>
       <c r="K142" t="n">
-        <v>-9.090909090909033</v>
+        <v>20.00000000000014</v>
       </c>
       <c r="L142" t="n">
         <v>11.31</v>
@@ -7521,7 +7543,7 @@
         <v>11.51000000000003</v>
       </c>
       <c r="K143" t="n">
-        <v>-27.27272727272722</v>
+        <v>-20.00000000000014</v>
       </c>
       <c r="L143" t="n">
         <v>11.31</v>
@@ -7572,7 +7594,7 @@
         <v>11.71000000000003</v>
       </c>
       <c r="K144" t="n">
-        <v>-7.692307692307629</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L144" t="n">
         <v>11.32</v>
@@ -7623,7 +7645,7 @@
         <v>11.81000000000003</v>
       </c>
       <c r="K145" t="n">
-        <v>-7.692307692307629</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L145" t="n">
         <v>11.33</v>
@@ -7674,7 +7696,7 @@
         <v>11.81000000000003</v>
       </c>
       <c r="K146" t="n">
-        <v>-7.692307692307629</v>
+        <v>0</v>
       </c>
       <c r="L146" t="n">
         <v>11.34</v>
@@ -7725,7 +7747,7 @@
         <v>11.81000000000003</v>
       </c>
       <c r="K147" t="n">
-        <v>-7.692307692307629</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L147" t="n">
         <v>11.34</v>
@@ -7776,7 +7798,7 @@
         <v>11.91000000000003</v>
       </c>
       <c r="K148" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L148" t="n">
         <v>11.32</v>
@@ -7827,7 +7849,7 @@
         <v>11.91000000000003</v>
       </c>
       <c r="K149" t="n">
-        <v>-7.692307692307756</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L149" t="n">
         <v>11.3</v>
@@ -7878,7 +7900,7 @@
         <v>11.91000000000003</v>
       </c>
       <c r="K150" t="n">
-        <v>-16.66666666666664</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L150" t="n">
         <v>11.28</v>
@@ -7929,7 +7951,7 @@
         <v>12.01000000000003</v>
       </c>
       <c r="K151" t="n">
-        <v>-23.07692307692299</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L151" t="n">
         <v>11.25</v>
@@ -7980,7 +8002,7 @@
         <v>12.01000000000003</v>
       </c>
       <c r="K152" t="n">
-        <v>-16.66666666666664</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L152" t="n">
         <v>11.23</v>
@@ -8031,7 +8053,7 @@
         <v>12.11000000000003</v>
       </c>
       <c r="K153" t="n">
-        <v>0</v>
+        <v>-50.00000000000022</v>
       </c>
       <c r="L153" t="n">
         <v>11.23</v>
@@ -8082,7 +8104,7 @@
         <v>12.21000000000003</v>
       </c>
       <c r="K154" t="n">
-        <v>-16.66666666666669</v>
+        <v>-50.00000000000022</v>
       </c>
       <c r="L154" t="n">
         <v>11.2</v>
@@ -8133,7 +8155,7 @@
         <v>12.31000000000003</v>
       </c>
       <c r="K155" t="n">
-        <v>0</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L155" t="n">
         <v>11.19</v>
@@ -8184,7 +8206,7 @@
         <v>12.41000000000003</v>
       </c>
       <c r="K156" t="n">
-        <v>-7.69230769230765</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L156" t="n">
         <v>11.17</v>
@@ -8235,7 +8257,7 @@
         <v>12.51000000000003</v>
       </c>
       <c r="K157" t="n">
-        <v>-7.692307692307796</v>
+        <v>0</v>
       </c>
       <c r="L157" t="n">
         <v>11.16</v>
@@ -8286,7 +8308,7 @@
         <v>12.51000000000003</v>
       </c>
       <c r="K158" t="n">
-        <v>-16.66666666666674</v>
+        <v>0</v>
       </c>
       <c r="L158" t="n">
         <v>11.16</v>
@@ -8337,7 +8359,7 @@
         <v>12.61000000000003</v>
       </c>
       <c r="K159" t="n">
-        <v>-23.07692307692312</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L159" t="n">
         <v>11.15</v>
@@ -8388,7 +8410,7 @@
         <v>12.61000000000003</v>
       </c>
       <c r="K160" t="n">
-        <v>-23.07692307692312</v>
+        <v>0</v>
       </c>
       <c r="L160" t="n">
         <v>11.14</v>
@@ -8439,7 +8461,7 @@
         <v>12.71000000000003</v>
       </c>
       <c r="K161" t="n">
-        <v>-28.57142857142859</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L161" t="n">
         <v>11.13</v>
@@ -8490,7 +8512,7 @@
         <v>12.91000000000003</v>
       </c>
       <c r="K162" t="n">
-        <v>-6.666666666666761</v>
+        <v>0</v>
       </c>
       <c r="L162" t="n">
         <v>11.14</v>
@@ -8541,7 +8563,7 @@
         <v>12.91000000000003</v>
       </c>
       <c r="K163" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L163" t="n">
         <v>11.14</v>
@@ -8592,7 +8614,7 @@
         <v>12.91000000000003</v>
       </c>
       <c r="K164" t="n">
-        <v>-16.66666666666679</v>
+        <v>0</v>
       </c>
       <c r="L164" t="n">
         <v>11.15</v>
@@ -8643,7 +8665,7 @@
         <v>13.01000000000003</v>
       </c>
       <c r="K165" t="n">
-        <v>-16.66666666666679</v>
+        <v>0</v>
       </c>
       <c r="L165" t="n">
         <v>11.14</v>
@@ -8694,7 +8716,7 @@
         <v>13.01000000000003</v>
       </c>
       <c r="K166" t="n">
-        <v>-16.66666666666679</v>
+        <v>-20</v>
       </c>
       <c r="L166" t="n">
         <v>11.14</v>
@@ -8745,7 +8767,7 @@
         <v>13.11000000000003</v>
       </c>
       <c r="K167" t="n">
-        <v>-7.692307692307819</v>
+        <v>0</v>
       </c>
       <c r="L167" t="n">
         <v>11.14</v>
@@ -8847,7 +8869,7 @@
         <v>13.41000000000003</v>
       </c>
       <c r="K169" t="n">
-        <v>-20</v>
+        <v>-25</v>
       </c>
       <c r="L169" t="n">
         <v>11.1</v>
@@ -8898,7 +8920,7 @@
         <v>13.41000000000003</v>
       </c>
       <c r="K170" t="n">
-        <v>-20</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L170" t="n">
         <v>11.08</v>
@@ -8949,7 +8971,7 @@
         <v>13.41000000000003</v>
       </c>
       <c r="K171" t="n">
-        <v>-14.28571428571428</v>
+        <v>-60</v>
       </c>
       <c r="L171" t="n">
         <v>11.07</v>
@@ -9000,7 +9022,7 @@
         <v>13.51000000000003</v>
       </c>
       <c r="K172" t="n">
-        <v>-6.666666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L172" t="n">
         <v>11.05</v>
@@ -9051,7 +9073,7 @@
         <v>13.51000000000003</v>
       </c>
       <c r="K173" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L173" t="n">
         <v>11.03</v>
@@ -9102,7 +9124,7 @@
         <v>13.51000000000003</v>
       </c>
       <c r="K174" t="n">
-        <v>-7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L174" t="n">
         <v>11.01</v>
@@ -9153,7 +9175,7 @@
         <v>13.71000000000003</v>
       </c>
       <c r="K175" t="n">
-        <v>-28.57142857142857</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L175" t="n">
         <v>10.98</v>
@@ -9204,7 +9226,7 @@
         <v>13.81000000000003</v>
       </c>
       <c r="K176" t="n">
-        <v>-28.57142857142867</v>
+        <v>-71.4285714285715</v>
       </c>
       <c r="L176" t="n">
         <v>10.94</v>
@@ -9255,7 +9277,7 @@
         <v>13.91000000000003</v>
       </c>
       <c r="K177" t="n">
-        <v>-28.5714285714285</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L177" t="n">
         <v>10.9</v>
@@ -9306,7 +9328,7 @@
         <v>13.91000000000003</v>
       </c>
       <c r="K178" t="n">
-        <v>-28.5714285714285</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L178" t="n">
         <v>10.88</v>
@@ -9357,7 +9379,7 @@
         <v>13.91000000000003</v>
       </c>
       <c r="K179" t="n">
-        <v>-23.07692307692301</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L179" t="n">
         <v>10.87</v>
@@ -9408,7 +9430,7 @@
         <v>14.11000000000003</v>
       </c>
       <c r="K180" t="n">
-        <v>-33.33333333333333</v>
+        <v>-42.85714285714278</v>
       </c>
       <c r="L180" t="n">
         <v>10.84</v>
@@ -9459,7 +9481,7 @@
         <v>14.21000000000003</v>
       </c>
       <c r="K181" t="n">
-        <v>-20.00000000000005</v>
+        <v>-42.85714285714278</v>
       </c>
       <c r="L181" t="n">
         <v>10.82</v>
@@ -9510,7 +9532,7 @@
         <v>14.21000000000003</v>
       </c>
       <c r="K182" t="n">
-        <v>-38.46153846153844</v>
+        <v>-42.85714285714278</v>
       </c>
       <c r="L182" t="n">
         <v>10.79</v>
@@ -9561,7 +9583,7 @@
         <v>14.31000000000003</v>
       </c>
       <c r="K183" t="n">
-        <v>-42.85714285714282</v>
+        <v>-49.99999999999989</v>
       </c>
       <c r="L183" t="n">
         <v>10.75</v>
@@ -9612,7 +9634,7 @@
         <v>14.31000000000003</v>
       </c>
       <c r="K184" t="n">
-        <v>-42.85714285714282</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L184" t="n">
         <v>10.71</v>
@@ -9663,7 +9685,7 @@
         <v>14.41000000000003</v>
       </c>
       <c r="K185" t="n">
-        <v>-28.57142857142859</v>
+        <v>0</v>
       </c>
       <c r="L185" t="n">
         <v>10.7</v>
@@ -9714,7 +9736,7 @@
         <v>14.41000000000003</v>
       </c>
       <c r="K186" t="n">
-        <v>-28.57142857142859</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L186" t="n">
         <v>10.7</v>
@@ -9765,7 +9787,7 @@
         <v>14.41000000000003</v>
       </c>
       <c r="K187" t="n">
-        <v>-38.46153846153844</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L187" t="n">
         <v>10.69</v>
@@ -9816,7 +9838,7 @@
         <v>14.41000000000003</v>
       </c>
       <c r="K188" t="n">
-        <v>-27.27272727272731</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L188" t="n">
         <v>10.68</v>
@@ -9867,7 +9889,7 @@
         <v>14.41000000000003</v>
       </c>
       <c r="K189" t="n">
-        <v>-20.00000000000007</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L189" t="n">
         <v>10.67</v>
@@ -9918,7 +9940,7 @@
         <v>14.51000000000003</v>
       </c>
       <c r="K190" t="n">
-        <v>-9.090909090909033</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L190" t="n">
         <v>10.69</v>
@@ -9969,7 +9991,7 @@
         <v>14.61000000000003</v>
       </c>
       <c r="K191" t="n">
-        <v>0</v>
+        <v>50.00000000000022</v>
       </c>
       <c r="L191" t="n">
         <v>10.71</v>
@@ -10020,7 +10042,7 @@
         <v>14.61000000000003</v>
       </c>
       <c r="K192" t="n">
-        <v>-9.090909090909033</v>
+        <v>100</v>
       </c>
       <c r="L192" t="n">
         <v>10.73</v>
@@ -10071,7 +10093,7 @@
         <v>14.71000000000003</v>
       </c>
       <c r="K193" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L193" t="n">
         <v>10.77</v>
@@ -10122,7 +10144,7 @@
         <v>14.81000000000003</v>
       </c>
       <c r="K194" t="n">
-        <v>-7.69230769230765</v>
+        <v>50.00000000000022</v>
       </c>
       <c r="L194" t="n">
         <v>10.8</v>
@@ -10173,7 +10195,7 @@
         <v>14.91000000000003</v>
       </c>
       <c r="K195" t="n">
-        <v>16.66666666666657</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L195" t="n">
         <v>10.83</v>
@@ -10224,7 +10246,7 @@
         <v>15.01000000000003</v>
       </c>
       <c r="K196" t="n">
-        <v>33.33333333333333</v>
+        <v>66.66666666666676</v>
       </c>
       <c r="L196" t="n">
         <v>10.87</v>
@@ -10275,7 +10297,7 @@
         <v>15.01000000000003</v>
       </c>
       <c r="K197" t="n">
-        <v>27.27272727272718</v>
+        <v>66.66666666666676</v>
       </c>
       <c r="L197" t="n">
         <v>10.91</v>
@@ -10326,7 +10348,7 @@
         <v>15.21000000000003</v>
       </c>
       <c r="K198" t="n">
-        <v>38.46153846153844</v>
+        <v>75.00000000000011</v>
       </c>
       <c r="L198" t="n">
         <v>10.97</v>
@@ -10377,7 +10399,7 @@
         <v>15.21000000000003</v>
       </c>
       <c r="K199" t="n">
-        <v>38.46153846153844</v>
+        <v>71.4285714285715</v>
       </c>
       <c r="L199" t="n">
         <v>11.03</v>
@@ -10428,7 +10450,7 @@
         <v>15.51000000000003</v>
       </c>
       <c r="K200" t="n">
-        <v>71.4285714285715</v>
+        <v>77.77777777777783</v>
       </c>
       <c r="L200" t="n">
         <v>11.11</v>
@@ -10479,7 +10501,7 @@
         <v>15.61000000000003</v>
       </c>
       <c r="K201" t="n">
-        <v>71.4285714285715</v>
+        <v>80.00000000000004</v>
       </c>
       <c r="L201" t="n">
         <v>11.19</v>
@@ -10530,7 +10552,7 @@
         <v>15.61000000000003</v>
       </c>
       <c r="K202" t="n">
-        <v>71.4285714285715</v>
+        <v>77.77777777777783</v>
       </c>
       <c r="L202" t="n">
         <v>11.27</v>
@@ -10581,7 +10603,7 @@
         <v>15.71000000000003</v>
       </c>
       <c r="K203" t="n">
-        <v>71.4285714285715</v>
+        <v>77.77777777777783</v>
       </c>
       <c r="L203" t="n">
         <v>11.33</v>
@@ -10632,7 +10654,7 @@
         <v>15.81000000000003</v>
       </c>
       <c r="K204" t="n">
-        <v>60.0000000000001</v>
+        <v>55.55555555555565</v>
       </c>
       <c r="L204" t="n">
         <v>11.39</v>
@@ -10683,7 +10705,7 @@
         <v>15.91000000000003</v>
       </c>
       <c r="K205" t="n">
-        <v>46.66666666666679</v>
+        <v>33.33333333333346</v>
       </c>
       <c r="L205" t="n">
         <v>11.43</v>
@@ -10734,7 +10756,7 @@
         <v>16.01000000000003</v>
       </c>
       <c r="K206" t="n">
-        <v>37.50000000000014</v>
+        <v>20.00000000000014</v>
       </c>
       <c r="L206" t="n">
         <v>11.45</v>
@@ -10785,7 +10807,7 @@
         <v>16.01000000000003</v>
       </c>
       <c r="K207" t="n">
-        <v>37.50000000000014</v>
+        <v>0</v>
       </c>
       <c r="L207" t="n">
         <v>11.47</v>
@@ -10836,7 +10858,7 @@
         <v>16.01000000000003</v>
       </c>
       <c r="K208" t="n">
-        <v>37.50000000000014</v>
+        <v>0</v>
       </c>
       <c r="L208" t="n">
         <v>11.47</v>
@@ -10887,7 +10909,7 @@
         <v>16.11000000000003</v>
       </c>
       <c r="K209" t="n">
-        <v>41.17647058823538</v>
+        <v>-33.33333333333324</v>
       </c>
       <c r="L209" t="n">
         <v>11.48</v>
@@ -10938,7 +10960,7 @@
         <v>16.21000000000003</v>
       </c>
       <c r="K210" t="n">
-        <v>41.17647058823527</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L210" t="n">
         <v>11.47</v>
@@ -10989,7 +11011,7 @@
         <v>16.21000000000003</v>
       </c>
       <c r="K211" t="n">
-        <v>37.49999999999999</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L211" t="n">
         <v>11.45</v>
@@ -11040,7 +11062,7 @@
         <v>16.31000000000003</v>
       </c>
       <c r="K212" t="n">
-        <v>29.41176470588234</v>
+        <v>-33.33333333333304</v>
       </c>
       <c r="L212" t="n">
         <v>11.42</v>
@@ -11091,7 +11113,7 @@
         <v>16.31000000000003</v>
       </c>
       <c r="K213" t="n">
-        <v>25</v>
+        <v>-19.99999999999979</v>
       </c>
       <c r="L213" t="n">
         <v>11.4</v>
@@ -11142,7 +11164,7 @@
         <v>16.41000000000003</v>
       </c>
       <c r="K214" t="n">
-        <v>24.99999999999997</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L214" t="n">
         <v>11.38</v>
@@ -11193,7 +11215,7 @@
         <v>16.51000000000003</v>
       </c>
       <c r="K215" t="n">
-        <v>12.49999999999992</v>
+        <v>-20</v>
       </c>
       <c r="L215" t="n">
         <v>11.36</v>
@@ -11244,7 +11266,7 @@
         <v>16.51000000000003</v>
       </c>
       <c r="K216" t="n">
-        <v>6.666666666666619</v>
+        <v>-20</v>
       </c>
       <c r="L216" t="n">
         <v>11.35</v>
@@ -11295,7 +11317,7 @@
         <v>16.61000000000003</v>
       </c>
       <c r="K217" t="n">
-        <v>12.50000000000001</v>
+        <v>0</v>
       </c>
       <c r="L217" t="n">
         <v>11.35</v>
@@ -11346,7 +11368,7 @@
         <v>16.61000000000003</v>
       </c>
       <c r="K218" t="n">
-        <v>0</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L218" t="n">
         <v>11.35</v>
@@ -11397,7 +11419,7 @@
         <v>16.61000000000003</v>
       </c>
       <c r="K219" t="n">
-        <v>0</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L219" t="n">
         <v>11.34</v>
@@ -11448,7 +11470,7 @@
         <v>16.81000000000003</v>
       </c>
       <c r="K220" t="n">
-        <v>-7.692307692307629</v>
+        <v>0</v>
       </c>
       <c r="L220" t="n">
         <v>11.34</v>
@@ -11499,7 +11521,7 @@
         <v>17.11000000000003</v>
       </c>
       <c r="K221" t="n">
-        <v>-33.33333333333318</v>
+        <v>-25</v>
       </c>
       <c r="L221" t="n">
         <v>11.31</v>
@@ -11550,7 +11572,7 @@
         <v>17.21000000000004</v>
       </c>
       <c r="K222" t="n">
-        <v>-37.49999999999978</v>
+        <v>-33.3333333333332</v>
       </c>
       <c r="L222" t="n">
         <v>11.28</v>
@@ -11601,7 +11623,7 @@
         <v>17.51000000000004</v>
       </c>
       <c r="K223" t="n">
-        <v>-11.11111111111101</v>
+        <v>9.090909090909017</v>
       </c>
       <c r="L223" t="n">
         <v>11.28</v>
@@ -11652,7 +11674,7 @@
         <v>17.71000000000004</v>
       </c>
       <c r="K224" t="n">
-        <v>-15.78947368421049</v>
+        <v>0</v>
       </c>
       <c r="L224" t="n">
         <v>11.27</v>
@@ -11703,7 +11725,7 @@
         <v>17.81000000000004</v>
       </c>
       <c r="K225" t="n">
-        <v>-5.263157894736794</v>
+        <v>7.692307692307776</v>
       </c>
       <c r="L225" t="n">
         <v>11.28</v>
@@ -11856,7 +11878,7 @@
         <v>17.91000000000004</v>
       </c>
       <c r="K228" t="n">
-        <v>-5.263157894736882</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L228" t="n">
         <v>11.28</v>
@@ -11907,7 +11929,7 @@
         <v>18.01000000000004</v>
       </c>
       <c r="K229" t="n">
-        <v>-5.263157894736787</v>
+        <v>-16.66666666666652</v>
       </c>
       <c r="L229" t="n">
         <v>11.28</v>
@@ -11958,7 +11980,7 @@
         <v>18.11000000000004</v>
       </c>
       <c r="K230" t="n">
-        <v>-5.263157894736787</v>
+        <v>19.99999999999996</v>
       </c>
       <c r="L230" t="n">
         <v>11.27</v>
@@ -12009,7 +12031,7 @@
         <v>18.31000000000004</v>
       </c>
       <c r="K231" t="n">
-        <v>4.761904761904718</v>
+        <v>45.45454545454525</v>
       </c>
       <c r="L231" t="n">
         <v>11.31</v>
@@ -12060,7 +12082,7 @@
         <v>18.41000000000004</v>
       </c>
       <c r="K232" t="n">
-        <v>14.28571428571418</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L232" t="n">
         <v>11.37</v>
@@ -12111,7 +12133,7 @@
         <v>18.51000000000004</v>
       </c>
       <c r="K233" t="n">
-        <v>18.18181818181812</v>
+        <v>74.99999999999977</v>
       </c>
       <c r="L233" t="n">
         <v>11.41</v>
@@ -12162,7 +12184,7 @@
         <v>18.51000000000004</v>
       </c>
       <c r="K234" t="n">
-        <v>23.80952380952371</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L234" t="n">
         <v>11.47</v>
@@ -12213,7 +12235,7 @@
         <v>18.91000000000004</v>
       </c>
       <c r="K235" t="n">
-        <v>41.66666666666657</v>
+        <v>81.81818181818159</v>
       </c>
       <c r="L235" t="n">
         <v>11.56</v>
@@ -12264,7 +12286,7 @@
         <v>18.91000000000004</v>
       </c>
       <c r="K236" t="n">
-        <v>41.66666666666657</v>
+        <v>81.81818181818159</v>
       </c>
       <c r="L236" t="n">
         <v>11.65</v>
@@ -12315,7 +12337,7 @@
         <v>19.21000000000004</v>
       </c>
       <c r="K237" t="n">
-        <v>46.15384615384604</v>
+        <v>100</v>
       </c>
       <c r="L237" t="n">
         <v>11.77</v>
@@ -12366,7 +12388,7 @@
         <v>19.51000000000004</v>
       </c>
       <c r="K238" t="n">
-        <v>31.03448275862058</v>
+        <v>59.99999999999991</v>
       </c>
       <c r="L238" t="n">
         <v>11.87</v>
@@ -12417,7 +12439,7 @@
         <v>19.61000000000004</v>
       </c>
       <c r="K239" t="n">
-        <v>26.66666666666656</v>
+        <v>46.66666666666661</v>
       </c>
       <c r="L239" t="n">
         <v>11.95</v>
@@ -12468,7 +12490,7 @@
         <v>19.81000000000004</v>
       </c>
       <c r="K240" t="n">
-        <v>13.33333333333331</v>
+        <v>20.00000000000005</v>
       </c>
       <c r="L240" t="n">
         <v>12</v>
@@ -12519,7 +12541,7 @@
         <v>20.11000000000004</v>
       </c>
       <c r="K241" t="n">
-        <v>33.33333333333325</v>
+        <v>29.41176470588231</v>
       </c>
       <c r="L241" t="n">
         <v>12.06</v>
@@ -12570,7 +12592,7 @@
         <v>20.11000000000004</v>
       </c>
       <c r="K242" t="n">
-        <v>37.93103448275853</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L242" t="n">
         <v>12.11</v>
@@ -12621,7 +12643,7 @@
         <v>20.11000000000004</v>
       </c>
       <c r="K243" t="n">
-        <v>30.76923076923067</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L243" t="n">
         <v>12.15</v>
@@ -12672,7 +12694,7 @@
         <v>20.21000000000004</v>
       </c>
       <c r="K244" t="n">
-        <v>43.99999999999994</v>
+        <v>7.692307692307776</v>
       </c>
       <c r="L244" t="n">
         <v>12.2</v>
@@ -12723,7 +12745,7 @@
         <v>20.21000000000004</v>
       </c>
       <c r="K245" t="n">
-        <v>41.66666666666657</v>
+        <v>7.692307692307776</v>
       </c>
       <c r="L245" t="n">
         <v>12.21</v>
@@ -12774,7 +12796,7 @@
         <v>20.41000000000005</v>
       </c>
       <c r="K246" t="n">
-        <v>30.76923076923063</v>
+        <v>-33.33333333333319</v>
       </c>
       <c r="L246" t="n">
         <v>12.2</v>
@@ -12825,7 +12847,7 @@
         <v>20.41000000000005</v>
       </c>
       <c r="K247" t="n">
-        <v>30.76923076923063</v>
+        <v>-11.111111111111</v>
       </c>
       <c r="L247" t="n">
         <v>12.16</v>
@@ -12876,7 +12898,7 @@
         <v>20.41000000000005</v>
       </c>
       <c r="K248" t="n">
-        <v>35.99999999999991</v>
+        <v>0</v>
       </c>
       <c r="L248" t="n">
         <v>12.15</v>
@@ -12927,7 +12949,7 @@
         <v>20.51000000000005</v>
       </c>
       <c r="K249" t="n">
-        <v>35.99999999999984</v>
+        <v>42.85714285714231</v>
       </c>
       <c r="L249" t="n">
         <v>12.16</v>
@@ -12978,7 +13000,7 @@
         <v>20.71000000000005</v>
       </c>
       <c r="K250" t="n">
-        <v>23.07692307692302</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L250" t="n">
         <v>12.17</v>
@@ -13029,7 +13051,7 @@
         <v>20.71000000000005</v>
       </c>
       <c r="K251" t="n">
-        <v>16.66666666666664</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L251" t="n">
         <v>12.15</v>
@@ -13080,7 +13102,7 @@
         <v>20.71000000000005</v>
       </c>
       <c r="K252" t="n">
-        <v>13.04347826086955</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L252" t="n">
         <v>12.13</v>
@@ -13131,7 +13153,7 @@
         <v>20.91000000000005</v>
       </c>
       <c r="K253" t="n">
-        <v>16.66666666666657</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L253" t="n">
         <v>12.13</v>
@@ -13182,7 +13204,7 @@
         <v>20.91000000000005</v>
       </c>
       <c r="K254" t="n">
-        <v>16.66666666666657</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L254" t="n">
         <v>12.12</v>
@@ -13233,7 +13255,7 @@
         <v>21.21000000000004</v>
       </c>
       <c r="K255" t="n">
-        <v>-13.0434782608695</v>
+        <v>-25</v>
       </c>
       <c r="L255" t="n">
         <v>12.08</v>
@@ -13284,7 +13306,7 @@
         <v>21.41000000000005</v>
       </c>
       <c r="K256" t="n">
-        <v>-19.99999999999994</v>
+        <v>-40.00000000000004</v>
       </c>
       <c r="L256" t="n">
         <v>12.04</v>
@@ -13335,7 +13357,7 @@
         <v>21.81000000000004</v>
       </c>
       <c r="K257" t="n">
-        <v>-15.38461538461537</v>
+        <v>0</v>
       </c>
       <c r="L257" t="n">
         <v>12.04</v>
@@ -13386,7 +13408,7 @@
         <v>21.81000000000004</v>
       </c>
       <c r="K258" t="n">
-        <v>-4.347826086956498</v>
+        <v>-7.692307692307682</v>
       </c>
       <c r="L258" t="n">
         <v>12.04</v>
@@ -13437,7 +13459,7 @@
         <v>22.11000000000004</v>
       </c>
       <c r="K259" t="n">
-        <v>-11.99999999999996</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L259" t="n">
         <v>12</v>
@@ -13488,7 +13510,7 @@
         <v>22.21000000000004</v>
       </c>
       <c r="K260" t="n">
-        <v>0</v>
+        <v>-6.666666666666658</v>
       </c>
       <c r="L260" t="n">
         <v>11.99</v>
@@ -13539,7 +13561,7 @@
         <v>22.21000000000004</v>
       </c>
       <c r="K261" t="n">
-        <v>-14.28571428571423</v>
+        <v>-6.666666666666658</v>
       </c>
       <c r="L261" t="n">
         <v>11.98</v>
@@ -13590,7 +13612,7 @@
         <v>22.31000000000004</v>
       </c>
       <c r="K262" t="n">
-        <v>-9.090909090909047</v>
+        <v>-14.28571428571425</v>
       </c>
       <c r="L262" t="n">
         <v>11.98</v>
@@ -13641,7 +13663,7 @@
         <v>22.41000000000005</v>
       </c>
       <c r="K263" t="n">
-        <v>-13.0434782608695</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L263" t="n">
         <v>11.95</v>
@@ -13692,7 +13714,7 @@
         <v>22.61000000000005</v>
       </c>
       <c r="K264" t="n">
-        <v>-25</v>
+        <v>-14.2857142857143</v>
       </c>
       <c r="L264" t="n">
         <v>11.9</v>
@@ -13743,7 +13765,7 @@
         <v>22.71000000000005</v>
       </c>
       <c r="K265" t="n">
-        <v>-19.99999999999994</v>
+        <v>7.692307692307776</v>
       </c>
       <c r="L265" t="n">
         <v>11.89</v>
@@ -13794,7 +13816,7 @@
         <v>22.81000000000005</v>
       </c>
       <c r="K266" t="n">
-        <v>-8.333333333333284</v>
+        <v>-19.99999999999979</v>
       </c>
       <c r="L266" t="n">
         <v>11.91</v>
@@ -13845,7 +13867,7 @@
         <v>22.81000000000005</v>
       </c>
       <c r="K267" t="n">
-        <v>-8.333333333333284</v>
+        <v>-19.99999999999979</v>
       </c>
       <c r="L267" t="n">
         <v>11.89</v>
@@ -13896,7 +13918,7 @@
         <v>22.81000000000005</v>
       </c>
       <c r="K268" t="n">
-        <v>-8.333333333333284</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L268" t="n">
         <v>11.87</v>
@@ -13947,7 +13969,7 @@
         <v>22.91000000000005</v>
       </c>
       <c r="K269" t="n">
-        <v>-8.333333333333284</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L269" t="n">
         <v>11.89</v>
@@ -13998,7 +14020,7 @@
         <v>23.01000000000005</v>
       </c>
       <c r="K270" t="n">
-        <v>-4.347826086956492</v>
+        <v>0</v>
       </c>
       <c r="L270" t="n">
         <v>11.89</v>
@@ -14049,7 +14071,7 @@
         <v>23.11000000000006</v>
       </c>
       <c r="K271" t="n">
-        <v>-8.333333333333272</v>
+        <v>-24.99999999999956</v>
       </c>
       <c r="L271" t="n">
         <v>11.88</v>
@@ -14100,7 +14122,7 @@
         <v>23.21000000000006</v>
       </c>
       <c r="K272" t="n">
-        <v>-11.99999999999998</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L272" t="n">
         <v>11.85</v>
@@ -14151,7 +14173,7 @@
         <v>23.21000000000006</v>
       </c>
       <c r="K273" t="n">
-        <v>-21.7391304347825</v>
+        <v>0</v>
       </c>
       <c r="L273" t="n">
         <v>11.83</v>
@@ -14202,7 +14224,7 @@
         <v>23.21000000000006</v>
       </c>
       <c r="K274" t="n">
-        <v>-21.7391304347825</v>
+        <v>-20</v>
       </c>
       <c r="L274" t="n">
         <v>11.83</v>
@@ -14253,7 +14275,7 @@
         <v>23.31000000000006</v>
       </c>
       <c r="K275" t="n">
-        <v>-4.761904761904709</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L275" t="n">
         <v>11.83</v>
@@ -14304,7 +14326,7 @@
         <v>23.41000000000006</v>
       </c>
       <c r="K276" t="n">
-        <v>9.999999999999982</v>
+        <v>0</v>
       </c>
       <c r="L276" t="n">
         <v>11.82999999999999</v>
@@ -14355,7 +14377,7 @@
         <v>23.41000000000006</v>
       </c>
       <c r="K277" t="n">
-        <v>-12.49999999999983</v>
+        <v>0</v>
       </c>
       <c r="L277" t="n">
         <v>11.82999999999999</v>
@@ -14406,7 +14428,7 @@
         <v>23.41000000000006</v>
       </c>
       <c r="K278" t="n">
-        <v>-12.49999999999983</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L278" t="n">
         <v>11.82999999999999</v>
@@ -14457,7 +14479,7 @@
         <v>23.41000000000006</v>
       </c>
       <c r="K279" t="n">
-        <v>7.692307692307556</v>
+        <v>0</v>
       </c>
       <c r="L279" t="n">
         <v>11.82</v>
@@ -14508,7 +14530,7 @@
         <v>23.41000000000006</v>
       </c>
       <c r="K280" t="n">
-        <v>0</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L280" t="n">
         <v>11.82</v>
@@ -14559,7 +14581,7 @@
         <v>23.51000000000006</v>
       </c>
       <c r="K281" t="n">
-        <v>-7.692307692307556</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L281" t="n">
         <v>11.82</v>
@@ -14610,7 +14632,7 @@
         <v>23.51000000000006</v>
       </c>
       <c r="K282" t="n">
-        <v>-16.66666666666637</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L282" t="n">
         <v>11.83</v>
@@ -14661,7 +14683,7 @@
         <v>23.71000000000006</v>
       </c>
       <c r="K283" t="n">
-        <v>-23.0769230769228</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L283" t="n">
         <v>11.82</v>
@@ -14712,7 +14734,7 @@
         <v>23.81000000000007</v>
       </c>
       <c r="K284" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L284" t="n">
         <v>11.82</v>
@@ -14763,7 +14785,7 @@
         <v>24.01000000000007</v>
       </c>
       <c r="K285" t="n">
-        <v>7.692307692307556</v>
+        <v>0</v>
       </c>
       <c r="L285" t="n">
         <v>11.83</v>
@@ -14814,7 +14836,7 @@
         <v>24.11000000000007</v>
       </c>
       <c r="K286" t="n">
-        <v>7.692307692307556</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L286" t="n">
         <v>11.83999999999999</v>
@@ -14865,7 +14887,7 @@
         <v>24.21000000000007</v>
       </c>
       <c r="K287" t="n">
-        <v>14.28571428571403</v>
+        <v>24.99999999999956</v>
       </c>
       <c r="L287" t="n">
         <v>11.85999999999999</v>
@@ -14916,7 +14938,7 @@
         <v>24.31000000000007</v>
       </c>
       <c r="K288" t="n">
-        <v>6.666666666666549</v>
+        <v>11.11111111111091</v>
       </c>
       <c r="L288" t="n">
         <v>11.86999999999999</v>
@@ -14967,7 +14989,7 @@
         <v>24.31000000000007</v>
       </c>
       <c r="K289" t="n">
-        <v>0</v>
+        <v>11.11111111111091</v>
       </c>
       <c r="L289" t="n">
         <v>11.87999999999999</v>
@@ -15018,7 +15040,7 @@
         <v>24.31000000000007</v>
       </c>
       <c r="K290" t="n">
-        <v>7.692307692307556</v>
+        <v>24.99999999999956</v>
       </c>
       <c r="L290" t="n">
         <v>11.88999999999999</v>
@@ -15069,7 +15091,7 @@
         <v>24.41000000000007</v>
       </c>
       <c r="K291" t="n">
-        <v>7.692307692307556</v>
+        <v>11.11111111111091</v>
       </c>
       <c r="L291" t="n">
         <v>11.89999999999999</v>
@@ -15120,7 +15142,7 @@
         <v>24.51000000000008</v>
       </c>
       <c r="K292" t="n">
-        <v>23.0769230769228</v>
+        <v>49.99999999999933</v>
       </c>
       <c r="L292" t="n">
         <v>11.91999999999999</v>
@@ -15171,7 +15193,7 @@
         <v>24.61000000000008</v>
       </c>
       <c r="K293" t="n">
-        <v>14.28571428571416</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L293" t="n">
         <v>11.94999999999999</v>
@@ -15222,7 +15244,7 @@
         <v>24.81000000000008</v>
       </c>
       <c r="K294" t="n">
-        <v>24.99999999999972</v>
+        <v>24.99999999999967</v>
       </c>
       <c r="L294" t="n">
         <v>11.98999999999999</v>
@@ -15273,7 +15295,7 @@
         <v>24.81000000000008</v>
       </c>
       <c r="K295" t="n">
-        <v>19.99999999999969</v>
+        <v>14.28571428571411</v>
       </c>
       <c r="L295" t="n">
         <v>12.00999999999999</v>
@@ -15324,7 +15346,7 @@
         <v>24.81000000000008</v>
       </c>
       <c r="K296" t="n">
-        <v>14.28571428571407</v>
+        <v>0</v>
       </c>
       <c r="L296" t="n">
         <v>12.01999999999999</v>
@@ -15375,7 +15397,7 @@
         <v>24.91000000000007</v>
       </c>
       <c r="K297" t="n">
-        <v>19.99999999999974</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L297" t="n">
         <v>12.02999999999999</v>
@@ -15426,7 +15448,7 @@
         <v>24.91000000000007</v>
       </c>
       <c r="K298" t="n">
-        <v>19.99999999999974</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L298" t="n">
         <v>12.04999999999999</v>
@@ -15477,7 +15499,7 @@
         <v>25.01000000000008</v>
       </c>
       <c r="K299" t="n">
-        <v>24.99999999999978</v>
+        <v>42.85714285714278</v>
       </c>
       <c r="L299" t="n">
         <v>12.07999999999999</v>
@@ -15528,7 +15550,7 @@
         <v>25.11000000000008</v>
       </c>
       <c r="K300" t="n">
-        <v>17.64705882352917</v>
+        <v>42.85714285714253</v>
       </c>
       <c r="L300" t="n">
         <v>12.09999999999999</v>
@@ -15579,7 +15601,7 @@
         <v>25.21000000000008</v>
       </c>
       <c r="K301" t="n">
-        <v>17.64705882352917</v>
+        <v>14.28571428571418</v>
       </c>
       <c r="L301" t="n">
         <v>12.11999999999999</v>
@@ -15630,7 +15652,7 @@
         <v>25.31000000000008</v>
       </c>
       <c r="K302" t="n">
-        <v>22.22222222222192</v>
+        <v>42.85714285714253</v>
       </c>
       <c r="L302" t="n">
         <v>12.13999999999999</v>
@@ -15681,7 +15703,7 @@
         <v>25.31000000000008</v>
       </c>
       <c r="K303" t="n">
-        <v>37.49999999999961</v>
+        <v>19.99999999999979</v>
       </c>
       <c r="L303" t="n">
         <v>12.16999999999999</v>
@@ -15732,7 +15754,7 @@
         <v>25.51000000000008</v>
       </c>
       <c r="K304" t="n">
-        <v>17.64705882352931</v>
+        <v>-14.28571428571418</v>
       </c>
       <c r="L304" t="n">
         <v>12.15999999999999</v>
@@ -15783,7 +15805,7 @@
         <v>25.61000000000008</v>
       </c>
       <c r="K305" t="n">
-        <v>0</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L305" t="n">
         <v>12.13999999999999</v>
@@ -15834,7 +15856,7 @@
         <v>25.61000000000008</v>
       </c>
       <c r="K306" t="n">
-        <v>-6.666666666666611</v>
+        <v>-42.85714285714253</v>
       </c>
       <c r="L306" t="n">
         <v>12.11999999999999</v>
@@ -15885,7 +15907,7 @@
         <v>25.61000000000008</v>
       </c>
       <c r="K307" t="n">
-        <v>-14.28571428571418</v>
+        <v>-42.85714285714253</v>
       </c>
       <c r="L307" t="n">
         <v>12.08999999999999</v>
@@ -15936,7 +15958,7 @@
         <v>25.71000000000008</v>
       </c>
       <c r="K308" t="n">
-        <v>-14.28571428571418</v>
+        <v>-71.42857142857115</v>
       </c>
       <c r="L308" t="n">
         <v>12.04999999999999</v>
@@ -15987,7 +16009,7 @@
         <v>25.81000000000008</v>
       </c>
       <c r="K309" t="n">
-        <v>-6.666666666666611</v>
+        <v>-42.85714285714253</v>
       </c>
       <c r="L309" t="n">
         <v>12.00999999999999</v>
@@ -16038,7 +16060,7 @@
         <v>25.81000000000008</v>
       </c>
       <c r="K310" t="n">
-        <v>-6.666666666666611</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L310" t="n">
         <v>11.97999999999999</v>
@@ -16089,7 +16111,7 @@
         <v>25.81000000000008</v>
       </c>
       <c r="K311" t="n">
-        <v>0</v>
+        <v>-59.99999999999979</v>
       </c>
       <c r="L311" t="n">
         <v>11.95999999999999</v>
@@ -16140,7 +16162,7 @@
         <v>25.81000000000008</v>
       </c>
       <c r="K312" t="n">
-        <v>-7.69230769230764</v>
+        <v>-59.99999999999979</v>
       </c>
       <c r="L312" t="n">
         <v>11.92999999999999</v>
@@ -16191,7 +16213,7 @@
         <v>25.91000000000008</v>
       </c>
       <c r="K313" t="n">
-        <v>-7.69230769230764</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L313" t="n">
         <v>11.88999999999999</v>
@@ -16242,7 +16264,7 @@
         <v>25.91000000000008</v>
       </c>
       <c r="K314" t="n">
-        <v>-27.27272727272705</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L314" t="n">
         <v>11.86999999999999</v>
@@ -16293,7 +16315,7 @@
         <v>25.91000000000008</v>
       </c>
       <c r="K315" t="n">
-        <v>-27.27272727272705</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L315" t="n">
         <v>11.85999999999999</v>
@@ -16344,7 +16366,7 @@
         <v>25.91000000000008</v>
       </c>
       <c r="K316" t="n">
-        <v>-27.27272727272705</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L316" t="n">
         <v>11.84999999999999</v>
@@ -16395,7 +16417,7 @@
         <v>25.91000000000008</v>
       </c>
       <c r="K317" t="n">
-        <v>-39.99999999999957</v>
+        <v>0</v>
       </c>
       <c r="L317" t="n">
         <v>11.83999999999999</v>
@@ -16446,7 +16468,7 @@
         <v>25.91000000000008</v>
       </c>
       <c r="K318" t="n">
-        <v>-39.99999999999957</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L318" t="n">
         <v>11.83999999999999</v>
@@ -16497,7 +16519,7 @@
         <v>25.91000000000008</v>
       </c>
       <c r="K319" t="n">
-        <v>-55.5555555555552</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L319" t="n">
         <v>11.82999999999999</v>
@@ -16548,7 +16570,7 @@
         <v>26.01000000000008</v>
       </c>
       <c r="K320" t="n">
-        <v>-55.5555555555552</v>
+        <v>-99.99999999999912</v>
       </c>
       <c r="L320" t="n">
         <v>11.80999999999999</v>
@@ -16599,7 +16621,7 @@
         <v>26.11000000000008</v>
       </c>
       <c r="K321" t="n">
-        <v>-33.333333333333</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L321" t="n">
         <v>11.79999999999999</v>
@@ -16650,7 +16672,7 @@
         <v>26.11000000000008</v>
       </c>
       <c r="K322" t="n">
-        <v>-49.99999999999956</v>
+        <v>0</v>
       </c>
       <c r="L322" t="n">
         <v>11.78999999999999</v>
@@ -16701,7 +16723,7 @@
         <v>26.21000000000009</v>
       </c>
       <c r="K323" t="n">
-        <v>-33.333333333333</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L323" t="n">
         <v>11.79999999999999</v>
@@ -16752,7 +16774,7 @@
         <v>26.21000000000009</v>
       </c>
       <c r="K324" t="n">
-        <v>-14.28571428571411</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L324" t="n">
         <v>11.80999999999999</v>
@@ -16803,7 +16825,7 @@
         <v>26.31000000000009</v>
       </c>
       <c r="K325" t="n">
-        <v>14.28571428571403</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L325" t="n">
         <v>11.82999999999999</v>
@@ -16854,7 +16876,7 @@
         <v>26.51000000000009</v>
       </c>
       <c r="K326" t="n">
-        <v>-11.11111111111096</v>
+        <v>0</v>
       </c>
       <c r="L326" t="n">
         <v>11.82999999999999</v>
@@ -16905,7 +16927,7 @@
         <v>26.51000000000009</v>
       </c>
       <c r="K327" t="n">
-        <v>-11.11111111111096</v>
+        <v>0</v>
       </c>
       <c r="L327" t="n">
         <v>11.82999999999999</v>
@@ -17007,7 +17029,7 @@
         <v>26.51000000000009</v>
       </c>
       <c r="K329" t="n">
-        <v>-14.28571428571411</v>
+        <v>20.00000000000014</v>
       </c>
       <c r="L329" t="n">
         <v>11.82999999999999</v>
@@ -17058,7 +17080,7 @@
         <v>26.61000000000009</v>
       </c>
       <c r="K330" t="n">
-        <v>-24.99999999999989</v>
+        <v>-20.00000000000014</v>
       </c>
       <c r="L330" t="n">
         <v>11.82999999999999</v>
@@ -17109,7 +17131,7 @@
         <v>26.71000000000009</v>
       </c>
       <c r="K331" t="n">
-        <v>-11.11111111111096</v>
+        <v>0</v>
       </c>
       <c r="L331" t="n">
         <v>11.82999999999999</v>
@@ -17160,7 +17182,7 @@
         <v>26.71000000000009</v>
       </c>
       <c r="K332" t="n">
-        <v>-11.11111111111096</v>
+        <v>-19.99999999999979</v>
       </c>
       <c r="L332" t="n">
         <v>11.82999999999999</v>
@@ -17211,7 +17233,7 @@
         <v>26.81000000000009</v>
       </c>
       <c r="K333" t="n">
-        <v>-11.11111111111116</v>
+        <v>-33.33333333333324</v>
       </c>
       <c r="L333" t="n">
         <v>11.80999999999999</v>
@@ -17262,7 +17284,7 @@
         <v>27.01000000000009</v>
       </c>
       <c r="K334" t="n">
-        <v>-27.27272727272713</v>
+        <v>-71.42857142857115</v>
       </c>
       <c r="L334" t="n">
         <v>11.76999999999999</v>
@@ -17313,7 +17335,7 @@
         <v>27.11000000000009</v>
       </c>
       <c r="K335" t="n">
-        <v>-16.66666666666662</v>
+        <v>-33.33333333333324</v>
       </c>
       <c r="L335" t="n">
         <v>11.72999999999999</v>
@@ -17364,7 +17386,7 @@
         <v>27.21000000000009</v>
       </c>
       <c r="K336" t="n">
-        <v>-23.07692307692293</v>
+        <v>-42.85714285714256</v>
       </c>
       <c r="L336" t="n">
         <v>11.69999999999999</v>
@@ -17415,7 +17437,7 @@
         <v>27.31000000000009</v>
       </c>
       <c r="K337" t="n">
-        <v>-28.57142857142833</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L337" t="n">
         <v>11.65999999999999</v>
@@ -17466,7 +17488,7 @@
         <v>27.31000000000009</v>
       </c>
       <c r="K338" t="n">
-        <v>-28.57142857142833</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L338" t="n">
         <v>11.61999999999999</v>
@@ -17517,7 +17539,7 @@
         <v>27.31000000000009</v>
       </c>
       <c r="K339" t="n">
-        <v>-28.57142857142833</v>
+        <v>-42.85714285714231</v>
       </c>
       <c r="L339" t="n">
         <v>11.57999999999999</v>
@@ -17568,7 +17590,7 @@
         <v>27.4100000000001</v>
       </c>
       <c r="K340" t="n">
-        <v>-28.57142857142821</v>
+        <v>-71.42857142857078</v>
       </c>
       <c r="L340" t="n">
         <v>11.53999999999999</v>
@@ -17619,7 +17641,7 @@
         <v>27.5100000000001</v>
       </c>
       <c r="K341" t="n">
-        <v>-42.85714285714256</v>
+        <v>-74.99999999999945</v>
       </c>
       <c r="L341" t="n">
         <v>11.47999999999999</v>
@@ -17670,7 +17692,7 @@
         <v>27.7100000000001</v>
       </c>
       <c r="K342" t="n">
-        <v>-24.99999999999978</v>
+        <v>-33.33333333333287</v>
       </c>
       <c r="L342" t="n">
         <v>11.43999999999999</v>
@@ -17721,7 +17743,7 @@
         <v>27.8100000000001</v>
       </c>
       <c r="K343" t="n">
-        <v>-24.99999999999978</v>
+        <v>0</v>
       </c>
       <c r="L343" t="n">
         <v>11.41999999999999</v>
@@ -17772,7 +17794,7 @@
         <v>27.8100000000001</v>
       </c>
       <c r="K344" t="n">
-        <v>-24.99999999999978</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L344" t="n">
         <v>11.41999999999999</v>
@@ -17823,7 +17845,7 @@
         <v>27.8100000000001</v>
       </c>
       <c r="K345" t="n">
-        <v>-33.33333333333302</v>
+        <v>0</v>
       </c>
       <c r="L345" t="n">
         <v>11.40999999999999</v>
@@ -17874,7 +17896,7 @@
         <v>27.8100000000001</v>
       </c>
       <c r="K346" t="n">
-        <v>-23.07692307692287</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L346" t="n">
         <v>11.40999999999999</v>
@@ -17925,7 +17947,7 @@
         <v>27.8100000000001</v>
       </c>
       <c r="K347" t="n">
-        <v>-23.07692307692287</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L347" t="n">
         <v>11.41999999999999</v>
@@ -17976,7 +17998,7 @@
         <v>27.8100000000001</v>
       </c>
       <c r="K348" t="n">
-        <v>-23.07692307692287</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L348" t="n">
         <v>11.42999999999999</v>
@@ -18027,7 +18049,7 @@
         <v>27.8100000000001</v>
       </c>
       <c r="K349" t="n">
-        <v>-23.07692307692287</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L349" t="n">
         <v>11.43999999999999</v>
@@ -18078,7 +18100,7 @@
         <v>27.8100000000001</v>
       </c>
       <c r="K350" t="n">
-        <v>-16.66666666666642</v>
+        <v>99.99999999999881</v>
       </c>
       <c r="L350" t="n">
         <v>11.45999999999999</v>
@@ -18129,7 +18151,7 @@
         <v>27.9100000000001</v>
       </c>
       <c r="K351" t="n">
-        <v>-33.33333333333299</v>
+        <v>0</v>
       </c>
       <c r="L351" t="n">
         <v>11.47999999999999</v>
@@ -18180,7 +18202,7 @@
         <v>28.0100000000001</v>
       </c>
       <c r="K352" t="n">
-        <v>-23.07692307692287</v>
+        <v>0</v>
       </c>
       <c r="L352" t="n">
         <v>11.48999999999999</v>
@@ -18231,7 +18253,7 @@
         <v>28.11000000000011</v>
       </c>
       <c r="K353" t="n">
-        <v>-23.07692307692273</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L353" t="n">
         <v>11.47999999999999</v>
@@ -18333,7 +18355,7 @@
         <v>28.31000000000011</v>
       </c>
       <c r="K355" t="n">
-        <v>-16.66666666666637</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L355" t="n">
         <v>11.46999999999999</v>
@@ -18384,7 +18406,7 @@
         <v>28.31000000000011</v>
       </c>
       <c r="K356" t="n">
-        <v>-9.090909090908928</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L356" t="n">
         <v>11.45999999999999</v>
@@ -18435,7 +18457,7 @@
         <v>28.31000000000011</v>
       </c>
       <c r="K357" t="n">
-        <v>0</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L357" t="n">
         <v>11.44999999999999</v>
@@ -18486,7 +18508,7 @@
         <v>28.31000000000011</v>
       </c>
       <c r="K358" t="n">
-        <v>0</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L358" t="n">
         <v>11.43999999999999</v>
@@ -18537,7 +18559,7 @@
         <v>28.41000000000011</v>
       </c>
       <c r="K359" t="n">
-        <v>9.090909090908928</v>
+        <v>0</v>
       </c>
       <c r="L359" t="n">
         <v>11.43999999999999</v>
@@ -18639,7 +18661,7 @@
         <v>28.41000000000011</v>
       </c>
       <c r="K361" t="n">
-        <v>33.33333333333294</v>
+        <v>0</v>
       </c>
       <c r="L361" t="n">
         <v>11.44999999999999</v>
@@ -18792,7 +18814,7 @@
         <v>28.61000000000011</v>
       </c>
       <c r="K364" t="n">
-        <v>0</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L364" t="n">
         <v>11.44999999999999</v>
@@ -18843,7 +18865,7 @@
         <v>28.61000000000011</v>
       </c>
       <c r="K365" t="n">
-        <v>0</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L365" t="n">
         <v>11.45999999999999</v>
@@ -18894,7 +18916,7 @@
         <v>28.71000000000011</v>
       </c>
       <c r="K366" t="n">
-        <v>-11.11111111111091</v>
+        <v>0</v>
       </c>
       <c r="L366" t="n">
         <v>11.45999999999999</v>
@@ -18945,7 +18967,7 @@
         <v>28.71000000000011</v>
       </c>
       <c r="K367" t="n">
-        <v>-11.11111111111091</v>
+        <v>0</v>
       </c>
       <c r="L367" t="n">
         <v>11.45999999999999</v>
@@ -19047,7 +19069,7 @@
         <v>28.91000000000012</v>
       </c>
       <c r="K369" t="n">
-        <v>-9.090909090908928</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L369" t="n">
         <v>11.45999999999999</v>
@@ -19098,7 +19120,7 @@
         <v>28.91000000000012</v>
       </c>
       <c r="K370" t="n">
-        <v>-9.090909090908928</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L370" t="n">
         <v>11.44999999999999</v>
@@ -19149,7 +19171,7 @@
         <v>29.01000000000012</v>
       </c>
       <c r="K371" t="n">
-        <v>9.090909090908928</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L371" t="n">
         <v>11.44999999999999</v>
@@ -19353,7 +19375,7 @@
         <v>29.31000000000012</v>
       </c>
       <c r="K375" t="n">
-        <v>19.99999999999964</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L375" t="n">
         <v>11.47999999999999</v>
@@ -19404,7 +19426,7 @@
         <v>29.31000000000012</v>
       </c>
       <c r="K376" t="n">
-        <v>19.99999999999964</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L376" t="n">
         <v>11.49999999999999</v>
@@ -19506,7 +19528,7 @@
         <v>29.31000000000012</v>
       </c>
       <c r="K378" t="n">
-        <v>19.99999999999964</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L378" t="n">
         <v>11.52999999999999</v>
@@ -19557,7 +19579,7 @@
         <v>29.51000000000012</v>
       </c>
       <c r="K379" t="n">
-        <v>-9.090909090908958</v>
+        <v>0</v>
       </c>
       <c r="L379" t="n">
         <v>11.52999999999999</v>
@@ -19608,7 +19630,7 @@
         <v>29.71000000000012</v>
       </c>
       <c r="K380" t="n">
-        <v>-23.07692307692293</v>
+        <v>-42.85714285714278</v>
       </c>
       <c r="L380" t="n">
         <v>11.50999999999999</v>
@@ -19659,7 +19681,7 @@
         <v>29.71000000000012</v>
       </c>
       <c r="K381" t="n">
-        <v>-23.07692307692293</v>
+        <v>-42.85714285714278</v>
       </c>
       <c r="L381" t="n">
         <v>11.47999999999999</v>
@@ -19710,7 +19732,7 @@
         <v>29.81000000000012</v>
       </c>
       <c r="K382" t="n">
-        <v>-7.692307692307598</v>
+        <v>-42.85714285714253</v>
       </c>
       <c r="L382" t="n">
         <v>11.45999999999999</v>
@@ -19761,7 +19783,7 @@
         <v>29.81000000000012</v>
       </c>
       <c r="K383" t="n">
-        <v>-16.66666666666647</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L383" t="n">
         <v>11.42999999999999</v>
@@ -19812,7 +19834,7 @@
         <v>29.91000000000012</v>
       </c>
       <c r="K384" t="n">
-        <v>-23.07692307692293</v>
+        <v>-66.66666666666656</v>
       </c>
       <c r="L384" t="n">
         <v>11.39999999999999</v>
@@ -19863,7 +19885,7 @@
         <v>29.91000000000012</v>
       </c>
       <c r="K385" t="n">
-        <v>-23.07692307692293</v>
+        <v>-66.66666666666656</v>
       </c>
       <c r="L385" t="n">
         <v>11.35999999999999</v>
@@ -19914,7 +19936,7 @@
         <v>30.01000000000013</v>
       </c>
       <c r="K386" t="n">
-        <v>-23.07692307692293</v>
+        <v>-71.42857142857115</v>
       </c>
       <c r="L386" t="n">
         <v>11.30999999999999</v>
@@ -19965,7 +19987,7 @@
         <v>30.01000000000013</v>
       </c>
       <c r="K387" t="n">
-        <v>-23.07692307692293</v>
+        <v>-71.42857142857115</v>
       </c>
       <c r="L387" t="n">
         <v>11.25999999999999</v>
@@ -20016,7 +20038,7 @@
         <v>30.11000000000013</v>
       </c>
       <c r="K388" t="n">
-        <v>-38.46153846153813</v>
+        <v>-66.66666666666617</v>
       </c>
       <c r="L388" t="n">
         <v>11.19999999999999</v>
@@ -20067,7 +20089,7 @@
         <v>30.11000000000013</v>
       </c>
       <c r="K389" t="n">
-        <v>-33.33333333333309</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L389" t="n">
         <v>11.15999999999999</v>
@@ -20118,7 +20140,7 @@
         <v>30.21000000000013</v>
       </c>
       <c r="K390" t="n">
-        <v>-38.46153846153813</v>
+        <v>-59.99999999999893</v>
       </c>
       <c r="L390" t="n">
         <v>11.12999999999999</v>
@@ -20169,7 +20191,7 @@
         <v>30.41000000000013</v>
       </c>
       <c r="K391" t="n">
-        <v>-28.57142857142841</v>
+        <v>-33.33333333333324</v>
       </c>
       <c r="L391" t="n">
         <v>11.11999999999999</v>
@@ -20220,7 +20242,7 @@
         <v>30.41000000000013</v>
       </c>
       <c r="K392" t="n">
-        <v>-28.57142857142841</v>
+        <v>-33.33333333333324</v>
       </c>
       <c r="L392" t="n">
         <v>11.09999999999999</v>
@@ -20271,7 +20293,7 @@
         <v>30.51000000000013</v>
       </c>
       <c r="K393" t="n">
-        <v>-42.85714285714266</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L393" t="n">
         <v>11.06999999999999</v>
@@ -20322,7 +20344,7 @@
         <v>30.61000000000013</v>
       </c>
       <c r="K394" t="n">
-        <v>-28.57142857142848</v>
+        <v>-14.28571428571418</v>
       </c>
       <c r="L394" t="n">
         <v>11.05999999999999</v>
@@ -20373,7 +20395,7 @@
         <v>30.61000000000013</v>
       </c>
       <c r="K395" t="n">
-        <v>-38.46153846153834</v>
+        <v>0</v>
       </c>
       <c r="L395" t="n">
         <v>11.04999999999999</v>
@@ -20424,7 +20446,7 @@
         <v>30.61000000000013</v>
       </c>
       <c r="K396" t="n">
-        <v>-38.46153846153834</v>
+        <v>0</v>
       </c>
       <c r="L396" t="n">
         <v>11.04999999999999</v>
@@ -20475,7 +20497,7 @@
         <v>30.71000000000013</v>
       </c>
       <c r="K397" t="n">
-        <v>-28.57142857142848</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L397" t="n">
         <v>11.05999999999999</v>
@@ -20526,7 +20548,7 @@
         <v>30.71000000000013</v>
       </c>
       <c r="K398" t="n">
-        <v>-28.57142857142848</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L398" t="n">
         <v>11.07999999999999</v>
@@ -20577,7 +20599,7 @@
         <v>30.71000000000013</v>
       </c>
       <c r="K399" t="n">
-        <v>-16.66666666666666</v>
+        <v>59.99999999999979</v>
       </c>
       <c r="L399" t="n">
         <v>11.09999999999999</v>
@@ -20628,7 +20650,7 @@
         <v>30.71000000000013</v>
       </c>
       <c r="K400" t="n">
-        <v>0</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L400" t="n">
         <v>11.12999999999999</v>
@@ -20679,7 +20701,7 @@
         <v>30.71000000000013</v>
       </c>
       <c r="K401" t="n">
-        <v>0</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L401" t="n">
         <v>11.13999999999999</v>
@@ -20730,7 +20752,7 @@
         <v>30.81000000000013</v>
       </c>
       <c r="K402" t="n">
-        <v>-19.99999999999996</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L402" t="n">
         <v>11.13999999999999</v>
@@ -20781,7 +20803,7 @@
         <v>30.81000000000013</v>
       </c>
       <c r="K403" t="n">
-        <v>-19.99999999999996</v>
+        <v>0</v>
       </c>
       <c r="L403" t="n">
         <v>11.14999999999999</v>
@@ -20832,7 +20854,7 @@
         <v>30.91000000000013</v>
       </c>
       <c r="K404" t="n">
-        <v>-19.99999999999979</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L404" t="n">
         <v>11.13999999999999</v>
@@ -20883,7 +20905,7 @@
         <v>31.11000000000013</v>
       </c>
       <c r="K405" t="n">
-        <v>0</v>
+        <v>19.99999999999979</v>
       </c>
       <c r="L405" t="n">
         <v>11.14999999999999</v>
@@ -20934,7 +20956,7 @@
         <v>31.11000000000013</v>
       </c>
       <c r="K406" t="n">
-        <v>9.090909090909017</v>
+        <v>0</v>
       </c>
       <c r="L406" t="n">
         <v>11.15999999999999</v>
@@ -20985,7 +21007,7 @@
         <v>31.11000000000013</v>
       </c>
       <c r="K407" t="n">
-        <v>9.090909090909017</v>
+        <v>0</v>
       </c>
       <c r="L407" t="n">
         <v>11.15999999999999</v>
@@ -21036,7 +21058,7 @@
         <v>31.11000000000013</v>
       </c>
       <c r="K408" t="n">
-        <v>19.99999999999986</v>
+        <v>0</v>
       </c>
       <c r="L408" t="n">
         <v>11.15999999999999</v>
@@ -21087,7 +21109,7 @@
         <v>31.11000000000013</v>
       </c>
       <c r="K409" t="n">
-        <v>19.99999999999986</v>
+        <v>0</v>
       </c>
       <c r="L409" t="n">
         <v>11.15999999999999</v>
@@ -21138,7 +21160,7 @@
         <v>31.21000000000013</v>
       </c>
       <c r="K410" t="n">
-        <v>39.99999999999989</v>
+        <v>20.00000000000014</v>
       </c>
       <c r="L410" t="n">
         <v>11.16999999999999</v>
@@ -21189,7 +21211,7 @@
         <v>31.31000000000013</v>
       </c>
       <c r="K411" t="n">
-        <v>33.33333333333333</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L411" t="n">
         <v>11.18999999999999</v>
@@ -21240,7 +21262,7 @@
         <v>31.31000000000013</v>
       </c>
       <c r="K412" t="n">
-        <v>33.33333333333333</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L412" t="n">
         <v>11.21999999999999</v>
@@ -21291,7 +21313,7 @@
         <v>31.31000000000013</v>
       </c>
       <c r="K413" t="n">
-        <v>49.99999999999978</v>
+        <v>100.0000000000004</v>
       </c>
       <c r="L413" t="n">
         <v>11.24999999999999</v>
@@ -21342,7 +21364,7 @@
         <v>31.31000000000013</v>
       </c>
       <c r="K414" t="n">
-        <v>42.85714285714278</v>
+        <v>100.0000000000009</v>
       </c>
       <c r="L414" t="n">
         <v>11.28999999999999</v>
@@ -21393,7 +21415,7 @@
         <v>31.31000000000013</v>
       </c>
       <c r="K415" t="n">
-        <v>42.85714285714278</v>
+        <v>100.0000000000009</v>
       </c>
       <c r="L415" t="n">
         <v>11.30999999999999</v>
@@ -21444,7 +21466,7 @@
         <v>31.31000000000013</v>
       </c>
       <c r="K416" t="n">
-        <v>42.85714285714278</v>
+        <v>100.0000000000009</v>
       </c>
       <c r="L416" t="n">
         <v>11.32999999999999</v>
@@ -21495,7 +21517,7 @@
         <v>31.31000000000013</v>
       </c>
       <c r="K417" t="n">
-        <v>33.33333333333343</v>
+        <v>100.0000000000009</v>
       </c>
       <c r="L417" t="n">
         <v>11.34999999999999</v>
@@ -21546,7 +21568,7 @@
         <v>31.31000000000013</v>
       </c>
       <c r="K418" t="n">
-        <v>33.33333333333343</v>
+        <v>100.0000000000009</v>
       </c>
       <c r="L418" t="n">
         <v>11.36999999999999</v>
@@ -21597,7 +21619,7 @@
         <v>31.51000000000013</v>
       </c>
       <c r="K419" t="n">
-        <v>0</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="L419" t="n">
         <v>11.36999999999999</v>
@@ -21648,7 +21670,7 @@
         <v>31.61000000000013</v>
       </c>
       <c r="K420" t="n">
-        <v>11.1111111111112</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L420" t="n">
         <v>11.36999999999999</v>
@@ -21699,7 +21721,7 @@
         <v>31.61000000000013</v>
       </c>
       <c r="K421" t="n">
-        <v>11.1111111111112</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L421" t="n">
         <v>11.35999999999999</v>
@@ -21750,7 +21772,7 @@
         <v>31.61000000000013</v>
       </c>
       <c r="K422" t="n">
-        <v>25</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L422" t="n">
         <v>11.34999999999999</v>
@@ -21801,7 +21823,7 @@
         <v>31.71000000000014</v>
       </c>
       <c r="K423" t="n">
-        <v>11.111111111111</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L423" t="n">
         <v>11.32999999999999</v>
@@ -21852,7 +21874,7 @@
         <v>31.81000000000014</v>
       </c>
       <c r="K424" t="n">
-        <v>33.3333333333332</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L424" t="n">
         <v>11.31999999999999</v>
@@ -21903,7 +21925,7 @@
         <v>31.91000000000014</v>
       </c>
       <c r="K425" t="n">
-        <v>0</v>
+        <v>-33.33333333333304</v>
       </c>
       <c r="L425" t="n">
         <v>11.29999999999999</v>
@@ -21954,7 +21976,7 @@
         <v>31.91000000000014</v>
       </c>
       <c r="K426" t="n">
-        <v>0</v>
+        <v>-33.33333333333304</v>
       </c>
       <c r="L426" t="n">
         <v>11.27999999999999</v>
@@ -22005,7 +22027,7 @@
         <v>32.01000000000014</v>
       </c>
       <c r="K427" t="n">
-        <v>11.11111111111116</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L427" t="n">
         <v>11.26999999999999</v>
@@ -22056,7 +22078,7 @@
         <v>32.01000000000014</v>
       </c>
       <c r="K428" t="n">
-        <v>11.11111111111116</v>
+        <v>20</v>
       </c>
       <c r="L428" t="n">
         <v>11.25999999999999</v>
@@ -22107,7 +22129,7 @@
         <v>32.11000000000014</v>
       </c>
       <c r="K429" t="n">
-        <v>19.99999999999989</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L429" t="n">
         <v>11.27999999999999</v>
@@ -22158,7 +22180,7 @@
         <v>32.11000000000014</v>
       </c>
       <c r="K430" t="n">
-        <v>11.11111111111096</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L430" t="n">
         <v>11.28999999999999</v>
@@ -22209,7 +22231,7 @@
         <v>32.11000000000014</v>
       </c>
       <c r="K431" t="n">
-        <v>0</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L431" t="n">
         <v>11.29999999999999</v>
@@ -22260,7 +22282,7 @@
         <v>32.11000000000014</v>
       </c>
       <c r="K432" t="n">
-        <v>0</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L432" t="n">
         <v>11.30999999999999</v>
@@ -22311,7 +22333,7 @@
         <v>32.11000000000014</v>
       </c>
       <c r="K433" t="n">
-        <v>0</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L433" t="n">
         <v>11.32999999999999</v>
@@ -22362,7 +22384,7 @@
         <v>32.11000000000014</v>
       </c>
       <c r="K434" t="n">
-        <v>0</v>
+        <v>99.99999999999912</v>
       </c>
       <c r="L434" t="n">
         <v>11.33999999999999</v>
@@ -22413,7 +22435,7 @@
         <v>32.21000000000014</v>
       </c>
       <c r="K435" t="n">
-        <v>-11.11111111111091</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L435" t="n">
         <v>11.34999999999999</v>
@@ -22464,7 +22486,7 @@
         <v>32.31000000000014</v>
       </c>
       <c r="K436" t="n">
-        <v>0</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L436" t="n">
         <v>11.36999999999999</v>
@@ -22515,7 +22537,7 @@
         <v>32.31000000000014</v>
       </c>
       <c r="K437" t="n">
-        <v>0</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L437" t="n">
         <v>11.37999999999999</v>
@@ -22617,7 +22639,7 @@
         <v>32.41000000000015</v>
       </c>
       <c r="K439" t="n">
-        <v>33.33333333333294</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L439" t="n">
         <v>11.4</v>
@@ -22668,7 +22690,7 @@
         <v>32.51000000000015</v>
       </c>
       <c r="K440" t="n">
-        <v>11.11111111111091</v>
+        <v>0</v>
       </c>
       <c r="L440" t="n">
         <v>11.4</v>
@@ -22719,7 +22741,7 @@
         <v>32.71000000000015</v>
       </c>
       <c r="K441" t="n">
-        <v>-9.090909090909092</v>
+        <v>-33.33333333333304</v>
       </c>
       <c r="L441" t="n">
         <v>11.37999999999999</v>
@@ -22770,7 +22792,7 @@
         <v>32.71000000000015</v>
       </c>
       <c r="K442" t="n">
-        <v>-9.090909090909092</v>
+        <v>-33.33333333333304</v>
       </c>
       <c r="L442" t="n">
         <v>11.35999999999999</v>
@@ -22821,7 +22843,7 @@
         <v>32.91000000000015</v>
       </c>
       <c r="K443" t="n">
-        <v>16.66666666666652</v>
+        <v>0</v>
       </c>
       <c r="L443" t="n">
         <v>11.35999999999999</v>
@@ -22872,7 +22894,7 @@
         <v>33.01000000000015</v>
       </c>
       <c r="K444" t="n">
-        <v>16.66666666666637</v>
+        <v>24.99999999999956</v>
       </c>
       <c r="L444" t="n">
         <v>11.36999999999999</v>
@@ -22923,7 +22945,7 @@
         <v>33.21000000000015</v>
       </c>
       <c r="K445" t="n">
-        <v>7.692307692307734</v>
+        <v>-11.111111111111</v>
       </c>
       <c r="L445" t="n">
         <v>11.36999999999999</v>
@@ -22974,7 +22996,7 @@
         <v>33.21000000000015</v>
       </c>
       <c r="K446" t="n">
-        <v>7.692307692307734</v>
+        <v>-11.111111111111</v>
       </c>
       <c r="L446" t="n">
         <v>11.35999999999999</v>
@@ -23025,7 +23047,7 @@
         <v>33.21000000000015</v>
       </c>
       <c r="K447" t="n">
-        <v>0</v>
+        <v>-11.111111111111</v>
       </c>
       <c r="L447" t="n">
         <v>11.34999999999999</v>
@@ -23076,7 +23098,7 @@
         <v>33.21000000000015</v>
       </c>
       <c r="K448" t="n">
-        <v>0</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L448" t="n">
         <v>11.33999999999999</v>
@@ -23127,7 +23149,7 @@
         <v>33.31000000000015</v>
       </c>
       <c r="K449" t="n">
-        <v>-16.66666666666662</v>
+        <v>-25</v>
       </c>
       <c r="L449" t="n">
         <v>11.30999999999999</v>
@@ -23178,7 +23200,7 @@
         <v>33.31000000000015</v>
       </c>
       <c r="K450" t="n">
-        <v>-16.66666666666662</v>
+        <v>0</v>
       </c>
       <c r="L450" t="n">
         <v>11.28999999999999</v>
@@ -23229,7 +23251,7 @@
         <v>33.41000000000015</v>
       </c>
       <c r="K451" t="n">
-        <v>-23.07692307692293</v>
+        <v>-14.28571428571418</v>
       </c>
       <c r="L451" t="n">
         <v>11.27999999999999</v>
@@ -23280,7 +23302,7 @@
         <v>33.51000000000015</v>
       </c>
       <c r="K452" t="n">
-        <v>-14.28571428571423</v>
+        <v>-33.33333333333343</v>
       </c>
       <c r="L452" t="n">
         <v>11.27999999999999</v>
@@ -23331,7 +23353,7 @@
         <v>33.51000000000015</v>
       </c>
       <c r="K453" t="n">
-        <v>-14.28571428571423</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L453" t="n">
         <v>11.25999999999999</v>
@@ -23382,7 +23404,7 @@
         <v>33.61000000000016</v>
       </c>
       <c r="K454" t="n">
-        <v>-6.666666666666579</v>
+        <v>0</v>
       </c>
       <c r="L454" t="n">
         <v>11.23999999999999</v>
@@ -23484,7 +23506,7 @@
         <v>33.71000000000016</v>
       </c>
       <c r="K456" t="n">
-        <v>-14.28571428571423</v>
+        <v>-20</v>
       </c>
       <c r="L456" t="n">
         <v>11.22999999999999</v>
@@ -23535,7 +23557,7 @@
         <v>33.91000000000016</v>
       </c>
       <c r="K457" t="n">
-        <v>0</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L457" t="n">
         <v>11.23999999999999</v>
@@ -23586,7 +23608,7 @@
         <v>33.91000000000016</v>
       </c>
       <c r="K458" t="n">
-        <v>0</v>
+        <v>33.33333333333304</v>
       </c>
       <c r="L458" t="n">
         <v>11.24999999999999</v>
@@ -23637,7 +23659,7 @@
         <v>33.91000000000016</v>
       </c>
       <c r="K459" t="n">
-        <v>-6.666666666666579</v>
+        <v>33.33333333333304</v>
       </c>
       <c r="L459" t="n">
         <v>11.26999999999999</v>
@@ -23688,7 +23710,7 @@
         <v>34.01000000000016</v>
       </c>
       <c r="K460" t="n">
-        <v>-6.666666666666579</v>
+        <v>33.33333333333304</v>
       </c>
       <c r="L460" t="n">
         <v>11.27999999999999</v>
@@ -23739,7 +23761,7 @@
         <v>34.01000000000016</v>
       </c>
       <c r="K461" t="n">
-        <v>7.692307692307734</v>
+        <v>20</v>
       </c>
       <c r="L461" t="n">
         <v>11.29999999999999</v>
@@ -23841,7 +23863,7 @@
         <v>34.11000000000016</v>
       </c>
       <c r="K463" t="n">
-        <v>-16.66666666666662</v>
+        <v>-20</v>
       </c>
       <c r="L463" t="n">
         <v>11.29999999999999</v>
@@ -23892,7 +23914,7 @@
         <v>34.21000000000016</v>
       </c>
       <c r="K464" t="n">
-        <v>-16.66666666666647</v>
+        <v>0</v>
       </c>
       <c r="L464" t="n">
         <v>11.29999999999999</v>
@@ -23943,7 +23965,7 @@
         <v>34.21000000000016</v>
       </c>
       <c r="K465" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L465" t="n">
         <v>11.29999999999999</v>
@@ -23994,7 +24016,7 @@
         <v>34.31000000000017</v>
       </c>
       <c r="K466" t="n">
-        <v>-9.090909090909092</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L466" t="n">
         <v>11.29999999999999</v>
@@ -24045,7 +24067,7 @@
         <v>34.41000000000017</v>
       </c>
       <c r="K467" t="n">
-        <v>-16.66666666666652</v>
+        <v>-59.99999999999929</v>
       </c>
       <c r="L467" t="n">
         <v>11.26999999999999</v>
@@ -24096,7 +24118,7 @@
         <v>34.51000000000017</v>
       </c>
       <c r="K468" t="n">
-        <v>-7.692307692307693</v>
+        <v>-33.33333333333304</v>
       </c>
       <c r="L468" t="n">
         <v>11.24999999999999</v>
@@ -24147,7 +24169,7 @@
         <v>34.61000000000017</v>
       </c>
       <c r="K469" t="n">
-        <v>-7.692307692307556</v>
+        <v>-33.33333333333304</v>
       </c>
       <c r="L469" t="n">
         <v>11.21999999999999</v>
@@ -24198,7 +24220,7 @@
         <v>34.61000000000017</v>
       </c>
       <c r="K470" t="n">
-        <v>-7.692307692307556</v>
+        <v>-33.33333333333304</v>
       </c>
       <c r="L470" t="n">
         <v>11.19999999999999</v>
@@ -24249,7 +24271,7 @@
         <v>34.81000000000017</v>
       </c>
       <c r="K471" t="n">
-        <v>14.28571428571416</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L471" t="n">
         <v>11.19999999999999</v>
@@ -24351,7 +24373,7 @@
         <v>34.91000000000017</v>
       </c>
       <c r="K473" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L473" t="n">
         <v>11.19999999999999</v>
@@ -24402,7 +24424,7 @@
         <v>34.91000000000017</v>
       </c>
       <c r="K474" t="n">
-        <v>-7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L474" t="n">
         <v>11.18999999999999</v>
@@ -24453,7 +24475,7 @@
         <v>35.11000000000017</v>
       </c>
       <c r="K475" t="n">
-        <v>-19.99999999999986</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L475" t="n">
         <v>11.15999999999999</v>
@@ -24504,7 +24526,7 @@
         <v>35.21000000000017</v>
       </c>
       <c r="K476" t="n">
-        <v>-6.666666666666579</v>
+        <v>0</v>
       </c>
       <c r="L476" t="n">
         <v>11.14999999999999</v>
@@ -24555,7 +24577,7 @@
         <v>35.31000000000017</v>
       </c>
       <c r="K477" t="n">
-        <v>-14.28571428571423</v>
+        <v>0</v>
       </c>
       <c r="L477" t="n">
         <v>11.15999999999999</v>
@@ -24606,7 +24628,7 @@
         <v>35.51000000000018</v>
       </c>
       <c r="K478" t="n">
-        <v>-24.99999999999978</v>
+        <v>-11.111111111111</v>
       </c>
       <c r="L478" t="n">
         <v>11.13999999999999</v>
@@ -24657,7 +24679,7 @@
         <v>35.51000000000018</v>
       </c>
       <c r="K479" t="n">
-        <v>-24.99999999999978</v>
+        <v>-11.111111111111</v>
       </c>
       <c r="L479" t="n">
         <v>11.12999999999999</v>
@@ -24708,7 +24730,7 @@
         <v>35.61000000000018</v>
       </c>
       <c r="K480" t="n">
-        <v>-24.99999999999978</v>
+        <v>-49.99999999999978</v>
       </c>
       <c r="L480" t="n">
         <v>11.10999999999999</v>
@@ -24759,7 +24781,7 @@
         <v>35.61000000000018</v>
       </c>
       <c r="K481" t="n">
-        <v>-24.99999999999978</v>
+        <v>-42.85714285714253</v>
       </c>
       <c r="L481" t="n">
         <v>11.06999999999999</v>
@@ -24810,7 +24832,7 @@
         <v>35.71000000000018</v>
       </c>
       <c r="K482" t="n">
-        <v>-24.99999999999967</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L482" t="n">
         <v>11.02999999999999</v>
@@ -24861,7 +24883,7 @@
         <v>35.81000000000018</v>
       </c>
       <c r="K483" t="n">
-        <v>-29.41176470588206</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L483" t="n">
         <v>10.97999999999999</v>
@@ -24912,7 +24934,7 @@
         <v>35.91000000000018</v>
       </c>
       <c r="K484" t="n">
-        <v>-29.41176470588206</v>
+        <v>-24.99999999999956</v>
       </c>
       <c r="L484" t="n">
         <v>10.93999999999999</v>
@@ -24963,7 +24985,7 @@
         <v>36.01000000000018</v>
       </c>
       <c r="K485" t="n">
-        <v>-22.22222222222201</v>
+        <v>-24.99999999999956</v>
       </c>
       <c r="L485" t="n">
         <v>10.92999999999999</v>
@@ -25014,7 +25036,7 @@
         <v>36.01000000000018</v>
       </c>
       <c r="K486" t="n">
-        <v>-17.64705882352917</v>
+        <v>-42.85714285714209</v>
       </c>
       <c r="L486" t="n">
         <v>10.90999999999999</v>
@@ -25065,7 +25087,7 @@
         <v>36.01000000000018</v>
       </c>
       <c r="K487" t="n">
-        <v>-12.49999999999983</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L487" t="n">
         <v>10.87999999999999</v>
@@ -25116,7 +25138,7 @@
         <v>36.11000000000018</v>
       </c>
       <c r="K488" t="n">
-        <v>-24.99999999999967</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L488" t="n">
         <v>10.85999999999999</v>
@@ -25167,7 +25189,7 @@
         <v>36.11000000000018</v>
       </c>
       <c r="K489" t="n">
-        <v>-19.99999999999974</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L489" t="n">
         <v>10.83999999999999</v>
@@ -25218,7 +25240,7 @@
         <v>36.11000000000018</v>
       </c>
       <c r="K490" t="n">
-        <v>-19.99999999999974</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L490" t="n">
         <v>10.82999999999999</v>
@@ -25269,7 +25291,7 @@
         <v>36.21000000000019</v>
       </c>
       <c r="K491" t="n">
-        <v>-42.85714285714256</v>
+        <v>-20</v>
       </c>
       <c r="L491" t="n">
         <v>10.80999999999999</v>
@@ -25320,7 +25342,7 @@
         <v>36.21000000000019</v>
       </c>
       <c r="K492" t="n">
-        <v>-38.46153846153813</v>
+        <v>0</v>
       </c>
       <c r="L492" t="n">
         <v>10.79999999999999</v>
@@ -25371,7 +25393,7 @@
         <v>36.31000000000019</v>
       </c>
       <c r="K493" t="n">
-        <v>-28.57142857142821</v>
+        <v>0</v>
       </c>
       <c r="L493" t="n">
         <v>10.80999999999999</v>
@@ -25422,7 +25444,7 @@
         <v>36.41000000000019</v>
       </c>
       <c r="K494" t="n">
-        <v>-19.99999999999974</v>
+        <v>0</v>
       </c>
       <c r="L494" t="n">
         <v>10.81999999999999</v>
@@ -25473,7 +25495,7 @@
         <v>36.41000000000019</v>
       </c>
       <c r="K495" t="n">
-        <v>-7.692307692307556</v>
+        <v>0</v>
       </c>
       <c r="L495" t="n">
         <v>10.81999999999999</v>
@@ -25524,7 +25546,7 @@
         <v>36.51000000000019</v>
       </c>
       <c r="K496" t="n">
-        <v>-23.07692307692267</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L496" t="n">
         <v>10.80999999999999</v>
@@ -25575,7 +25597,7 @@
         <v>36.51000000000019</v>
       </c>
       <c r="K497" t="n">
-        <v>-33.33333333333275</v>
+        <v>0</v>
       </c>
       <c r="L497" t="n">
         <v>10.79999999999999</v>
@@ -25626,7 +25648,7 @@
         <v>36.51000000000019</v>
       </c>
       <c r="K498" t="n">
-        <v>-19.99999999999964</v>
+        <v>0</v>
       </c>
       <c r="L498" t="n">
         <v>10.79999999999999</v>
@@ -25677,7 +25699,7 @@
         <v>36.51000000000019</v>
       </c>
       <c r="K499" t="n">
-        <v>-19.99999999999964</v>
+        <v>0</v>
       </c>
       <c r="L499" t="n">
         <v>10.79999999999999</v>
@@ -25728,7 +25750,7 @@
         <v>36.61000000000019</v>
       </c>
       <c r="K500" t="n">
-        <v>0</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L500" t="n">
         <v>10.80999999999999</v>
@@ -25779,7 +25801,7 @@
         <v>36.61000000000019</v>
       </c>
       <c r="K501" t="n">
-        <v>0</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L501" t="n">
         <v>10.82999999999999</v>
@@ -25830,7 +25852,7 @@
         <v>36.61000000000019</v>
       </c>
       <c r="K502" t="n">
-        <v>11.11111111111091</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L502" t="n">
         <v>10.84999999999999</v>
@@ -25881,7 +25903,7 @@
         <v>36.71000000000019</v>
       </c>
       <c r="K503" t="n">
-        <v>33.33333333333294</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L503" t="n">
         <v>10.86999999999999</v>
@@ -25932,7 +25954,7 @@
         <v>36.9100000000002</v>
       </c>
       <c r="K504" t="n">
-        <v>0</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L504" t="n">
         <v>10.85999999999999</v>
@@ -25983,7 +26005,7 @@
         <v>37.0100000000002</v>
       </c>
       <c r="K505" t="n">
-        <v>0</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L505" t="n">
         <v>10.85999999999999</v>
@@ -26034,7 +26056,7 @@
         <v>37.0100000000002</v>
       </c>
       <c r="K506" t="n">
-        <v>0</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L506" t="n">
         <v>10.86999999999999</v>
@@ -26085,7 +26107,7 @@
         <v>37.2100000000002</v>
       </c>
       <c r="K507" t="n">
-        <v>-16.66666666666652</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L507" t="n">
         <v>10.85999999999999</v>
@@ -26136,7 +26158,7 @@
         <v>37.3100000000002</v>
       </c>
       <c r="K508" t="n">
-        <v>-16.66666666666652</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L508" t="n">
         <v>10.83999999999999</v>
@@ -26187,7 +26209,7 @@
         <v>37.4100000000002</v>
       </c>
       <c r="K509" t="n">
-        <v>-7.692307692307693</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L509" t="n">
         <v>10.82999999999999</v>
@@ -26238,7 +26260,7 @@
         <v>37.4100000000002</v>
       </c>
       <c r="K510" t="n">
-        <v>-7.692307692307693</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L510" t="n">
         <v>10.80999999999999</v>
@@ -26289,7 +26311,7 @@
         <v>37.4100000000002</v>
       </c>
       <c r="K511" t="n">
-        <v>0</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L511" t="n">
         <v>10.78999999999999</v>
@@ -26340,7 +26362,7 @@
         <v>37.4100000000002</v>
       </c>
       <c r="K512" t="n">
-        <v>0</v>
+        <v>-42.85714285714235</v>
       </c>
       <c r="L512" t="n">
         <v>10.76999999999999</v>
@@ -26442,7 +26464,7 @@
         <v>37.5100000000002</v>
       </c>
       <c r="K514" t="n">
-        <v>-9.090909090908928</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L514" t="n">
         <v>10.74999999999999</v>
@@ -26544,7 +26566,7 @@
         <v>37.71000000000021</v>
       </c>
       <c r="K516" t="n">
-        <v>16.66666666666637</v>
+        <v>59.99999999999929</v>
       </c>
       <c r="L516" t="n">
         <v>10.75999999999999</v>
@@ -26595,7 +26617,7 @@
         <v>37.81000000000021</v>
       </c>
       <c r="K517" t="n">
-        <v>7.692307692307556</v>
+        <v>59.99999999999929</v>
       </c>
       <c r="L517" t="n">
         <v>10.77999999999999</v>
@@ -26646,7 +26668,7 @@
         <v>37.91000000000021</v>
       </c>
       <c r="K518" t="n">
-        <v>14.28571428571403</v>
+        <v>59.99999999999929</v>
       </c>
       <c r="L518" t="n">
         <v>10.81999999999999</v>
@@ -26697,7 +26719,7 @@
         <v>37.91000000000021</v>
       </c>
       <c r="K519" t="n">
-        <v>14.28571428571403</v>
+        <v>59.99999999999929</v>
       </c>
       <c r="L519" t="n">
         <v>10.84999999999999</v>
@@ -26748,7 +26770,7 @@
         <v>38.01000000000021</v>
       </c>
       <c r="K520" t="n">
-        <v>0</v>
+        <v>33.33333333333304</v>
       </c>
       <c r="L520" t="n">
         <v>10.86999999999999</v>
@@ -26799,7 +26821,7 @@
         <v>38.01000000000021</v>
       </c>
       <c r="K521" t="n">
-        <v>0</v>
+        <v>33.33333333333304</v>
       </c>
       <c r="L521" t="n">
         <v>10.88999999999999</v>
@@ -26850,7 +26872,7 @@
         <v>38.01000000000021</v>
       </c>
       <c r="K522" t="n">
-        <v>0</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L522" t="n">
         <v>10.90999999999999</v>
@@ -26901,7 +26923,7 @@
         <v>38.01000000000021</v>
       </c>
       <c r="K523" t="n">
-        <v>-7.692307692307556</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L523" t="n">
         <v>10.91999999999999</v>
@@ -26952,7 +26974,7 @@
         <v>38.11000000000021</v>
       </c>
       <c r="K524" t="n">
-        <v>16.66666666666637</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L524" t="n">
         <v>10.93999999999999</v>
@@ -27003,7 +27025,7 @@
         <v>38.11000000000021</v>
       </c>
       <c r="K525" t="n">
-        <v>9.090909090908928</v>
+        <v>0</v>
       </c>
       <c r="L525" t="n">
         <v>10.94999999999999</v>
@@ -27054,7 +27076,7 @@
         <v>38.21000000000021</v>
       </c>
       <c r="K526" t="n">
-        <v>16.66666666666637</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L526" t="n">
         <v>10.95999999999999</v>
@@ -27105,7 +27127,7 @@
         <v>38.21000000000021</v>
       </c>
       <c r="K527" t="n">
-        <v>39.99999999999947</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L527" t="n">
         <v>10.97999999999999</v>
@@ -27156,7 +27178,7 @@
         <v>38.21000000000021</v>
       </c>
       <c r="K528" t="n">
-        <v>55.55555555555477</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L528" t="n">
         <v>10.98999999999999</v>
@@ -27207,7 +27229,7 @@
         <v>38.31000000000022</v>
       </c>
       <c r="K529" t="n">
-        <v>33.33333333333294</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L529" t="n">
         <v>10.98999999999999</v>
@@ -27258,7 +27280,7 @@
         <v>38.31000000000022</v>
       </c>
       <c r="K530" t="n">
-        <v>33.33333333333294</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L530" t="n">
         <v>10.99999999999999</v>
@@ -27309,7 +27331,7 @@
         <v>38.31000000000022</v>
       </c>
       <c r="K531" t="n">
-        <v>33.33333333333294</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L531" t="n">
         <v>11.00999999999999</v>
@@ -27360,7 +27382,7 @@
         <v>38.31000000000022</v>
       </c>
       <c r="K532" t="n">
-        <v>33.33333333333294</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L532" t="n">
         <v>11.01999999999999</v>
@@ -27411,7 +27433,7 @@
         <v>38.41000000000022</v>
       </c>
       <c r="K533" t="n">
-        <v>11.11111111111091</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L533" t="n">
         <v>11.01999999999999</v>
@@ -27462,7 +27484,7 @@
         <v>38.41000000000022</v>
       </c>
       <c r="K534" t="n">
-        <v>11.11111111111091</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L534" t="n">
         <v>11.00999999999999</v>
@@ -27513,7 +27535,7 @@
         <v>38.41000000000022</v>
       </c>
       <c r="K535" t="n">
-        <v>0</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L535" t="n">
         <v>10.99999999999999</v>
@@ -27564,7 +27586,7 @@
         <v>38.41000000000022</v>
       </c>
       <c r="K536" t="n">
-        <v>-14.28571428571403</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L536" t="n">
         <v>10.97999999999999</v>
@@ -27615,7 +27637,7 @@
         <v>38.51000000000022</v>
       </c>
       <c r="K537" t="n">
-        <v>-14.28571428571403</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L537" t="n">
         <v>10.94999999999999</v>
@@ -27666,7 +27688,7 @@
         <v>38.61000000000022</v>
       </c>
       <c r="K538" t="n">
-        <v>-14.28571428571403</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L538" t="n">
         <v>10.92999999999999</v>
@@ -27717,7 +27739,7 @@
         <v>38.71000000000022</v>
       </c>
       <c r="K539" t="n">
-        <v>-24.99999999999956</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L539" t="n">
         <v>10.90999999999999</v>
@@ -27768,7 +27790,7 @@
         <v>38.71000000000022</v>
       </c>
       <c r="K540" t="n">
-        <v>-14.28571428571403</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L540" t="n">
         <v>10.88999999999999</v>
@@ -27819,7 +27841,7 @@
         <v>38.71000000000022</v>
       </c>
       <c r="K541" t="n">
-        <v>-14.28571428571403</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L541" t="n">
         <v>10.86999999999999</v>
@@ -27870,7 +27892,7 @@
         <v>38.71000000000022</v>
       </c>
       <c r="K542" t="n">
-        <v>-14.28571428571403</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L542" t="n">
         <v>10.84999999999999</v>
@@ -27921,7 +27943,7 @@
         <v>38.71000000000022</v>
       </c>
       <c r="K543" t="n">
-        <v>-14.28571428571403</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L543" t="n">
         <v>10.83999999999999</v>
@@ -28023,7 +28045,7 @@
         <v>38.81000000000022</v>
       </c>
       <c r="K545" t="n">
-        <v>-14.28571428571403</v>
+        <v>0</v>
       </c>
       <c r="L545" t="n">
         <v>10.82999999999999</v>
@@ -28074,7 +28096,7 @@
         <v>38.91000000000022</v>
       </c>
       <c r="K546" t="n">
-        <v>-14.28571428571403</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L546" t="n">
         <v>10.83999999999999</v>
@@ -28125,7 +28147,7 @@
         <v>38.91000000000022</v>
       </c>
       <c r="K547" t="n">
-        <v>-14.28571428571403</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L547" t="n">
         <v>10.85999999999999</v>
@@ -28176,7 +28198,7 @@
         <v>38.91000000000022</v>
       </c>
       <c r="K548" t="n">
-        <v>-14.28571428571403</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L548" t="n">
         <v>10.86999999999999</v>
@@ -28227,7 +28249,7 @@
         <v>39.01000000000023</v>
       </c>
       <c r="K549" t="n">
-        <v>-14.28571428571403</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L549" t="n">
         <v>10.87999999999999</v>
@@ -28278,7 +28300,7 @@
         <v>39.01000000000023</v>
       </c>
       <c r="K550" t="n">
-        <v>-14.28571428571403</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L550" t="n">
         <v>10.88999999999999</v>
@@ -28329,7 +28351,7 @@
         <v>39.01000000000023</v>
       </c>
       <c r="K551" t="n">
-        <v>-14.28571428571403</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L551" t="n">
         <v>10.89999999999999</v>
@@ -28380,7 +28402,7 @@
         <v>39.01000000000023</v>
       </c>
       <c r="K552" t="n">
-        <v>-14.28571428571403</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L552" t="n">
         <v>10.90999999999999</v>
@@ -28431,7 +28453,7 @@
         <v>39.01000000000023</v>
       </c>
       <c r="K553" t="n">
-        <v>0</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L553" t="n">
         <v>10.91999999999999</v>
@@ -28482,7 +28504,7 @@
         <v>39.11000000000023</v>
       </c>
       <c r="K554" t="n">
-        <v>-14.28571428571403</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L554" t="n">
         <v>10.91999999999999</v>
@@ -28533,7 +28555,7 @@
         <v>39.11000000000023</v>
       </c>
       <c r="K555" t="n">
-        <v>-14.28571428571403</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L555" t="n">
         <v>10.90999999999999</v>
@@ -28584,7 +28606,7 @@
         <v>39.21000000000023</v>
       </c>
       <c r="K556" t="n">
-        <v>0</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L556" t="n">
         <v>10.89999999999999</v>
@@ -28635,7 +28657,7 @@
         <v>39.31000000000023</v>
       </c>
       <c r="K557" t="n">
-        <v>24.99999999999956</v>
+        <v>0</v>
       </c>
       <c r="L557" t="n">
         <v>10.89999999999999</v>
@@ -28686,7 +28708,7 @@
         <v>39.31000000000023</v>
       </c>
       <c r="K558" t="n">
-        <v>14.28571428571403</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L558" t="n">
         <v>10.89999999999999</v>
@@ -28788,7 +28810,7 @@
         <v>39.41000000000023</v>
       </c>
       <c r="K560" t="n">
-        <v>14.28571428571403</v>
+        <v>0</v>
       </c>
       <c r="L560" t="n">
         <v>10.90999999999999</v>
@@ -28839,7 +28861,7 @@
         <v>39.41000000000023</v>
       </c>
       <c r="K561" t="n">
-        <v>14.28571428571403</v>
+        <v>0</v>
       </c>
       <c r="L561" t="n">
         <v>10.90999999999999</v>
@@ -28890,7 +28912,7 @@
         <v>39.51000000000023</v>
       </c>
       <c r="K562" t="n">
-        <v>0</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L562" t="n">
         <v>10.89999999999999</v>
@@ -29043,7 +29065,7 @@
         <v>39.51000000000023</v>
       </c>
       <c r="K565" t="n">
-        <v>-14.28571428571403</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L565" t="n">
         <v>10.88999999999999</v>
@@ -29094,7 +29116,7 @@
         <v>39.51000000000023</v>
       </c>
       <c r="K566" t="n">
-        <v>-33.33333333333275</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L566" t="n">
         <v>10.87999999999999</v>
@@ -29145,7 +29167,7 @@
         <v>39.51000000000023</v>
       </c>
       <c r="K567" t="n">
-        <v>-33.33333333333275</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L567" t="n">
         <v>10.85999999999999</v>
@@ -29196,7 +29218,7 @@
         <v>39.61000000000023</v>
       </c>
       <c r="K568" t="n">
-        <v>-42.85714285714235</v>
+        <v>-99.99999999999881</v>
       </c>
       <c r="L568" t="n">
         <v>10.82999999999999</v>
@@ -29247,7 +29269,7 @@
         <v>39.71000000000024</v>
       </c>
       <c r="K569" t="n">
-        <v>-14.28571428571403</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L569" t="n">
         <v>10.80999999999999</v>
@@ -29298,7 +29320,7 @@
         <v>39.71000000000024</v>
       </c>
       <c r="K570" t="n">
-        <v>-14.28571428571403</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L570" t="n">
         <v>10.79999999999999</v>
@@ -29349,7 +29371,7 @@
         <v>39.81000000000024</v>
       </c>
       <c r="K571" t="n">
-        <v>-24.99999999999978</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L571" t="n">
         <v>10.77999999999999</v>
@@ -29400,7 +29422,7 @@
         <v>39.81000000000024</v>
       </c>
       <c r="K572" t="n">
-        <v>-24.99999999999978</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L572" t="n">
         <v>10.76999999999999</v>
@@ -29451,7 +29473,7 @@
         <v>39.81000000000024</v>
       </c>
       <c r="K573" t="n">
-        <v>-24.99999999999978</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L573" t="n">
         <v>10.75999999999999</v>
@@ -29502,7 +29524,7 @@
         <v>39.81000000000024</v>
       </c>
       <c r="K574" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L574" t="n">
         <v>10.74999999999999</v>
@@ -29553,7 +29575,7 @@
         <v>39.81000000000024</v>
       </c>
       <c r="K575" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L575" t="n">
         <v>10.73999999999999</v>
@@ -29604,7 +29626,7 @@
         <v>39.91000000000024</v>
       </c>
       <c r="K576" t="n">
-        <v>-14.28571428571403</v>
+        <v>0</v>
       </c>
       <c r="L576" t="n">
         <v>10.73999999999999</v>
@@ -29655,7 +29677,7 @@
         <v>40.01000000000024</v>
       </c>
       <c r="K577" t="n">
-        <v>-14.28571428571403</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L577" t="n">
         <v>10.74999999999999</v>
@@ -29706,7 +29728,7 @@
         <v>40.01000000000024</v>
       </c>
       <c r="K578" t="n">
-        <v>-14.28571428571403</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L578" t="n">
         <v>10.76999999999999</v>
@@ -29757,7 +29779,7 @@
         <v>40.11000000000024</v>
       </c>
       <c r="K579" t="n">
-        <v>0</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L579" t="n">
         <v>10.78999999999999</v>
@@ -29808,7 +29830,7 @@
         <v>40.21000000000024</v>
       </c>
       <c r="K580" t="n">
-        <v>0</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L580" t="n">
         <v>10.79999999999999</v>
@@ -29859,7 +29881,7 @@
         <v>40.31000000000024</v>
       </c>
       <c r="K581" t="n">
-        <v>11.11111111111091</v>
+        <v>59.99999999999929</v>
       </c>
       <c r="L581" t="n">
         <v>10.82999999999999</v>
@@ -29910,7 +29932,7 @@
         <v>40.41000000000025</v>
       </c>
       <c r="K582" t="n">
-        <v>33.33333333333275</v>
+        <v>66.66666666666578</v>
       </c>
       <c r="L582" t="n">
         <v>10.86999999999999</v>
@@ -29961,7 +29983,7 @@
         <v>40.61000000000025</v>
       </c>
       <c r="K583" t="n">
-        <v>45.45454545454481</v>
+        <v>74.99999999999912</v>
       </c>
       <c r="L583" t="n">
         <v>10.92999999999999</v>
@@ -30012,7 +30034,7 @@
         <v>40.61000000000025</v>
       </c>
       <c r="K584" t="n">
-        <v>45.45454545454481</v>
+        <v>74.99999999999912</v>
       </c>
       <c r="L584" t="n">
         <v>10.98999999999999</v>
@@ -30063,7 +30085,7 @@
         <v>40.61000000000025</v>
       </c>
       <c r="K585" t="n">
-        <v>45.45454545454481</v>
+        <v>71.42857142857041</v>
       </c>
       <c r="L585" t="n">
         <v>11.04999999999999</v>
@@ -30114,7 +30136,7 @@
         <v>40.61000000000025</v>
       </c>
       <c r="K586" t="n">
-        <v>45.45454545454481</v>
+        <v>66.66666666666578</v>
       </c>
       <c r="L586" t="n">
         <v>11.09999999999999</v>
@@ -30165,7 +30187,7 @@
         <v>40.61000000000025</v>
       </c>
       <c r="K587" t="n">
-        <v>45.45454545454481</v>
+        <v>66.66666666666578</v>
       </c>
       <c r="L587" t="n">
         <v>11.13999999999999</v>
@@ -30216,7 +30238,7 @@
         <v>40.81000000000024</v>
       </c>
       <c r="K588" t="n">
-        <v>66.66666666666617</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L588" t="n">
         <v>11.19999999999999</v>
@@ -30267,7 +30289,7 @@
         <v>40.91000000000025</v>
       </c>
       <c r="K589" t="n">
-        <v>49.99999999999956</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L589" t="n">
         <v>11.23999999999999</v>

--- a/BackTest/2019-11-17 BackTest DVP.xlsx
+++ b/BackTest/2019-11-17 BackTest DVP.xlsx
@@ -451,20 +451,14 @@
         <v>9.695499999999997</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>9.77</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
       </c>
@@ -492,20 +486,14 @@
         <v>9.699833333333329</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>9.779999999999999</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,20 +521,14 @@
         <v>9.704333333333329</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>9.880000000000001</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -574,20 +556,14 @@
         <v>9.707166666666662</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>9.890000000000001</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -615,20 +591,14 @@
         <v>9.710166666666661</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>9.890000000000001</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -656,20 +626,14 @@
         <v>9.713833333333328</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>9.91</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -697,20 +661,14 @@
         <v>9.717166666666662</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>9.949999999999999</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -738,20 +696,14 @@
         <v>9.720499999999996</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>10</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -779,20 +731,14 @@
         <v>9.722999999999997</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>10</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -820,20 +766,14 @@
         <v>9.726166666666666</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>9.99</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -861,20 +801,14 @@
         <v>9.730666666666666</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>9.99</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -902,20 +836,14 @@
         <v>9.735333333333331</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>10</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -943,20 +871,14 @@
         <v>9.743499999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>10.1</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -984,20 +906,14 @@
         <v>9.753333333333332</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>10.1</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1025,20 +941,14 @@
         <v>9.765999999999998</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>10.2</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1066,20 +976,14 @@
         <v>9.7735</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>10.2</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1114,11 +1018,7 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1153,11 +1053,7 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1192,11 +1088,7 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1231,11 +1123,7 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1270,11 +1158,7 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1193,7 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1348,11 +1228,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1387,11 +1263,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1426,11 +1298,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1465,11 +1333,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1504,11 +1368,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1543,11 +1403,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1582,11 +1438,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1621,11 +1473,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1660,11 +1508,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1699,11 +1543,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1578,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1777,11 +1613,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1816,11 +1648,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1855,11 +1683,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1894,11 +1718,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1933,11 +1753,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1972,11 +1788,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2011,11 +1823,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2050,11 +1858,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2089,11 +1893,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2128,11 +1928,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2167,11 +1963,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2206,11 +1998,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2245,11 +2033,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2284,11 +2068,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2323,11 +2103,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2362,11 +2138,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2401,11 +2173,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2440,11 +2208,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2479,11 +2243,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2518,11 +2278,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2557,11 +2313,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2596,11 +2348,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2635,11 +2383,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2674,11 +2418,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2713,11 +2453,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2752,11 +2488,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2791,11 +2523,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2830,11 +2558,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2869,11 +2593,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2908,11 +2628,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2947,11 +2663,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2986,11 +2698,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3025,11 +2733,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3064,11 +2768,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3103,11 +2803,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3142,11 +2838,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3181,11 +2873,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3220,11 +2908,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3259,11 +2943,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3298,11 +2978,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3337,11 +3013,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3376,11 +3048,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3415,11 +3083,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3454,11 +3118,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3489,16 +3149,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3526,7 +3184,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3561,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3596,7 +3254,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3701,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3736,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3771,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3806,7 +3464,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -6743,13 +6401,17 @@
         <v>11.23833333333334</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="K172" t="n">
+        <v>10.9</v>
+      </c>
       <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
@@ -6778,14 +6440,22 @@
         <v>11.23166666666667</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>11</v>
+      </c>
+      <c r="K173" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6813,14 +6483,22 @@
         <v>11.22666666666668</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>11</v>
+      </c>
+      <c r="K174" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6918,13 +6596,17 @@
         <v>11.19833333333334</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K177" t="n">
+        <v>10.7</v>
+      </c>
       <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
@@ -6953,14 +6635,22 @@
         <v>11.19166666666667</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="K178" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6988,14 +6678,22 @@
         <v>11.18333333333334</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="K179" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7023,14 +6721,22 @@
         <v>11.17333333333334</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="K180" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7058,14 +6764,22 @@
         <v>11.165</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="K181" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7093,14 +6807,22 @@
         <v>11.15333333333334</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K182" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7128,14 +6850,22 @@
         <v>11.13833333333334</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K183" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7163,14 +6893,22 @@
         <v>11.12333333333334</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="K184" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7198,14 +6936,22 @@
         <v>11.11166666666668</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="K185" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7233,14 +6979,22 @@
         <v>11.10000000000001</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K186" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7268,14 +7022,22 @@
         <v>11.08833333333334</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K187" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7303,14 +7065,22 @@
         <v>11.07666666666668</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K188" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7338,14 +7108,22 @@
         <v>11.06666666666668</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K189" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7373,14 +7151,22 @@
         <v>11.05666666666668</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K190" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7408,14 +7194,22 @@
         <v>11.04833333333335</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="K191" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7443,14 +7237,22 @@
         <v>11.04166666666668</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="K192" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7478,14 +7280,22 @@
         <v>11.03833333333335</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="K193" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7513,14 +7323,22 @@
         <v>11.03166666666668</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>11</v>
+      </c>
+      <c r="K194" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7554,8 +7372,14 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7589,8 +7413,14 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7624,8 +7454,14 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7659,8 +7495,14 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7694,8 +7536,14 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7729,8 +7577,14 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7764,8 +7618,14 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7799,8 +7659,14 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7834,8 +7700,14 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7869,8 +7741,14 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7904,8 +7782,14 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7939,8 +7823,14 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7974,8 +7864,14 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8009,8 +7905,14 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8044,8 +7946,14 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8079,8 +7987,14 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8114,8 +8028,14 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8149,8 +8069,14 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8184,8 +8110,14 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8219,8 +8151,14 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8254,8 +8192,14 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8289,8 +8233,14 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8324,8 +8274,14 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8359,8 +8315,14 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8394,8 +8356,14 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8429,8 +8397,14 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8464,8 +8438,14 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8499,8 +8479,14 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8534,8 +8520,14 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8569,8 +8561,14 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8604,8 +8602,14 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8639,8 +8643,14 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8674,8 +8684,14 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8709,8 +8725,14 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8744,8 +8766,14 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8779,8 +8807,14 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8814,8 +8848,14 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8849,8 +8889,14 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8884,8 +8930,14 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8919,8 +8971,14 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -8954,8 +9012,14 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -8989,8 +9053,14 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9024,8 +9094,14 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9056,13 +9132,19 @@
         <v>0</v>
       </c>
       <c r="I238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M238" t="n">
-        <v>1</v>
+        <v>1.13518691588785</v>
       </c>
     </row>
     <row r="239">
@@ -9126,7 +9208,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
@@ -14513,13 +14595,17 @@
         <v>11.38</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
       </c>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>11</v>
+      </c>
+      <c r="K394" t="n">
+        <v>11</v>
+      </c>
       <c r="L394" t="inlineStr"/>
       <c r="M394" t="n">
         <v>1</v>
@@ -14548,14 +14634,22 @@
         <v>11.37166666666667</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
       </c>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
-      <c r="L395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="K395" t="n">
+        <v>11</v>
+      </c>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -14589,8 +14683,14 @@
         <v>0</v>
       </c>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
-      <c r="L396" t="inlineStr"/>
+      <c r="K396" t="n">
+        <v>11</v>
+      </c>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M396" t="n">
         <v>1</v>
       </c>
@@ -14933,13 +15033,17 @@
         <v>11.32333333333334</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
       </c>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="K406" t="n">
+        <v>11.2</v>
+      </c>
       <c r="L406" t="inlineStr"/>
       <c r="M406" t="n">
         <v>1</v>
@@ -14974,8 +15078,14 @@
         <v>0</v>
       </c>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
-      <c r="L407" t="inlineStr"/>
+      <c r="K407" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M407" t="n">
         <v>1</v>
       </c>
@@ -15009,8 +15119,14 @@
         <v>0</v>
       </c>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
-      <c r="L408" t="inlineStr"/>
+      <c r="K408" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M408" t="n">
         <v>1</v>
       </c>
@@ -17733,13 +17849,17 @@
         <v>11.22</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
       </c>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="K486" t="n">
+        <v>10.9</v>
+      </c>
       <c r="L486" t="inlineStr"/>
       <c r="M486" t="n">
         <v>1</v>
@@ -17774,8 +17894,14 @@
         <v>0</v>
       </c>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
-      <c r="L487" t="inlineStr"/>
+      <c r="K487" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L487" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M487" t="n">
         <v>1</v>
       </c>
@@ -17803,14 +17929,22 @@
         <v>11.205</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
       </c>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
-      <c r="L488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="K488" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L488" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M488" t="n">
         <v>1</v>
       </c>
@@ -17838,13 +17972,17 @@
         <v>11.195</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
       </c>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="K489" t="n">
+        <v>10.8</v>
+      </c>
       <c r="L489" t="inlineStr"/>
       <c r="M489" t="n">
         <v>1</v>
@@ -17873,14 +18011,22 @@
         <v>11.185</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
       </c>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
-      <c r="L490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="K490" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L490" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M490" t="n">
         <v>1</v>
       </c>
@@ -17908,14 +18054,22 @@
         <v>11.17333333333333</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
       </c>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
-      <c r="L491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="K491" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L491" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M491" t="n">
         <v>1</v>
       </c>
@@ -17943,14 +18097,22 @@
         <v>11.16166666666667</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
       </c>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
-      <c r="L492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K492" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M492" t="n">
         <v>1</v>
       </c>
@@ -17978,14 +18140,22 @@
         <v>11.15166666666667</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
       </c>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
-      <c r="L493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K493" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M493" t="n">
         <v>1</v>
       </c>
@@ -18013,14 +18183,22 @@
         <v>11.14333333333333</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
       </c>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
-      <c r="L494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="K494" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M494" t="n">
         <v>1</v>
       </c>
@@ -18048,14 +18226,22 @@
         <v>11.13666666666667</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I495" t="n">
         <v>0</v>
       </c>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
-      <c r="L495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="K495" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M495" t="n">
         <v>1</v>
       </c>
@@ -18083,14 +18269,22 @@
         <v>11.12666666666667</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
       </c>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
-      <c r="L496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="K496" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M496" t="n">
         <v>1</v>
       </c>
@@ -18124,8 +18318,14 @@
         <v>0</v>
       </c>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
-      <c r="L497" t="inlineStr"/>
+      <c r="K497" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M497" t="n">
         <v>1</v>
       </c>
@@ -18159,8 +18359,14 @@
         <v>0</v>
       </c>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
-      <c r="L498" t="inlineStr"/>
+      <c r="K498" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M498" t="n">
         <v>1</v>
       </c>
@@ -18194,8 +18400,14 @@
         <v>0</v>
       </c>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
-      <c r="L499" t="inlineStr"/>
+      <c r="K499" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M499" t="n">
         <v>1</v>
       </c>
@@ -18229,8 +18441,14 @@
         <v>0</v>
       </c>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
-      <c r="L500" t="inlineStr"/>
+      <c r="K500" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M500" t="n">
         <v>1</v>
       </c>
@@ -18258,14 +18476,22 @@
         <v>11.08166666666667</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
       </c>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
-      <c r="L501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="K501" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M501" t="n">
         <v>1</v>
       </c>
@@ -18299,8 +18525,14 @@
         <v>0</v>
       </c>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
-      <c r="L502" t="inlineStr"/>
+      <c r="K502" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M502" t="n">
         <v>1</v>
       </c>
@@ -18334,8 +18566,14 @@
         <v>0</v>
       </c>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
-      <c r="L503" t="inlineStr"/>
+      <c r="K503" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M503" t="n">
         <v>1</v>
       </c>
@@ -18369,8 +18607,14 @@
         <v>0</v>
       </c>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
-      <c r="L504" t="inlineStr"/>
+      <c r="K504" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M504" t="n">
         <v>1</v>
       </c>
@@ -18404,8 +18648,14 @@
         <v>0</v>
       </c>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
-      <c r="L505" t="inlineStr"/>
+      <c r="K505" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M505" t="n">
         <v>1</v>
       </c>
@@ -18439,8 +18689,14 @@
         <v>0</v>
       </c>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
-      <c r="L506" t="inlineStr"/>
+      <c r="K506" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M506" t="n">
         <v>1</v>
       </c>
@@ -18474,8 +18730,14 @@
         <v>0</v>
       </c>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
-      <c r="L507" t="inlineStr"/>
+      <c r="K507" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M507" t="n">
         <v>1</v>
       </c>
@@ -18509,8 +18771,14 @@
         <v>0</v>
       </c>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
-      <c r="L508" t="inlineStr"/>
+      <c r="K508" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M508" t="n">
         <v>1</v>
       </c>
@@ -18544,8 +18812,14 @@
         <v>0</v>
       </c>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
-      <c r="L509" t="inlineStr"/>
+      <c r="K509" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M509" t="n">
         <v>1</v>
       </c>
@@ -18579,8 +18853,14 @@
         <v>0</v>
       </c>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
-      <c r="L510" t="inlineStr"/>
+      <c r="K510" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M510" t="n">
         <v>1</v>
       </c>
@@ -18614,8 +18894,14 @@
         <v>0</v>
       </c>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
-      <c r="L511" t="inlineStr"/>
+      <c r="K511" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M511" t="n">
         <v>1</v>
       </c>
@@ -18649,8 +18935,14 @@
         <v>0</v>
       </c>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
-      <c r="L512" t="inlineStr"/>
+      <c r="K512" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M512" t="n">
         <v>1</v>
       </c>
@@ -18684,8 +18976,14 @@
         <v>0</v>
       </c>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
-      <c r="L513" t="inlineStr"/>
+      <c r="K513" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M513" t="n">
         <v>1</v>
       </c>
@@ -18719,8 +19017,14 @@
         <v>0</v>
       </c>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
-      <c r="L514" t="inlineStr"/>
+      <c r="K514" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M514" t="n">
         <v>1</v>
       </c>
@@ -18754,8 +19058,14 @@
         <v>0</v>
       </c>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
-      <c r="L515" t="inlineStr"/>
+      <c r="K515" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M515" t="n">
         <v>1</v>
       </c>
@@ -18789,8 +19099,14 @@
         <v>0</v>
       </c>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
-      <c r="L516" t="inlineStr"/>
+      <c r="K516" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M516" t="n">
         <v>1</v>
       </c>
@@ -18824,8 +19140,14 @@
         <v>0</v>
       </c>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
-      <c r="L517" t="inlineStr"/>
+      <c r="K517" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M517" t="n">
         <v>1</v>
       </c>
@@ -18859,8 +19181,14 @@
         <v>0</v>
       </c>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
-      <c r="L518" t="inlineStr"/>
+      <c r="K518" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M518" t="n">
         <v>1</v>
       </c>
@@ -18894,8 +19222,14 @@
         <v>0</v>
       </c>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
-      <c r="L519" t="inlineStr"/>
+      <c r="K519" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M519" t="n">
         <v>1</v>
       </c>
@@ -18929,8 +19263,14 @@
         <v>0</v>
       </c>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
-      <c r="L520" t="inlineStr"/>
+      <c r="K520" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M520" t="n">
         <v>1</v>
       </c>
@@ -18964,8 +19304,14 @@
         <v>0</v>
       </c>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
-      <c r="L521" t="inlineStr"/>
+      <c r="K521" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M521" t="n">
         <v>1</v>
       </c>
@@ -18999,8 +19345,14 @@
         <v>0</v>
       </c>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
-      <c r="L522" t="inlineStr"/>
+      <c r="K522" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M522" t="n">
         <v>1</v>
       </c>
@@ -19034,8 +19386,14 @@
         <v>0</v>
       </c>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
-      <c r="L523" t="inlineStr"/>
+      <c r="K523" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M523" t="n">
         <v>1</v>
       </c>
@@ -19069,8 +19427,14 @@
         <v>0</v>
       </c>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
-      <c r="L524" t="inlineStr"/>
+      <c r="K524" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M524" t="n">
         <v>1</v>
       </c>
@@ -19104,8 +19468,14 @@
         <v>0</v>
       </c>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
-      <c r="L525" t="inlineStr"/>
+      <c r="K525" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M525" t="n">
         <v>1</v>
       </c>
@@ -19139,8 +19509,14 @@
         <v>0</v>
       </c>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
-      <c r="L526" t="inlineStr"/>
+      <c r="K526" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M526" t="n">
         <v>1</v>
       </c>
@@ -19174,8 +19550,14 @@
         <v>0</v>
       </c>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
-      <c r="L527" t="inlineStr"/>
+      <c r="K527" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M527" t="n">
         <v>1</v>
       </c>
@@ -19209,8 +19591,14 @@
         <v>0</v>
       </c>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
-      <c r="L528" t="inlineStr"/>
+      <c r="K528" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M528" t="n">
         <v>1</v>
       </c>
@@ -19244,8 +19632,14 @@
         <v>0</v>
       </c>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
-      <c r="L529" t="inlineStr"/>
+      <c r="K529" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M529" t="n">
         <v>1</v>
       </c>
@@ -19279,8 +19673,14 @@
         <v>0</v>
       </c>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
-      <c r="L530" t="inlineStr"/>
+      <c r="K530" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M530" t="n">
         <v>1</v>
       </c>
@@ -19314,8 +19714,14 @@
         <v>0</v>
       </c>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
-      <c r="L531" t="inlineStr"/>
+      <c r="K531" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M531" t="n">
         <v>1</v>
       </c>
@@ -19349,8 +19755,14 @@
         <v>0</v>
       </c>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
-      <c r="L532" t="inlineStr"/>
+      <c r="K532" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M532" t="n">
         <v>1</v>
       </c>
@@ -19384,8 +19796,14 @@
         <v>0</v>
       </c>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
-      <c r="L533" t="inlineStr"/>
+      <c r="K533" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M533" t="n">
         <v>1</v>
       </c>
@@ -19419,8 +19837,14 @@
         <v>0</v>
       </c>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
-      <c r="L534" t="inlineStr"/>
+      <c r="K534" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M534" t="n">
         <v>1</v>
       </c>
@@ -19454,8 +19878,14 @@
         <v>0</v>
       </c>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
-      <c r="L535" t="inlineStr"/>
+      <c r="K535" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M535" t="n">
         <v>1</v>
       </c>
@@ -19489,8 +19919,14 @@
         <v>0</v>
       </c>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
-      <c r="L536" t="inlineStr"/>
+      <c r="K536" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M536" t="n">
         <v>1</v>
       </c>
@@ -19524,8 +19960,14 @@
         <v>0</v>
       </c>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
-      <c r="L537" t="inlineStr"/>
+      <c r="K537" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M537" t="n">
         <v>1</v>
       </c>
@@ -19559,8 +20001,14 @@
         <v>0</v>
       </c>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
-      <c r="L538" t="inlineStr"/>
+      <c r="K538" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M538" t="n">
         <v>1</v>
       </c>
@@ -19594,8 +20042,14 @@
         <v>0</v>
       </c>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
-      <c r="L539" t="inlineStr"/>
+      <c r="K539" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M539" t="n">
         <v>1</v>
       </c>
@@ -19629,8 +20083,14 @@
         <v>0</v>
       </c>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
-      <c r="L540" t="inlineStr"/>
+      <c r="K540" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M540" t="n">
         <v>1</v>
       </c>
@@ -19664,8 +20124,14 @@
         <v>0</v>
       </c>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
-      <c r="L541" t="inlineStr"/>
+      <c r="K541" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M541" t="n">
         <v>1</v>
       </c>
@@ -19699,8 +20165,14 @@
         <v>0</v>
       </c>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
-      <c r="L542" t="inlineStr"/>
+      <c r="K542" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M542" t="n">
         <v>1</v>
       </c>
@@ -19734,8 +20206,14 @@
         <v>0</v>
       </c>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
-      <c r="L543" t="inlineStr"/>
+      <c r="K543" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M543" t="n">
         <v>1</v>
       </c>
@@ -19769,8 +20247,14 @@
         <v>0</v>
       </c>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
-      <c r="L544" t="inlineStr"/>
+      <c r="K544" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M544" t="n">
         <v>1</v>
       </c>
@@ -19804,8 +20288,14 @@
         <v>0</v>
       </c>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
-      <c r="L545" t="inlineStr"/>
+      <c r="K545" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M545" t="n">
         <v>1</v>
       </c>
@@ -19839,8 +20329,14 @@
         <v>0</v>
       </c>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
-      <c r="L546" t="inlineStr"/>
+      <c r="K546" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M546" t="n">
         <v>1</v>
       </c>
@@ -19874,8 +20370,14 @@
         <v>0</v>
       </c>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
-      <c r="L547" t="inlineStr"/>
+      <c r="K547" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M547" t="n">
         <v>1</v>
       </c>
@@ -19909,8 +20411,14 @@
         <v>0</v>
       </c>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
-      <c r="L548" t="inlineStr"/>
+      <c r="K548" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M548" t="n">
         <v>1</v>
       </c>
@@ -19944,8 +20452,14 @@
         <v>0</v>
       </c>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
-      <c r="L549" t="inlineStr"/>
+      <c r="K549" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M549" t="n">
         <v>1</v>
       </c>
@@ -19979,8 +20493,14 @@
         <v>0</v>
       </c>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
-      <c r="L550" t="inlineStr"/>
+      <c r="K550" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M550" t="n">
         <v>1</v>
       </c>
@@ -20014,8 +20534,14 @@
         <v>0</v>
       </c>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
-      <c r="L551" t="inlineStr"/>
+      <c r="K551" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M551" t="n">
         <v>1</v>
       </c>
@@ -20049,8 +20575,14 @@
         <v>0</v>
       </c>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
-      <c r="L552" t="inlineStr"/>
+      <c r="K552" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M552" t="n">
         <v>1</v>
       </c>
@@ -20084,8 +20616,14 @@
         <v>0</v>
       </c>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
-      <c r="L553" t="inlineStr"/>
+      <c r="K553" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M553" t="n">
         <v>1</v>
       </c>
@@ -20119,8 +20657,14 @@
         <v>0</v>
       </c>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
-      <c r="L554" t="inlineStr"/>
+      <c r="K554" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M554" t="n">
         <v>1</v>
       </c>
@@ -20154,8 +20698,14 @@
         <v>0</v>
       </c>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
-      <c r="L555" t="inlineStr"/>
+      <c r="K555" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M555" t="n">
         <v>1</v>
       </c>
@@ -20189,8 +20739,14 @@
         <v>0</v>
       </c>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
-      <c r="L556" t="inlineStr"/>
+      <c r="K556" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M556" t="n">
         <v>1</v>
       </c>
@@ -20224,8 +20780,14 @@
         <v>0</v>
       </c>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
-      <c r="L557" t="inlineStr"/>
+      <c r="K557" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M557" t="n">
         <v>1</v>
       </c>
@@ -20259,8 +20821,14 @@
         <v>0</v>
       </c>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
-      <c r="L558" t="inlineStr"/>
+      <c r="K558" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M558" t="n">
         <v>1</v>
       </c>
@@ -20294,8 +20862,14 @@
         <v>0</v>
       </c>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
-      <c r="L559" t="inlineStr"/>
+      <c r="K559" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M559" t="n">
         <v>1</v>
       </c>
@@ -20329,8 +20903,14 @@
         <v>0</v>
       </c>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
-      <c r="L560" t="inlineStr"/>
+      <c r="K560" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M560" t="n">
         <v>1</v>
       </c>
@@ -20364,8 +20944,14 @@
         <v>0</v>
       </c>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
-      <c r="L561" t="inlineStr"/>
+      <c r="K561" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M561" t="n">
         <v>1</v>
       </c>
@@ -20399,8 +20985,14 @@
         <v>0</v>
       </c>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
-      <c r="L562" t="inlineStr"/>
+      <c r="K562" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M562" t="n">
         <v>1</v>
       </c>
@@ -20434,8 +21026,14 @@
         <v>0</v>
       </c>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
-      <c r="L563" t="inlineStr"/>
+      <c r="K563" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M563" t="n">
         <v>1</v>
       </c>
@@ -20469,8 +21067,14 @@
         <v>0</v>
       </c>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
-      <c r="L564" t="inlineStr"/>
+      <c r="K564" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M564" t="n">
         <v>1</v>
       </c>
@@ -20504,8 +21108,14 @@
         <v>0</v>
       </c>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
-      <c r="L565" t="inlineStr"/>
+      <c r="K565" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M565" t="n">
         <v>1</v>
       </c>
@@ -20539,8 +21149,14 @@
         <v>0</v>
       </c>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
-      <c r="L566" t="inlineStr"/>
+      <c r="K566" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M566" t="n">
         <v>1</v>
       </c>
@@ -20574,8 +21190,14 @@
         <v>0</v>
       </c>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
-      <c r="L567" t="inlineStr"/>
+      <c r="K567" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M567" t="n">
         <v>1</v>
       </c>
@@ -20609,8 +21231,14 @@
         <v>0</v>
       </c>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
-      <c r="L568" t="inlineStr"/>
+      <c r="K568" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M568" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-11-17 BackTest DVP.xlsx
+++ b/BackTest/2019-11-17 BackTest DVP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-1385852.769842204</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-1385852.769842204</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="J3" t="n">
-        <v>9.619999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>-1238586.358042204</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="J4" t="n">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>-1238586.358042204</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="J5" t="n">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,14 +583,10 @@
         <v>-1192671.744742204</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="J6" t="n">
-        <v>9.720000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -640,19 +616,11 @@
         <v>-1083348.702442204</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="J7" t="n">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -681,19 +649,11 @@
         <v>-1083348.702442204</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="J8" t="n">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -722,14 +682,10 @@
         <v>-1083348.702442204</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="J9" t="n">
-        <v>9.800000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -762,14 +718,8 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -801,14 +751,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -1365,10 +1309,14 @@
         <v>-4539232.006442203</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="J28" t="n">
+        <v>9.65</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
@@ -1398,11 +1346,19 @@
         <v>-4539180.006442203</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>9.42</v>
+      </c>
+      <c r="J29" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1431,11 +1387,19 @@
         <v>-4539128.006442203</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>9.59</v>
+      </c>
+      <c r="J30" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1464,17 +1428,11 @@
         <v>-4541211.392642203</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" t="n">
-        <v>9.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1503,7 +1461,7 @@
         <v>-4536658.671942202</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>9.59</v>
@@ -1511,7 +1469,7 @@
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L32" t="n">
@@ -1542,9 +1500,11 @@
         <v>-4536658.671942202</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>9.630000000000001</v>
+      </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
@@ -7129,16 +7089,18 @@
         <v>-116791.099146006</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L184" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
       <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
@@ -7164,11 +7126,15 @@
         <v>-116791.099146006</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7197,11 +7163,15 @@
         <v>-116791.099146006</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7230,11 +7200,15 @@
         <v>-116791.099146006</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7263,11 +7237,15 @@
         <v>-322235.372146006</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7296,11 +7274,15 @@
         <v>-291189.657746006</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7333,7 +7315,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7366,7 +7352,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7399,7 +7389,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7432,7 +7426,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7465,7 +7463,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7498,7 +7500,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7531,7 +7537,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7564,7 +7574,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7597,7 +7611,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7630,7 +7648,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7663,7 +7685,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7696,7 +7722,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7729,7 +7759,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7762,7 +7796,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7795,7 +7833,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7828,7 +7870,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7861,7 +7907,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7894,7 +7944,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7927,7 +7981,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7960,7 +8018,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7993,7 +8055,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8026,7 +8092,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8059,7 +8129,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8092,7 +8166,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8125,7 +8203,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8158,7 +8240,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8191,7 +8277,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8224,7 +8314,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8257,7 +8351,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8290,7 +8388,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8323,7 +8425,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8356,7 +8462,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8389,7 +8499,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8422,7 +8536,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8455,7 +8573,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8488,7 +8610,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8521,7 +8647,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8554,7 +8684,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8587,7 +8721,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8620,7 +8758,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8653,7 +8795,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8686,7 +8832,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8719,7 +8869,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8752,7 +8906,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8785,7 +8943,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8818,7 +8980,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8851,7 +9017,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8884,7 +9054,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8917,7 +9091,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8950,7 +9128,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8983,7 +9165,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9016,7 +9202,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9049,7 +9239,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9082,7 +9276,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9115,7 +9313,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9148,7 +9350,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9181,7 +9387,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9214,7 +9424,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9247,7 +9461,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9280,7 +9498,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9313,7 +9535,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9346,7 +9572,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9379,7 +9609,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9412,7 +9646,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9445,7 +9683,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9478,7 +9720,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9511,7 +9757,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9544,7 +9794,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9577,7 +9831,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9610,7 +9868,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9643,7 +9905,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9676,7 +9942,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9709,7 +9979,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9738,11 +10012,15 @@
         <v>-728114.6094633964</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9775,7 +10053,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9808,7 +10090,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9841,7 +10127,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9874,7 +10164,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9907,7 +10201,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9940,7 +10238,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9973,7 +10275,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10006,7 +10312,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10039,7 +10349,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10072,7 +10386,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10105,7 +10423,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10138,7 +10460,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10171,7 +10497,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10204,7 +10534,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10237,7 +10571,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10270,7 +10608,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10303,7 +10645,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10336,7 +10682,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10369,7 +10719,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10402,7 +10756,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10435,7 +10793,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10468,7 +10830,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10501,7 +10867,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10534,7 +10904,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10567,7 +10941,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10600,7 +10978,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10633,7 +11015,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10666,7 +11052,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10699,7 +11089,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10732,7 +11126,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10765,7 +11163,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10798,7 +11200,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10831,7 +11237,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10860,11 +11270,15 @@
         <v>1746195.660475471</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10897,7 +11311,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10930,7 +11348,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10963,7 +11385,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10996,7 +11422,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11029,7 +11459,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11058,11 +11492,15 @@
         <v>1431562.673575471</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11091,11 +11529,15 @@
         <v>1431562.673575471</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11124,11 +11566,15 @@
         <v>1364560.092775471</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11157,11 +11603,15 @@
         <v>1364560.092775471</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11194,7 +11644,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11223,14 +11677,16 @@
         <v>1432955.570875471</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L308" t="inlineStr"/>
       <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
@@ -11256,7 +11712,7 @@
         <v>1176124.533175471</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11289,7 +11745,7 @@
         <v>1176124.533175471</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11322,7 +11778,7 @@
         <v>1176124.533175471</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11355,7 +11811,7 @@
         <v>1342132.224629569</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11388,7 +11844,7 @@
         <v>1342132.224629569</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11454,7 +11910,7 @@
         <v>833174.8199295694</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11487,7 +11943,7 @@
         <v>844008.7973295694</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11520,7 +11976,7 @@
         <v>844008.7973295694</v>
       </c>
       <c r="H317" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11553,7 +12009,7 @@
         <v>719484.4299295694</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11586,7 +12042,7 @@
         <v>1161862.257029569</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11619,7 +12075,7 @@
         <v>1161862.257029569</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11652,7 +12108,7 @@
         <v>1163234.395829569</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11685,7 +12141,7 @@
         <v>1089998.996718826</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11718,7 +12174,7 @@
         <v>1012716.882318826</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11751,7 +12207,7 @@
         <v>1524181.801218826</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11784,7 +12240,7 @@
         <v>1549069.697518826</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11817,7 +12273,7 @@
         <v>1549069.697518826</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11850,7 +12306,7 @@
         <v>1549069.697518826</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11883,7 +12339,7 @@
         <v>1554269.697518826</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12015,7 +12471,7 @@
         <v>1411874.467118826</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12081,7 +12537,7 @@
         <v>1444303.933718825</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12114,7 +12570,7 @@
         <v>1482360.760318825</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12147,7 +12603,7 @@
         <v>1482360.760318825</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12180,7 +12636,7 @@
         <v>1482360.760318825</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12213,7 +12669,7 @@
         <v>1482360.760318825</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12279,7 +12735,7 @@
         <v>1441213.503318826</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12312,7 +12768,7 @@
         <v>1441213.503318826</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12345,7 +12801,7 @@
         <v>800510.3657188255</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12378,7 +12834,7 @@
         <v>840274.2330188255</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12411,7 +12867,7 @@
         <v>952673.9809188255</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12444,7 +12900,7 @@
         <v>1122763.518918826</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12477,7 +12933,7 @@
         <v>1322122.494918826</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12510,7 +12966,7 @@
         <v>1321087.729618825</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12543,7 +12999,7 @@
         <v>1321087.729618825</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12576,7 +13032,7 @@
         <v>1321087.729618825</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12642,7 +13098,7 @@
         <v>1325767.275318826</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12675,7 +13131,7 @@
         <v>1322780.178118826</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12708,7 +13164,7 @@
         <v>1844191.885641688</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12741,7 +13197,7 @@
         <v>1844191.885641688</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12774,7 +13230,7 @@
         <v>1844191.885641688</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12807,7 +13263,7 @@
         <v>2124637.065408082</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12873,7 +13329,7 @@
         <v>2217181.145908082</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12906,7 +13362,7 @@
         <v>2193286.739308082</v>
       </c>
       <c r="H359" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12939,7 +13395,7 @@
         <v>2186626.710008082</v>
       </c>
       <c r="H360" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12972,7 +13428,7 @@
         <v>2186714.710008082</v>
       </c>
       <c r="H361" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13005,7 +13461,7 @@
         <v>2186714.710008082</v>
       </c>
       <c r="H362" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13038,7 +13494,7 @@
         <v>2011979.012108082</v>
       </c>
       <c r="H363" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13071,7 +13527,7 @@
         <v>1909736.439108082</v>
       </c>
       <c r="H364" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13104,7 +13560,7 @@
         <v>1909736.439108082</v>
       </c>
       <c r="H365" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13203,7 +13659,7 @@
         <v>1707653.370508082</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13236,7 +13692,7 @@
         <v>1707653.370508082</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13269,7 +13725,7 @@
         <v>1707653.370508082</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13302,7 +13758,7 @@
         <v>1707653.370508082</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13335,7 +13791,7 @@
         <v>1670211.203208082</v>
       </c>
       <c r="H372" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13368,7 +13824,7 @@
         <v>1670211.203208082</v>
       </c>
       <c r="H373" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13401,7 +13857,7 @@
         <v>1670211.203208082</v>
       </c>
       <c r="H374" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13434,7 +13890,7 @@
         <v>1670211.203208082</v>
       </c>
       <c r="H375" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13467,7 +13923,7 @@
         <v>1670211.203208082</v>
       </c>
       <c r="H376" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13500,7 +13956,7 @@
         <v>1670211.203208082</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13533,7 +13989,7 @@
         <v>1670211.203208082</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13566,7 +14022,7 @@
         <v>1489658.685108082</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13599,7 +14055,7 @@
         <v>1545962.256608082</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13632,7 +14088,7 @@
         <v>1545962.256608082</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13665,7 +14121,7 @@
         <v>1560176.638208082</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13698,7 +14154,7 @@
         <v>1560176.638208082</v>
       </c>
       <c r="H383" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13731,7 +14187,7 @@
         <v>1638476.638208082</v>
       </c>
       <c r="H384" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13764,7 +14220,7 @@
         <v>1571179.139108082</v>
       </c>
       <c r="H385" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14061,7 +14517,7 @@
         <v>581013.3409080822</v>
       </c>
       <c r="H394" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14127,7 +14583,7 @@
         <v>-510744.8242919178</v>
       </c>
       <c r="H396" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14160,7 +14616,7 @@
         <v>-510744.8242919178</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14193,7 +14649,7 @@
         <v>-510744.8242919178</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14226,7 +14682,7 @@
         <v>-841594.2048919178</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14259,7 +14715,7 @@
         <v>-1192139.791691918</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14292,7 +14748,7 @@
         <v>-1166056.727891918</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14325,7 +14781,7 @@
         <v>-1051169.965191918</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14358,7 +14814,7 @@
         <v>-1051169.965191918</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14391,7 +14847,7 @@
         <v>-1051169.965191918</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14424,7 +14880,7 @@
         <v>-1051169.965191918</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14457,7 +14913,7 @@
         <v>-1051169.965191918</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14490,7 +14946,7 @@
         <v>-1051169.965191918</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14523,7 +14979,7 @@
         <v>-1051169.965191918</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14556,7 +15012,7 @@
         <v>-1051169.965191918</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14589,7 +15045,7 @@
         <v>-1175600.153091918</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14622,7 +15078,7 @@
         <v>-1079905.873391918</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14655,7 +15111,7 @@
         <v>-1157111.153891918</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14688,7 +15144,7 @@
         <v>-1156967.153891918</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14721,7 +15177,7 @@
         <v>-1176106.153891918</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14754,7 +15210,7 @@
         <v>-1176106.153891918</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14787,7 +15243,7 @@
         <v>-1176106.153891918</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14820,7 +15276,7 @@
         <v>-1176106.153891918</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14853,7 +15309,7 @@
         <v>-1176062.153891918</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14886,7 +15342,7 @@
         <v>-1176062.153891918</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14919,7 +15375,7 @@
         <v>-1176062.153891918</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14952,7 +15408,7 @@
         <v>-1243311.514491918</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -22091,6 +22547,6 @@
       <c r="M637" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-17 BackTest DVP.xlsx
+++ b/BackTest/2019-11-17 BackTest DVP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -979,10 +979,14 @@
         <v>-885281.5072422039</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="J18" t="n">
+        <v>9.52</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
@@ -1015,8 +1019,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1058,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1309,14 +1325,10 @@
         <v>-4539232.006442203</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="J28" t="n">
-        <v>9.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
@@ -1346,19 +1358,11 @@
         <v>-4539180.006442203</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>9.42</v>
-      </c>
-      <c r="J29" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1387,19 +1391,11 @@
         <v>-4539128.006442203</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>9.59</v>
-      </c>
-      <c r="J30" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1461,1055 +1457,959 @@
         <v>-4536658.671942202</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>9.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="C33" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="D33" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="E33" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="F33" t="n">
+        <v>15074.05</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-4536658.671942202</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="C34" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="D34" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="E34" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="F34" t="n">
+        <v>52</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-4536606.671942202</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="C35" t="n">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="D35" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="E35" t="n">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="F35" t="n">
+        <v>18643.8692</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-4555250.541142202</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="C36" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="D36" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="E36" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="F36" t="n">
+        <v>52</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-4555198.541142202</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="C37" t="n">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="D37" t="n">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="E37" t="n">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="F37" t="n">
+        <v>339.038</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-4555537.579142202</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="C38" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="D38" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="E38" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="F38" t="n">
+        <v>16000</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-4539537.579142202</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="C39" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="D39" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="E39" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="F39" t="n">
+        <v>328.1175</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-4539537.579142202</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="J39" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="C40" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="D40" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="E40" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="F40" t="n">
+        <v>52</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-4539485.579142202</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="J40" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="C41" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="D41" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="E41" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1046.5414</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-4539485.579142202</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>9.66</v>
+      </c>
+      <c r="C42" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="D42" t="n">
+        <v>9.66</v>
+      </c>
+      <c r="E42" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="F42" t="n">
+        <v>39216.0496</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-4578701.628742201</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="C43" t="n">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="D43" t="n">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="E43" t="n">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2400</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-4581101.628742201</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="C44" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="D44" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="E44" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2400</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-4578701.628742201</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="C45" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="D45" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="E45" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="F45" t="n">
+        <v>52</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-4578649.628742201</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="C46" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="D46" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="E46" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="F46" t="n">
+        <v>29096.2494</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-4549553.379342201</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="C47" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="D47" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="E47" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="F47" t="n">
+        <v>75078.5644</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-4474474.814942202</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="C48" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="D48" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="E48" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="F48" t="n">
+        <v>5847.9304</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-4468626.884542202</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="C49" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="D49" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="E49" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2523.9681</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-4468626.884542202</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="C50" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="D50" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="E50" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="F50" t="n">
+        <v>43119.2014</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-4511746.085942201</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="C51" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="D51" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="E51" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="F51" t="n">
+        <v>66593.605</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-4445152.480942201</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="C52" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="D52" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="E52" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="F52" t="n">
+        <v>51</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-4445152.480942201</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="C53" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="D53" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="E53" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="F53" t="n">
+        <v>214967.0011</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-4230185.479842201</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="C54" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="D54" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="E54" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2864.429</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-4230185.479842201</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="C55" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="D55" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="E55" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="F55" t="n">
+        <v>390988.6269</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-4230185.479842201</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="C56" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="D56" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="E56" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="F56" t="n">
+        <v>46152.7521</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-4184032.727742201</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="C57" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="D57" t="n">
+        <v>9.92</v>
+      </c>
+      <c r="E57" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="F57" t="n">
+        <v>495105.8642</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-4184032.727742201</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="C58" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="D58" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="E58" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="F58" t="n">
+        <v>627523.0435</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-4811555.7712422</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="C59" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="D59" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="E59" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2506.1215</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-4814061.892742201</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="C60" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="D60" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="E60" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="F60" t="n">
+        <v>78387.5665</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-4892449.4592422</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="C33" t="n">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="D33" t="n">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="E33" t="n">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="F33" t="n">
-        <v>15074.05</v>
-      </c>
-      <c r="G33" t="n">
-        <v>-4536658.671942202</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="C34" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="D34" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="E34" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="F34" t="n">
-        <v>52</v>
-      </c>
-      <c r="G34" t="n">
-        <v>-4536606.671942202</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>9.56</v>
-      </c>
-      <c r="C35" t="n">
-        <v>9.529999999999999</v>
-      </c>
-      <c r="D35" t="n">
-        <v>9.56</v>
-      </c>
-      <c r="E35" t="n">
-        <v>9.529999999999999</v>
-      </c>
-      <c r="F35" t="n">
-        <v>18643.8692</v>
-      </c>
-      <c r="G35" t="n">
-        <v>-4555250.541142202</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="C36" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="D36" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="E36" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="F36" t="n">
-        <v>52</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-4555198.541142202</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="C37" t="n">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="D37" t="n">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="E37" t="n">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="F37" t="n">
-        <v>339.038</v>
-      </c>
-      <c r="G37" t="n">
-        <v>-4555537.579142202</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="C38" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="D38" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="E38" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="F38" t="n">
-        <v>16000</v>
-      </c>
-      <c r="G38" t="n">
-        <v>-4539537.579142202</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="C39" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="D39" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="E39" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="F39" t="n">
-        <v>328.1175</v>
-      </c>
-      <c r="G39" t="n">
-        <v>-4539537.579142202</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>9.67</v>
-      </c>
-      <c r="C40" t="n">
-        <v>9.67</v>
-      </c>
-      <c r="D40" t="n">
-        <v>9.67</v>
-      </c>
-      <c r="E40" t="n">
-        <v>9.67</v>
-      </c>
-      <c r="F40" t="n">
-        <v>52</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-4539485.579142202</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>9.67</v>
-      </c>
-      <c r="C41" t="n">
-        <v>9.67</v>
-      </c>
-      <c r="D41" t="n">
-        <v>9.67</v>
-      </c>
-      <c r="E41" t="n">
-        <v>9.67</v>
-      </c>
-      <c r="F41" t="n">
-        <v>1046.5414</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-4539485.579142202</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>9.66</v>
-      </c>
-      <c r="C42" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="D42" t="n">
-        <v>9.66</v>
-      </c>
-      <c r="E42" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="F42" t="n">
-        <v>39216.0496</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-4578701.628742201</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="C43" t="n">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="D43" t="n">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="E43" t="n">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="F43" t="n">
-        <v>2400</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-4581101.628742201</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>9.74</v>
-      </c>
-      <c r="C44" t="n">
-        <v>9.74</v>
-      </c>
-      <c r="D44" t="n">
-        <v>9.74</v>
-      </c>
-      <c r="E44" t="n">
-        <v>9.74</v>
-      </c>
-      <c r="F44" t="n">
-        <v>2400</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-4578701.628742201</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="C45" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="D45" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="E45" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="F45" t="n">
-        <v>52</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-4578649.628742201</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="C46" t="n">
-        <v>9.85</v>
-      </c>
-      <c r="D46" t="n">
-        <v>9.85</v>
-      </c>
-      <c r="E46" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="F46" t="n">
-        <v>29096.2494</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-4549553.379342201</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>9.85</v>
-      </c>
-      <c r="C47" t="n">
-        <v>9.869999999999999</v>
-      </c>
-      <c r="D47" t="n">
-        <v>9.869999999999999</v>
-      </c>
-      <c r="E47" t="n">
-        <v>9.84</v>
-      </c>
-      <c r="F47" t="n">
-        <v>75078.5644</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-4474474.814942202</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>9.869999999999999</v>
-      </c>
-      <c r="C48" t="n">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="D48" t="n">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="E48" t="n">
-        <v>9.869999999999999</v>
-      </c>
-      <c r="F48" t="n">
-        <v>5847.9304</v>
-      </c>
-      <c r="G48" t="n">
-        <v>-4468626.884542202</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="C49" t="n">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="D49" t="n">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="E49" t="n">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="F49" t="n">
-        <v>2523.9681</v>
-      </c>
-      <c r="G49" t="n">
-        <v>-4468626.884542202</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="C50" t="n">
-        <v>9.84</v>
-      </c>
-      <c r="D50" t="n">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="E50" t="n">
-        <v>9.84</v>
-      </c>
-      <c r="F50" t="n">
-        <v>43119.2014</v>
-      </c>
-      <c r="G50" t="n">
-        <v>-4511746.085942201</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="C51" t="n">
-        <v>9.869999999999999</v>
-      </c>
-      <c r="D51" t="n">
-        <v>9.869999999999999</v>
-      </c>
-      <c r="E51" t="n">
-        <v>9.74</v>
-      </c>
-      <c r="F51" t="n">
-        <v>66593.605</v>
-      </c>
-      <c r="G51" t="n">
-        <v>-4445152.480942201</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>9.869999999999999</v>
-      </c>
-      <c r="C52" t="n">
-        <v>9.869999999999999</v>
-      </c>
-      <c r="D52" t="n">
-        <v>9.869999999999999</v>
-      </c>
-      <c r="E52" t="n">
-        <v>9.869999999999999</v>
-      </c>
-      <c r="F52" t="n">
-        <v>51</v>
-      </c>
-      <c r="G52" t="n">
-        <v>-4445152.480942201</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>9.869999999999999</v>
-      </c>
-      <c r="C53" t="n">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="D53" t="n">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="E53" t="n">
-        <v>9.869999999999999</v>
-      </c>
-      <c r="F53" t="n">
-        <v>214967.0011</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-4230185.479842201</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="C54" t="n">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="D54" t="n">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="E54" t="n">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="F54" t="n">
-        <v>2864.429</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-4230185.479842201</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="C55" t="n">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="D55" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="E55" t="n">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="F55" t="n">
-        <v>390988.6269</v>
-      </c>
-      <c r="G55" t="n">
-        <v>-4230185.479842201</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="C56" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="D56" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="E56" t="n">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="F56" t="n">
-        <v>46152.7521</v>
-      </c>
-      <c r="G56" t="n">
-        <v>-4184032.727742201</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="C57" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="D57" t="n">
-        <v>9.92</v>
-      </c>
-      <c r="E57" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="F57" t="n">
-        <v>495105.8642</v>
-      </c>
-      <c r="G57" t="n">
-        <v>-4184032.727742201</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>9.91</v>
-      </c>
-      <c r="C58" t="n">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="D58" t="n">
-        <v>9.949999999999999</v>
-      </c>
-      <c r="E58" t="n">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="F58" t="n">
-        <v>627523.0435</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-4811555.7712422</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="C59" t="n">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="D59" t="n">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="E59" t="n">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="F59" t="n">
-        <v>2506.1215</v>
-      </c>
-      <c r="G59" t="n">
-        <v>-4814061.892742201</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="C60" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="D60" t="n">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="E60" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="F60" t="n">
-        <v>78387.5665</v>
-      </c>
-      <c r="G60" t="n">
-        <v>-4892449.4592422</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2538,9 +2438,11 @@
         <v>-4892017.8031422</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>9.77</v>
+      </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
@@ -2575,9 +2477,11 @@
         <v>-4888609.9052422</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>9.789999999999999</v>
+      </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
@@ -2612,9 +2516,11 @@
         <v>-4450484.7298422</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>9.880000000000001</v>
+      </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
@@ -2649,9 +2555,11 @@
         <v>-4450484.7298422</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>9.890000000000001</v>
+      </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
@@ -2982,9 +2890,11 @@
         <v>-1332068.360242201</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>10</v>
+      </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
@@ -3093,9 +3003,11 @@
         <v>-1267070.894342201</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>10.3</v>
+      </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
@@ -3722,18 +3634,16 @@
         <v>-2092378.795242201</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
@@ -3763,11 +3673,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3800,11 +3706,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3837,11 +3739,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3874,11 +3772,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3911,11 +3805,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3948,11 +3838,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3985,11 +3871,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4022,11 +3904,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4059,11 +3937,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4096,11 +3970,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4133,11 +4003,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4170,11 +4036,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4207,11 +4069,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4244,11 +4102,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4281,11 +4135,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4318,11 +4168,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4355,11 +4201,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4392,11 +4234,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4429,11 +4267,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4466,11 +4300,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4503,11 +4333,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4540,11 +4366,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4577,11 +4399,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4614,11 +4432,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4651,11 +4465,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4688,11 +4498,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4725,11 +4531,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4762,11 +4564,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4799,11 +4597,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4836,11 +4630,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4873,11 +4663,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4910,11 +4696,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4947,11 +4729,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4984,11 +4762,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5021,11 +4795,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5058,11 +4828,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5095,11 +4861,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5132,11 +4894,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5169,11 +4927,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5206,11 +4960,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5243,11 +4993,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5280,11 +5026,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5317,11 +5059,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5354,11 +5092,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5391,11 +5125,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5424,15 +5154,11 @@
         <v>640522.2105814398</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5461,15 +5187,11 @@
         <v>818072.5497902894</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5498,15 +5220,11 @@
         <v>1314840.174708304</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5535,15 +5253,11 @@
         <v>1018425.843553994</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5572,15 +5286,11 @@
         <v>1096316.217553994</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5609,15 +5319,11 @@
         <v>1096316.217553994</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5646,15 +5352,11 @@
         <v>283558.9471539941</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5683,15 +5385,11 @@
         <v>139357.4224539941</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5720,15 +5418,11 @@
         <v>139357.4224539941</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5757,15 +5451,11 @@
         <v>239921.0383539941</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5794,15 +5484,11 @@
         <v>239921.0383539941</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5831,15 +5517,11 @@
         <v>239921.0383539941</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5868,15 +5550,11 @@
         <v>239921.0383539941</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5905,15 +5583,11 @@
         <v>204488.0736539941</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5942,15 +5616,11 @@
         <v>204488.0736539941</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5979,15 +5649,11 @@
         <v>204488.0736539941</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6016,15 +5682,11 @@
         <v>204488.0736539941</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6053,15 +5715,11 @@
         <v>74941.41035399413</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6090,15 +5748,11 @@
         <v>194856.0495539941</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6127,15 +5781,11 @@
         <v>194856.0495539941</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6164,15 +5814,11 @@
         <v>197857.6612539942</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6201,15 +5847,11 @@
         <v>129152.6973539942</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6238,15 +5880,11 @@
         <v>388431.9046539941</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6275,15 +5913,11 @@
         <v>248322.1686539941</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6312,15 +5946,11 @@
         <v>248322.1686539941</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6349,15 +5979,11 @@
         <v>248322.1686539941</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6386,15 +6012,11 @@
         <v>248322.1686539941</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6423,15 +6045,11 @@
         <v>872948.3652539941</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6460,15 +6078,11 @@
         <v>872948.3652539941</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6497,15 +6111,11 @@
         <v>698250.6652539941</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6534,15 +6144,11 @@
         <v>767851.5887539941</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6575,11 +6181,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6612,11 +6214,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6649,11 +6247,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6686,11 +6280,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6723,11 +6313,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6760,11 +6346,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6797,11 +6379,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6834,11 +6412,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6871,11 +6445,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6908,11 +6478,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6945,11 +6511,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6982,11 +6544,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7019,11 +6577,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7056,11 +6610,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7093,11 +6643,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7130,11 +6676,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7167,11 +6709,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7204,11 +6742,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7241,11 +6775,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7278,11 +6808,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7315,11 +6841,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7352,11 +6874,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7389,11 +6907,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7426,11 +6940,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7463,11 +6973,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7500,11 +7006,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7537,11 +7039,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7574,11 +7072,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7611,11 +7105,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7648,11 +7138,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7685,11 +7171,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7722,11 +7204,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7759,11 +7237,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7796,11 +7270,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7833,11 +7303,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7870,11 +7336,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7907,11 +7369,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7944,11 +7402,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7981,11 +7435,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8018,11 +7468,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8055,11 +7501,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8092,11 +7534,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8129,11 +7567,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8166,11 +7600,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8203,11 +7633,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8240,11 +7666,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8277,11 +7699,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8314,11 +7732,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8351,11 +7765,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8388,11 +7798,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8425,11 +7831,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8462,11 +7864,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8499,11 +7897,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8536,11 +7930,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8573,11 +7963,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8610,11 +7996,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8647,11 +8029,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8684,11 +8062,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8721,11 +8095,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8758,11 +8128,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8795,11 +8161,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8832,11 +8194,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8869,11 +8227,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8906,11 +8260,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8943,11 +8293,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8980,11 +8326,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9017,11 +8359,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9054,11 +8392,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9091,11 +8425,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9128,11 +8458,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9165,11 +8491,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9202,11 +8524,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9239,11 +8557,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9276,11 +8590,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9313,11 +8623,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9350,11 +8656,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9387,11 +8689,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9424,11 +8722,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9461,11 +8755,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9498,11 +8788,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9535,11 +8821,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9572,11 +8854,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9609,11 +8887,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9646,11 +8920,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9683,11 +8953,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9720,11 +8986,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9757,11 +9019,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9794,11 +9052,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9831,11 +9085,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9868,11 +9118,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9905,11 +9151,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9942,11 +9184,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9979,11 +9217,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10016,11 +9250,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10053,11 +9283,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10090,11 +9316,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10127,11 +9349,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10164,11 +9382,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10201,11 +9415,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10238,11 +9448,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10275,11 +9481,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10312,11 +9514,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10349,11 +9547,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10386,11 +9580,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10423,11 +9613,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10460,11 +9646,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10497,11 +9679,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10534,11 +9712,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10571,11 +9745,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10608,11 +9778,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10645,11 +9811,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10682,11 +9844,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10719,11 +9877,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10756,11 +9910,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10793,11 +9943,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10826,15 +9972,11 @@
         <v>-1523907.540803397</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10863,15 +10005,11 @@
         <v>-1523907.540803397</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10900,15 +10038,11 @@
         <v>-1633681.666568883</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10937,15 +10071,11 @@
         <v>-1628035.29863437</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10978,11 +10108,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11015,11 +10141,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11052,11 +10174,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11089,11 +10207,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11126,11 +10240,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11163,11 +10273,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11200,11 +10306,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11237,11 +10339,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11274,11 +10372,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11311,11 +10405,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11348,11 +10438,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11385,11 +10471,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11422,11 +10504,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11459,11 +10537,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11496,11 +10570,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11533,11 +10603,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11570,11 +10636,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11607,11 +10669,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11644,11 +10702,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11677,16 +10731,14 @@
         <v>1432955.570875471</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
       <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
@@ -11745,7 +10797,7 @@
         <v>1176124.533175471</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11811,7 +10863,7 @@
         <v>1342132.224629569</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11844,7 +10896,7 @@
         <v>1342132.224629569</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11910,7 +10962,7 @@
         <v>833174.8199295694</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11943,7 +10995,7 @@
         <v>844008.7973295694</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11976,7 +11028,7 @@
         <v>844008.7973295694</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -12009,7 +11061,7 @@
         <v>719484.4299295694</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -12042,7 +11094,7 @@
         <v>1161862.257029569</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12075,7 +11127,7 @@
         <v>1161862.257029569</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12108,7 +11160,7 @@
         <v>1163234.395829569</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12141,7 +11193,7 @@
         <v>1089998.996718826</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12174,7 +11226,7 @@
         <v>1012716.882318826</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12207,7 +11259,7 @@
         <v>1524181.801218826</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12240,7 +11292,7 @@
         <v>1549069.697518826</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12273,7 +11325,7 @@
         <v>1549069.697518826</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12306,7 +11358,7 @@
         <v>1549069.697518826</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12570,7 +11622,7 @@
         <v>1482360.760318825</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12603,7 +11655,7 @@
         <v>1482360.760318825</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12636,7 +11688,7 @@
         <v>1482360.760318825</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12669,7 +11721,7 @@
         <v>1482360.760318825</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12735,7 +11787,7 @@
         <v>1441213.503318826</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12768,7 +11820,7 @@
         <v>1441213.503318826</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12801,7 +11853,7 @@
         <v>800510.3657188255</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12834,7 +11886,7 @@
         <v>840274.2330188255</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12867,7 +11919,7 @@
         <v>952673.9809188255</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12900,7 +11952,7 @@
         <v>1122763.518918826</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12933,7 +11985,7 @@
         <v>1322122.494918826</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12966,7 +12018,7 @@
         <v>1321087.729618825</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12999,7 +12051,7 @@
         <v>1321087.729618825</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13032,7 +12084,7 @@
         <v>1321087.729618825</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13098,7 +12150,7 @@
         <v>1325767.275318826</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13131,7 +12183,7 @@
         <v>1322780.178118826</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13164,7 +12216,7 @@
         <v>1844191.885641688</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13197,7 +12249,7 @@
         <v>1844191.885641688</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13230,7 +12282,7 @@
         <v>1844191.885641688</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13263,7 +12315,7 @@
         <v>2124637.065408082</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13329,7 +12381,7 @@
         <v>2217181.145908082</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13494,7 +12546,7 @@
         <v>2011979.012108082</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13560,7 +12612,7 @@
         <v>1909736.439108082</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13659,7 +12711,7 @@
         <v>1707653.370508082</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13692,7 +12744,7 @@
         <v>1707653.370508082</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13725,7 +12777,7 @@
         <v>1707653.370508082</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13758,7 +12810,7 @@
         <v>1707653.370508082</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13791,7 +12843,7 @@
         <v>1670211.203208082</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13824,7 +12876,7 @@
         <v>1670211.203208082</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13857,7 +12909,7 @@
         <v>1670211.203208082</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13890,7 +12942,7 @@
         <v>1670211.203208082</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13923,7 +12975,7 @@
         <v>1670211.203208082</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13956,7 +13008,7 @@
         <v>1670211.203208082</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13989,7 +13041,7 @@
         <v>1670211.203208082</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -14022,7 +13074,7 @@
         <v>1489658.685108082</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14055,7 +13107,7 @@
         <v>1545962.256608082</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -14088,7 +13140,7 @@
         <v>1545962.256608082</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14121,7 +13173,7 @@
         <v>1560176.638208082</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -14154,7 +13206,7 @@
         <v>1560176.638208082</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14187,7 +13239,7 @@
         <v>1638476.638208082</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14220,7 +13272,7 @@
         <v>1571179.139108082</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14583,7 +13635,7 @@
         <v>-510744.8242919178</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14616,7 +13668,7 @@
         <v>-510744.8242919178</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14649,7 +13701,7 @@
         <v>-510744.8242919178</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14682,7 +13734,7 @@
         <v>-841594.2048919178</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14715,7 +13767,7 @@
         <v>-1192139.791691918</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14748,7 +13800,7 @@
         <v>-1166056.727891918</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14781,7 +13833,7 @@
         <v>-1051169.965191918</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14814,7 +13866,7 @@
         <v>-1051169.965191918</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14847,7 +13899,7 @@
         <v>-1051169.965191918</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14880,7 +13932,7 @@
         <v>-1051169.965191918</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14913,7 +13965,7 @@
         <v>-1051169.965191918</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14946,7 +13998,7 @@
         <v>-1051169.965191918</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14979,7 +14031,7 @@
         <v>-1051169.965191918</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -15012,7 +14064,7 @@
         <v>-1051169.965191918</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -15045,7 +14097,7 @@
         <v>-1175600.153091918</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -15078,7 +14130,7 @@
         <v>-1079905.873391918</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -15111,7 +14163,7 @@
         <v>-1157111.153891918</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15144,7 +14196,7 @@
         <v>-1156967.153891918</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15177,7 +14229,7 @@
         <v>-1176106.153891918</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -15210,7 +14262,7 @@
         <v>-1176106.153891918</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -15243,7 +14295,7 @@
         <v>-1176106.153891918</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -15276,7 +14328,7 @@
         <v>-1176106.153891918</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15309,7 +14361,7 @@
         <v>-1176062.153891918</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15342,7 +14394,7 @@
         <v>-1176062.153891918</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15375,7 +14427,7 @@
         <v>-1176062.153891918</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15408,7 +14460,7 @@
         <v>-1243311.514491918</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -22239,11 +21291,17 @@
         <v>-4802675.494038749</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
-      </c>
-      <c r="I628" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I628" t="n">
+        <v>10.7</v>
+      </c>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -22272,11 +21330,17 @@
         <v>-4802675.494038749</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
-      </c>
-      <c r="I629" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I629" t="n">
+        <v>10.8</v>
+      </c>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -22305,11 +21369,17 @@
         <v>-4843248.402538749</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
-      </c>
-      <c r="I630" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I630" t="n">
+        <v>10.8</v>
+      </c>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -22338,11 +21408,17 @@
         <v>-4843248.402538749</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
-      </c>
-      <c r="I631" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I631" t="n">
+        <v>10.7</v>
+      </c>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -22371,11 +21447,17 @@
         <v>-4843248.402538749</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
-      </c>
-      <c r="I632" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I632" t="n">
+        <v>10.7</v>
+      </c>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -22404,11 +21486,17 @@
         <v>-4843248.402538749</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
-      </c>
-      <c r="I633" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I633" t="n">
+        <v>10.7</v>
+      </c>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -22437,11 +21525,17 @@
         <v>-4843248.402538749</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
-      </c>
-      <c r="I634" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I634" t="n">
+        <v>10.7</v>
+      </c>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -22470,11 +21564,17 @@
         <v>-4829231.060038749</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
-      </c>
-      <c r="I635" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I635" t="n">
+        <v>10.7</v>
+      </c>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22503,11 +21603,17 @@
         <v>-3617534.571038749</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
-      </c>
-      <c r="I636" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I636" t="n">
+        <v>10.8</v>
+      </c>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22536,17 +21642,23 @@
         <v>-3617534.571038749</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
-      </c>
-      <c r="I637" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I637" t="n">
+        <v>10.9</v>
+      </c>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
       <c r="M637" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-17 BackTest DVP.xlsx
+++ b/BackTest/2019-11-17 BackTest DVP.xlsx
@@ -979,14 +979,10 @@
         <v>-885281.5072422039</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="J18" t="n">
-        <v>9.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
@@ -1019,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1058,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1688,14 +1672,10 @@
         <v>-4539537.579142202</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="J39" t="n">
-        <v>9.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
@@ -1725,19 +1705,11 @@
         <v>-4539485.579142202</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="J40" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1769,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1805,11 +1771,17 @@
         <v>-4578701.628742201</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>9.67</v>
+      </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1838,11 +1810,17 @@
         <v>-4581101.628742201</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>9.65</v>
+      </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1871,11 +1849,17 @@
         <v>-4578701.628742201</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>9.619999999999999</v>
+      </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1904,11 +1888,17 @@
         <v>-4578649.628742201</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>9.74</v>
+      </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1937,11 +1927,17 @@
         <v>-4549553.379342201</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>9.75</v>
+      </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1970,11 +1966,17 @@
         <v>-4474474.814942202</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>9.85</v>
+      </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2003,11 +2005,17 @@
         <v>-4468626.884542202</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>9.869999999999999</v>
+      </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2036,11 +2044,17 @@
         <v>-4468626.884542202</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>9.880000000000001</v>
+      </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2069,11 +2083,17 @@
         <v>-4511746.085942201</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>9.880000000000001</v>
+      </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2102,11 +2122,17 @@
         <v>-4445152.480942201</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>9.84</v>
+      </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2135,11 +2161,17 @@
         <v>-4445152.480942201</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>9.869999999999999</v>
+      </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2168,11 +2200,17 @@
         <v>-4230185.479842201</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>9.869999999999999</v>
+      </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2201,11 +2239,17 @@
         <v>-4230185.479842201</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>9.880000000000001</v>
+      </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2234,11 +2278,17 @@
         <v>-4230185.479842201</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>9.880000000000001</v>
+      </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2267,11 +2317,17 @@
         <v>-4184032.727742201</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>9.880000000000001</v>
+      </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2300,11 +2356,17 @@
         <v>-4184032.727742201</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>9.9</v>
+      </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2337,7 +2399,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2366,11 +2432,17 @@
         <v>-4814061.892742201</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>9.880000000000001</v>
+      </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2399,15 +2471,13 @@
         <v>-4892449.4592422</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>9.779999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L60" t="n">
@@ -2555,11 +2625,9 @@
         <v>-4450484.7298422</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>9.890000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
@@ -2594,9 +2662,11 @@
         <v>-4426321.5504422</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>9.890000000000001</v>
+      </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
@@ -2631,9 +2701,11 @@
         <v>-3624155.9686422</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>9.9</v>
+      </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
@@ -2668,9 +2740,11 @@
         <v>-1860504.4517422</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>9.949999999999999</v>
+      </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
@@ -2705,9 +2779,11 @@
         <v>-1860504.4517422</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>10</v>
+      </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
@@ -2890,11 +2966,9 @@
         <v>-1332068.360242201</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
@@ -3003,11 +3077,9 @@
         <v>-1267070.894342201</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>10.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
@@ -3634,16 +3706,18 @@
         <v>-2092378.795242201</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
       <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
@@ -3673,7 +3747,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3706,7 +3784,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3739,7 +3821,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3772,7 +3858,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3805,7 +3895,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3838,7 +3932,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3871,7 +3969,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3904,7 +4006,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3937,7 +4043,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3970,7 +4080,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4003,7 +4117,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4036,7 +4154,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4069,7 +4191,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4102,7 +4228,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4135,7 +4265,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4168,7 +4302,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4201,7 +4339,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4234,7 +4376,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4267,7 +4413,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4300,7 +4450,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4333,7 +4487,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4366,7 +4524,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4399,7 +4561,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4432,7 +4598,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4465,7 +4635,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4498,7 +4672,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4531,7 +4709,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4564,7 +4746,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4597,7 +4783,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4630,7 +4820,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4663,7 +4857,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4696,7 +4894,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4729,7 +4931,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4762,7 +4968,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4795,7 +5005,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4828,7 +5042,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4861,7 +5079,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4894,7 +5116,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4927,7 +5153,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4960,7 +5190,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4993,7 +5227,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5026,7 +5264,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5059,7 +5301,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5092,7 +5338,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5125,7 +5375,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5154,11 +5408,15 @@
         <v>640522.2105814398</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5187,11 +5445,15 @@
         <v>818072.5497902894</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5220,11 +5482,15 @@
         <v>1314840.174708304</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5253,11 +5519,15 @@
         <v>1018425.843553994</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5286,11 +5556,15 @@
         <v>1096316.217553994</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5319,11 +5593,15 @@
         <v>1096316.217553994</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5352,11 +5630,15 @@
         <v>283558.9471539941</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5385,11 +5667,15 @@
         <v>139357.4224539941</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5418,11 +5704,15 @@
         <v>139357.4224539941</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5451,11 +5741,15 @@
         <v>239921.0383539941</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5484,11 +5778,15 @@
         <v>239921.0383539941</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5517,11 +5815,15 @@
         <v>239921.0383539941</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5550,11 +5852,15 @@
         <v>239921.0383539941</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5583,11 +5889,15 @@
         <v>204488.0736539941</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5616,11 +5926,15 @@
         <v>204488.0736539941</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5649,11 +5963,15 @@
         <v>204488.0736539941</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5682,11 +6000,15 @@
         <v>204488.0736539941</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5715,11 +6037,15 @@
         <v>74941.41035399413</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5748,11 +6074,15 @@
         <v>194856.0495539941</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5781,11 +6111,15 @@
         <v>194856.0495539941</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5814,11 +6148,15 @@
         <v>197857.6612539942</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5847,11 +6185,15 @@
         <v>129152.6973539942</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5880,11 +6222,15 @@
         <v>388431.9046539941</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5913,11 +6259,15 @@
         <v>248322.1686539941</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5946,11 +6296,15 @@
         <v>248322.1686539941</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5979,11 +6333,15 @@
         <v>248322.1686539941</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6012,11 +6370,15 @@
         <v>248322.1686539941</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6045,11 +6407,15 @@
         <v>872948.3652539941</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6078,11 +6444,15 @@
         <v>872948.3652539941</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6111,11 +6481,15 @@
         <v>698250.6652539941</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6144,11 +6518,15 @@
         <v>767851.5887539941</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6181,7 +6559,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6214,7 +6596,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6247,7 +6633,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6280,7 +6670,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6313,7 +6707,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6346,7 +6744,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6379,7 +6781,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6412,7 +6818,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6445,7 +6855,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6478,7 +6892,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6511,7 +6929,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6544,7 +6966,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6577,7 +7003,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6610,7 +7040,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6643,7 +7077,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6676,7 +7114,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6709,7 +7151,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6742,7 +7188,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6775,7 +7225,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6808,7 +7262,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6841,7 +7299,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6874,7 +7336,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6907,7 +7373,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6940,7 +7410,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6973,7 +7447,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7006,7 +7484,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7039,7 +7521,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7072,7 +7558,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7105,7 +7595,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7138,7 +7632,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7171,7 +7669,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7204,7 +7706,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7237,7 +7743,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7270,7 +7780,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7303,7 +7817,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7336,7 +7854,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7369,7 +7891,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7402,7 +7928,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7435,7 +7965,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7468,7 +8002,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7501,7 +8039,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7534,7 +8076,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7567,7 +8113,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7600,7 +8150,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7633,7 +8187,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7666,7 +8224,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7699,7 +8261,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7732,7 +8298,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7765,7 +8335,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7798,7 +8372,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7831,7 +8409,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7864,7 +8446,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7897,7 +8483,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7930,7 +8520,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7963,7 +8557,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7996,7 +8594,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8029,7 +8631,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8062,7 +8668,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8095,7 +8705,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8128,7 +8742,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8161,7 +8779,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8194,7 +8816,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8227,7 +8853,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8260,7 +8890,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8293,7 +8927,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8326,7 +8964,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8359,7 +9001,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8392,7 +9038,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8425,7 +9075,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8458,7 +9112,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8491,7 +9149,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8524,7 +9186,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8557,7 +9223,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8590,7 +9260,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8623,7 +9297,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8656,7 +9334,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8689,7 +9371,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8722,7 +9408,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8755,7 +9445,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8788,7 +9482,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8821,7 +9519,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8854,7 +9556,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8887,7 +9593,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8920,7 +9630,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8953,7 +9667,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8986,7 +9704,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9019,7 +9741,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9052,7 +9778,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9085,7 +9815,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9118,7 +9852,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9151,7 +9889,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9184,7 +9926,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9217,7 +9963,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9250,7 +10000,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9283,7 +10037,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9316,7 +10074,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9349,7 +10111,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9382,7 +10148,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9415,7 +10185,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9448,7 +10222,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9481,7 +10259,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9514,7 +10296,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9547,7 +10333,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9580,7 +10370,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9613,7 +10407,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9646,7 +10444,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9679,7 +10481,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9712,7 +10518,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9745,7 +10555,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9778,7 +10592,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9811,7 +10629,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9844,7 +10666,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9877,7 +10703,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9910,7 +10740,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9943,7 +10777,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9972,11 +10810,15 @@
         <v>-1523907.540803397</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10005,11 +10847,15 @@
         <v>-1523907.540803397</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10038,11 +10884,15 @@
         <v>-1633681.666568883</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10071,11 +10921,15 @@
         <v>-1628035.29863437</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10108,7 +10962,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10141,7 +10999,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10174,7 +11036,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10207,7 +11073,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10240,7 +11110,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10273,7 +11147,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10306,7 +11184,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10339,7 +11221,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10368,14 +11254,16 @@
         <v>1746195.660475471</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L297" t="inlineStr"/>
       <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
@@ -10401,7 +11289,7 @@
         <v>1230411.119975471</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10434,7 +11322,7 @@
         <v>1122534.770475471</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10467,7 +11355,7 @@
         <v>1232979.898475471</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10500,7 +11388,7 @@
         <v>1232979.898475471</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10533,7 +11421,7 @@
         <v>1232979.898475471</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10566,7 +11454,7 @@
         <v>1431562.673575471</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10599,7 +11487,7 @@
         <v>1431562.673575471</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10632,7 +11520,7 @@
         <v>1364560.092775471</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10665,7 +11553,7 @@
         <v>1364560.092775471</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10698,7 +11586,7 @@
         <v>1364560.092775471</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10731,7 +11619,7 @@
         <v>1432955.570875471</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10764,7 +11652,7 @@
         <v>1176124.533175471</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10797,7 +11685,7 @@
         <v>1176124.533175471</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10830,7 +11718,7 @@
         <v>1176124.533175471</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10863,7 +11751,7 @@
         <v>1342132.224629569</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10896,7 +11784,7 @@
         <v>1342132.224629569</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10929,7 +11817,7 @@
         <v>1304478.239529569</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10962,7 +11850,7 @@
         <v>833174.8199295694</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10995,7 +11883,7 @@
         <v>844008.7973295694</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11028,7 +11916,7 @@
         <v>844008.7973295694</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11061,7 +11949,7 @@
         <v>719484.4299295694</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11094,7 +11982,7 @@
         <v>1161862.257029569</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11127,7 +12015,7 @@
         <v>1161862.257029569</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11160,7 +12048,7 @@
         <v>1163234.395829569</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11193,7 +12081,7 @@
         <v>1089998.996718826</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11226,7 +12114,7 @@
         <v>1012716.882318826</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11259,7 +12147,7 @@
         <v>1524181.801218826</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11292,7 +12180,7 @@
         <v>1549069.697518826</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11325,7 +12213,7 @@
         <v>1549069.697518826</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11358,7 +12246,7 @@
         <v>1549069.697518826</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11391,7 +12279,7 @@
         <v>1554269.697518826</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11424,7 +12312,7 @@
         <v>1531731.631018826</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11457,7 +12345,7 @@
         <v>1456852.519918825</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11490,7 +12378,7 @@
         <v>1411874.467118826</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12381,7 +13269,7 @@
         <v>2217181.145908082</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12414,7 +13302,7 @@
         <v>2193286.739308082</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12447,7 +13335,7 @@
         <v>2186626.710008082</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12513,7 +13401,7 @@
         <v>2186714.710008082</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12546,7 +13434,7 @@
         <v>2011979.012108082</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -21291,17 +22179,11 @@
         <v>-4802675.494038749</v>
       </c>
       <c r="H628" t="n">
-        <v>1</v>
-      </c>
-      <c r="I628" t="n">
-        <v>10.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21330,17 +22212,11 @@
         <v>-4802675.494038749</v>
       </c>
       <c r="H629" t="n">
-        <v>1</v>
-      </c>
-      <c r="I629" t="n">
-        <v>10.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21369,17 +22245,11 @@
         <v>-4843248.402538749</v>
       </c>
       <c r="H630" t="n">
-        <v>1</v>
-      </c>
-      <c r="I630" t="n">
-        <v>10.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21408,17 +22278,11 @@
         <v>-4843248.402538749</v>
       </c>
       <c r="H631" t="n">
-        <v>1</v>
-      </c>
-      <c r="I631" t="n">
-        <v>10.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21447,17 +22311,11 @@
         <v>-4843248.402538749</v>
       </c>
       <c r="H632" t="n">
-        <v>1</v>
-      </c>
-      <c r="I632" t="n">
-        <v>10.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21486,17 +22344,11 @@
         <v>-4843248.402538749</v>
       </c>
       <c r="H633" t="n">
-        <v>1</v>
-      </c>
-      <c r="I633" t="n">
-        <v>10.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21525,17 +22377,11 @@
         <v>-4843248.402538749</v>
       </c>
       <c r="H634" t="n">
-        <v>1</v>
-      </c>
-      <c r="I634" t="n">
-        <v>10.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21564,17 +22410,11 @@
         <v>-4829231.060038749</v>
       </c>
       <c r="H635" t="n">
-        <v>1</v>
-      </c>
-      <c r="I635" t="n">
-        <v>10.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21603,17 +22443,11 @@
         <v>-3617534.571038749</v>
       </c>
       <c r="H636" t="n">
-        <v>1</v>
-      </c>
-      <c r="I636" t="n">
-        <v>10.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21642,17 +22476,11 @@
         <v>-3617534.571038749</v>
       </c>
       <c r="H637" t="n">
-        <v>1</v>
-      </c>
-      <c r="I637" t="n">
-        <v>10.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
